--- a/publipostage2/041rhpw39/liste_essais_cliniques_identifies_041rhpw39.xlsx
+++ b/publipostage2/041rhpw39/liste_essais_cliniques_identifies_041rhpw39.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>status_label</t>
+          <t>statut_label</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">

--- a/publipostage2/041rhpw39/liste_essais_cliniques_identifies_041rhpw39.xlsx
+++ b/publipostage2/041rhpw39/liste_essais_cliniques_identifies_041rhpw39.xlsx
@@ -55,19 +55,19 @@
     <t>intervention_type</t>
   </si>
   <si>
-    <t>⬛</t>
-  </si>
-  <si>
-    <t>🟥</t>
-  </si>
-  <si>
-    <t>🟧</t>
-  </si>
-  <si>
-    <t>🟩</t>
-  </si>
-  <si>
-    <t>noir</t>
+    <t>📘</t>
+  </si>
+  <si>
+    <t>📕</t>
+  </si>
+  <si>
+    <t>📙</t>
+  </si>
+  <si>
+    <t>📗</t>
+  </si>
+  <si>
+    <t>bleu</t>
   </si>
   <si>
     <t>rouge</t>

--- a/publipostage2/041rhpw39/liste_essais_cliniques_identifies_041rhpw39.xlsx
+++ b/publipostage2/041rhpw39/liste_essais_cliniques_identifies_041rhpw39.xlsx
@@ -55,16 +55,16 @@
     <t>intervention_type</t>
   </si>
   <si>
-    <t>📘</t>
-  </si>
-  <si>
-    <t>📕</t>
-  </si>
-  <si>
-    <t>📙</t>
-  </si>
-  <si>
-    <t>📗</t>
+    <t>⚠️</t>
+  </si>
+  <si>
+    <t>-3</t>
+  </si>
+  <si>
+    <t>+3</t>
+  </si>
+  <si>
+    <t>✅</t>
   </si>
   <si>
     <t>bleu</t>

--- a/publipostage2/041rhpw39/liste_essais_cliniques_identifies_041rhpw39.xlsx
+++ b/publipostage2/041rhpw39/liste_essais_cliniques_identifies_041rhpw39.xlsx
@@ -67,7 +67,7 @@
     <t>✅</t>
   </si>
   <si>
-    <t>bleu</t>
+    <t>noir</t>
   </si>
   <si>
     <t>rouge</t>
@@ -79,16 +79,16 @@
     <t>vert</t>
   </si>
   <si>
-    <t>pas de résultat ni de publication</t>
-  </si>
-  <si>
-    <t>résultat et / ou publication posté</t>
-  </si>
-  <si>
-    <t>résultat et / ou publication posté dans les 36 mois</t>
-  </si>
-  <si>
-    <t>résultat et / ou publication posté dans les 12 mois</t>
+    <t>pas de résultat postés ni publiés</t>
+  </si>
+  <si>
+    <t>résultat postés ou publiés</t>
+  </si>
+  <si>
+    <t>résultat postés ou publiés dans les 36 mois</t>
+  </si>
+  <si>
+    <t>résultat postés ou publiés dans les 12 mois</t>
   </si>
   <si>
     <t>NCT00324584</t>

--- a/publipostage2/041rhpw39/liste_essais_cliniques_identifies_041rhpw39.xlsx
+++ b/publipostage2/041rhpw39/liste_essais_cliniques_identifies_041rhpw39.xlsx
@@ -76,55 +76,67 @@
     <t>NCT00348764</t>
   </si>
   <si>
+    <t>NCT00321256</t>
+  </si>
+  <si>
     <t>NCT00324792</t>
   </si>
   <si>
-    <t>NCT00321256</t>
-  </si>
-  <si>
     <t>NCT00230984</t>
   </si>
   <si>
+    <t>NCT00639561</t>
+  </si>
+  <si>
     <t>NCT00970385</t>
   </si>
   <si>
     <t>NCT00700544</t>
   </si>
   <si>
-    <t>NCT00639561</t>
-  </si>
-  <si>
     <t>NCT00417235</t>
   </si>
   <si>
+    <t>NCT00864955</t>
+  </si>
+  <si>
+    <t>NCT01015651</t>
+  </si>
+  <si>
+    <t>NCT00409487</t>
+  </si>
+  <si>
     <t>NCT00273767</t>
   </si>
   <si>
-    <t>NCT00864955</t>
-  </si>
-  <si>
-    <t>NCT01015651</t>
-  </si>
-  <si>
-    <t>NCT00409487</t>
+    <t>NCT00862381</t>
+  </si>
+  <si>
+    <t>NCT00827749</t>
   </si>
   <si>
     <t>NCT00758082</t>
   </si>
   <si>
-    <t>NCT00827749</t>
-  </si>
-  <si>
     <t>NCT00914329</t>
   </si>
   <si>
-    <t>NCT00862381</t>
+    <t>NCT00828035</t>
+  </si>
+  <si>
+    <t>NCT01082484</t>
+  </si>
+  <si>
+    <t>NCT01614119</t>
   </si>
   <si>
     <t>NCT00710099</t>
   </si>
   <si>
-    <t>NCT00828035</t>
+    <t>NCT01210755</t>
+  </si>
+  <si>
+    <t>NCT00860106</t>
   </si>
   <si>
     <t>NCT01189682</t>
@@ -133,546 +145,534 @@
     <t>NCT01398696</t>
   </si>
   <si>
-    <t>NCT01082484</t>
-  </si>
-  <si>
-    <t>NCT01210755</t>
-  </si>
-  <si>
-    <t>NCT01614119</t>
-  </si>
-  <si>
-    <t>NCT00860106</t>
+    <t>NCT01235637</t>
+  </si>
+  <si>
+    <t>NCT00886184</t>
+  </si>
+  <si>
+    <t>NCT01058200</t>
+  </si>
+  <si>
+    <t>NCT01411605</t>
   </si>
   <si>
     <t>NCT01295749</t>
   </si>
   <si>
+    <t>NCT00837018</t>
+  </si>
+  <si>
+    <t>NCT01743794</t>
+  </si>
+  <si>
+    <t>NCT00777985</t>
+  </si>
+  <si>
+    <t>NCT01290198</t>
+  </si>
+  <si>
     <t>NCT00885573</t>
   </si>
   <si>
-    <t>NCT01743794</t>
-  </si>
-  <si>
-    <t>NCT01411605</t>
-  </si>
-  <si>
-    <t>NCT00886184</t>
-  </si>
-  <si>
-    <t>NCT01235637</t>
-  </si>
-  <si>
-    <t>NCT00777985</t>
-  </si>
-  <si>
-    <t>NCT00837018</t>
-  </si>
-  <si>
-    <t>NCT01058200</t>
-  </si>
-  <si>
-    <t>NCT01290198</t>
-  </si>
-  <si>
     <t>NCT01821469</t>
   </si>
   <si>
     <t>NCT01773564</t>
   </si>
   <si>
+    <t>NCT01857089</t>
+  </si>
+  <si>
+    <t>NCT01095042</t>
+  </si>
+  <si>
     <t>NCT00464659</t>
   </si>
   <si>
-    <t>NCT01095042</t>
-  </si>
-  <si>
     <t>NCT01423409</t>
   </si>
   <si>
-    <t>NCT01857089</t>
-  </si>
-  <si>
     <t>NCT00935051</t>
   </si>
   <si>
+    <t>NCT02854306</t>
+  </si>
+  <si>
+    <t>NCT02880150</t>
+  </si>
+  <si>
+    <t>NCT00639028</t>
+  </si>
+  <si>
+    <t>NCT01798732</t>
+  </si>
+  <si>
+    <t>NCT01537965</t>
+  </si>
+  <si>
+    <t>NCT02843958</t>
+  </si>
+  <si>
+    <t>NCT00746902</t>
+  </si>
+  <si>
+    <t>NCT01672268</t>
+  </si>
+  <si>
     <t>NCT00908557</t>
   </si>
   <si>
+    <t>NCT01038284</t>
+  </si>
+  <si>
+    <t>NCT02128750</t>
+  </si>
+  <si>
+    <t>NCT01734603</t>
+  </si>
+  <si>
     <t>NCT02231528</t>
   </si>
   <si>
-    <t>NCT01672268</t>
-  </si>
-  <si>
-    <t>NCT01537965</t>
-  </si>
-  <si>
-    <t>NCT00746902</t>
-  </si>
-  <si>
-    <t>NCT00639028</t>
-  </si>
-  <si>
-    <t>NCT01734603</t>
-  </si>
-  <si>
-    <t>NCT01798732</t>
-  </si>
-  <si>
-    <t>NCT02854306</t>
-  </si>
-  <si>
-    <t>NCT01038284</t>
-  </si>
-  <si>
-    <t>NCT02880150</t>
-  </si>
-  <si>
-    <t>NCT02128750</t>
-  </si>
-  <si>
-    <t>NCT02843958</t>
+    <t>NCT02236442</t>
+  </si>
+  <si>
+    <t>NCT01799304</t>
+  </si>
+  <si>
+    <t>NCT02360241</t>
+  </si>
+  <si>
+    <t>NCT02849561</t>
+  </si>
+  <si>
+    <t>NCT01848964</t>
+  </si>
+  <si>
+    <t>NCT02843971</t>
+  </si>
+  <si>
+    <t>NCT02843893</t>
+  </si>
+  <si>
+    <t>NCT01741337</t>
+  </si>
+  <si>
+    <t>NCT01743612</t>
+  </si>
+  <si>
+    <t>NCT01814267</t>
   </si>
   <si>
     <t>NCT01308801</t>
   </si>
   <si>
-    <t>NCT01743612</t>
-  </si>
-  <si>
-    <t>NCT01799304</t>
+    <t>NCT02380482</t>
+  </si>
+  <si>
+    <t>NCT02316665</t>
   </si>
   <si>
     <t>NCT02050360</t>
   </si>
   <si>
-    <t>NCT01848964</t>
-  </si>
-  <si>
     <t>NCT01785589</t>
   </si>
   <si>
-    <t>NCT02236442</t>
-  </si>
-  <si>
-    <t>NCT02380482</t>
-  </si>
-  <si>
     <t>NCT01773876</t>
   </si>
   <si>
-    <t>NCT02843893</t>
-  </si>
-  <si>
-    <t>NCT02316665</t>
-  </si>
-  <si>
-    <t>NCT01741337</t>
-  </si>
-  <si>
-    <t>NCT02849561</t>
-  </si>
-  <si>
-    <t>NCT02360241</t>
-  </si>
-  <si>
-    <t>NCT02843971</t>
-  </si>
-  <si>
-    <t>NCT01814267</t>
+    <t>NCT02045173</t>
+  </si>
+  <si>
+    <t>NCT02095366</t>
+  </si>
+  <si>
+    <t>NCT02789696</t>
+  </si>
+  <si>
+    <t>NCT02538458</t>
   </si>
   <si>
     <t>NCT02632214</t>
   </si>
   <si>
+    <t>NCT02405767</t>
+  </si>
+  <si>
+    <t>NCT02596789</t>
+  </si>
+  <si>
     <t>NCT01896219</t>
   </si>
   <si>
+    <t>NCT01900379</t>
+  </si>
+  <si>
+    <t>NCT01770015</t>
+  </si>
+  <si>
+    <t>NCT02843438</t>
+  </si>
+  <si>
     <t>NCT02842255</t>
   </si>
   <si>
+    <t>NCT01816334</t>
+  </si>
+  <si>
+    <t>NCT02212249</t>
+  </si>
+  <si>
     <t>NCT02840305</t>
   </si>
   <si>
-    <t>NCT02843438</t>
-  </si>
-  <si>
-    <t>NCT01900379</t>
-  </si>
-  <si>
-    <t>NCT01816334</t>
-  </si>
-  <si>
-    <t>NCT02095366</t>
-  </si>
-  <si>
-    <t>NCT02538458</t>
-  </si>
-  <si>
-    <t>NCT02212249</t>
-  </si>
-  <si>
-    <t>NCT02596789</t>
-  </si>
-  <si>
-    <t>NCT02789696</t>
-  </si>
-  <si>
-    <t>NCT02405767</t>
-  </si>
-  <si>
-    <t>NCT02045173</t>
-  </si>
-  <si>
-    <t>NCT01770015</t>
+    <t>NCT02657213</t>
   </si>
   <si>
     <t>NCT02135458</t>
   </si>
   <si>
+    <t>NCT02537366</t>
+  </si>
+  <si>
+    <t>NCT02830022</t>
+  </si>
+  <si>
+    <t>NCT02925130</t>
+  </si>
+  <si>
+    <t>NCT01557712</t>
+  </si>
+  <si>
+    <t>NCT02782520</t>
+  </si>
+  <si>
+    <t>NCT02682290</t>
+  </si>
+  <si>
+    <t>NCT02844036</t>
+  </si>
+  <si>
+    <t>NCT02114749</t>
+  </si>
+  <si>
+    <t>NCT01863108</t>
+  </si>
+  <si>
+    <t>NCT03171571</t>
+  </si>
+  <si>
+    <t>NCT02869698</t>
+  </si>
+  <si>
+    <t>NCT03102983</t>
+  </si>
+  <si>
+    <t>NCT02351128</t>
+  </si>
+  <si>
     <t>NCT00875654</t>
   </si>
   <si>
-    <t>NCT02925130</t>
-  </si>
-  <si>
-    <t>NCT02869698</t>
-  </si>
-  <si>
-    <t>NCT03102983</t>
-  </si>
-  <si>
-    <t>NCT02114749</t>
-  </si>
-  <si>
-    <t>NCT02537366</t>
-  </si>
-  <si>
-    <t>NCT02682290</t>
-  </si>
-  <si>
-    <t>NCT02830022</t>
-  </si>
-  <si>
-    <t>NCT03171571</t>
-  </si>
-  <si>
-    <t>NCT02351128</t>
-  </si>
-  <si>
-    <t>NCT02657213</t>
-  </si>
-  <si>
-    <t>NCT02782520</t>
-  </si>
-  <si>
-    <t>NCT01557712</t>
-  </si>
-  <si>
     <t>NCT02980302</t>
   </si>
   <si>
-    <t>NCT02844036</t>
-  </si>
-  <si>
-    <t>NCT01863108</t>
+    <t>NCT03087318</t>
+  </si>
+  <si>
+    <t>NCT03268915</t>
+  </si>
+  <si>
+    <t>NCT03033095</t>
+  </si>
+  <si>
+    <t>NCT02329418</t>
+  </si>
+  <si>
+    <t>NCT02779400</t>
+  </si>
+  <si>
+    <t>NCT01995955</t>
+  </si>
+  <si>
+    <t>NCT03712592</t>
+  </si>
+  <si>
+    <t>NCT03375073</t>
+  </si>
+  <si>
+    <t>NCT03654430</t>
+  </si>
+  <si>
+    <t>NCT02021396</t>
+  </si>
+  <si>
+    <t>NCT02345694</t>
+  </si>
+  <si>
+    <t>NCT02854280</t>
   </si>
   <si>
     <t>NCT01148680</t>
   </si>
   <si>
-    <t>NCT02854280</t>
-  </si>
-  <si>
-    <t>NCT03712592</t>
-  </si>
-  <si>
-    <t>NCT03087318</t>
-  </si>
-  <si>
-    <t>NCT02329418</t>
-  </si>
-  <si>
     <t>NCT02298582</t>
   </si>
   <si>
-    <t>NCT03654430</t>
-  </si>
-  <si>
-    <t>NCT02345694</t>
-  </si>
-  <si>
-    <t>NCT03268915</t>
-  </si>
-  <si>
-    <t>NCT03375073</t>
-  </si>
-  <si>
-    <t>NCT02779400</t>
-  </si>
-  <si>
-    <t>NCT01995955</t>
-  </si>
-  <si>
     <t>NCT02779998</t>
   </si>
   <si>
-    <t>NCT03033095</t>
-  </si>
-  <si>
-    <t>NCT02021396</t>
+    <t>NCT03458507</t>
+  </si>
+  <si>
+    <t>NCT03992651</t>
+  </si>
+  <si>
+    <t>NCT03169088</t>
+  </si>
+  <si>
+    <t>NCT03305978</t>
   </si>
   <si>
     <t>NCT02773043</t>
   </si>
   <si>
+    <t>NCT03457623</t>
+  </si>
+  <si>
+    <t>NCT03087175</t>
+  </si>
+  <si>
+    <t>NCT03190031</t>
+  </si>
+  <si>
     <t>NCT03545529</t>
   </si>
   <si>
     <t>NCT02820454</t>
   </si>
   <si>
+    <t>NCT03821311</t>
+  </si>
+  <si>
+    <t>NCT02782533</t>
+  </si>
+  <si>
+    <t>NCT03507764</t>
+  </si>
+  <si>
+    <t>NCT02455089</t>
+  </si>
+  <si>
+    <t>NCT03211325</t>
+  </si>
+  <si>
     <t>NCT03120533</t>
   </si>
   <si>
-    <t>NCT03821311</t>
-  </si>
-  <si>
-    <t>NCT02782533</t>
-  </si>
-  <si>
-    <t>NCT03190031</t>
-  </si>
-  <si>
-    <t>NCT03457623</t>
-  </si>
-  <si>
-    <t>NCT03992651</t>
-  </si>
-  <si>
-    <t>NCT02455089</t>
-  </si>
-  <si>
-    <t>NCT03169088</t>
-  </si>
-  <si>
-    <t>NCT03458507</t>
-  </si>
-  <si>
-    <t>NCT03507764</t>
-  </si>
-  <si>
-    <t>NCT03087175</t>
-  </si>
-  <si>
-    <t>NCT03305978</t>
-  </si>
-  <si>
-    <t>NCT03211325</t>
+    <t>NCT03561649</t>
+  </si>
+  <si>
+    <t>NCT02120326</t>
+  </si>
+  <si>
+    <t>NCT03776773</t>
+  </si>
+  <si>
+    <t>NCT02574026</t>
+  </si>
+  <si>
+    <t>NCT03094793</t>
+  </si>
+  <si>
+    <t>NCT03632382</t>
+  </si>
+  <si>
+    <t>NCT02853006</t>
   </si>
   <si>
     <t>NCT03617094</t>
   </si>
   <si>
-    <t>NCT02120326</t>
-  </si>
-  <si>
-    <t>NCT02853006</t>
-  </si>
-  <si>
-    <t>NCT02574026</t>
-  </si>
-  <si>
-    <t>NCT03632382</t>
-  </si>
-  <si>
-    <t>NCT03094793</t>
-  </si>
-  <si>
     <t>NCT04262557</t>
   </si>
   <si>
-    <t>NCT03561649</t>
-  </si>
-  <si>
-    <t>NCT03776773</t>
+    <t>NCT02076698</t>
   </si>
   <si>
     <t>NCT04192097</t>
   </si>
   <si>
+    <t>NCT04325971</t>
+  </si>
+  <si>
+    <t>NCT03876990</t>
+  </si>
+  <si>
+    <t>NCT04462705</t>
+  </si>
+  <si>
+    <t>NCT02790411</t>
+  </si>
+  <si>
+    <t>NCT03903341</t>
+  </si>
+  <si>
+    <t>NCT02850367</t>
+  </si>
+  <si>
+    <t>NCT04703816</t>
+  </si>
+  <si>
+    <t>NCT02790424</t>
+  </si>
+  <si>
+    <t>NCT03969043</t>
+  </si>
+  <si>
+    <t>NCT02922647</t>
+  </si>
+  <si>
+    <t>NCT02410317</t>
+  </si>
+  <si>
+    <t>NCT04547569</t>
+  </si>
+  <si>
+    <t>NCT04242563</t>
+  </si>
+  <si>
+    <t>NCT03971994</t>
+  </si>
+  <si>
     <t>NCT04020731</t>
   </si>
   <si>
-    <t>NCT04325971</t>
-  </si>
-  <si>
     <t>NCT03160235</t>
   </si>
   <si>
-    <t>NCT02922647</t>
-  </si>
-  <si>
-    <t>NCT02790411</t>
-  </si>
-  <si>
-    <t>NCT04242563</t>
-  </si>
-  <si>
-    <t>NCT04462705</t>
-  </si>
-  <si>
     <t>NCT04036162</t>
   </si>
   <si>
-    <t>NCT02076698</t>
-  </si>
-  <si>
-    <t>NCT03903341</t>
+    <t>NCT04801550</t>
   </si>
   <si>
     <t>NCT03152539</t>
   </si>
   <si>
-    <t>NCT03969043</t>
-  </si>
-  <si>
-    <t>NCT02850367</t>
-  </si>
-  <si>
-    <t>NCT02410317</t>
-  </si>
-  <si>
-    <t>NCT02790424</t>
-  </si>
-  <si>
-    <t>NCT04703816</t>
-  </si>
-  <si>
-    <t>NCT04547569</t>
-  </si>
-  <si>
-    <t>NCT03971994</t>
-  </si>
-  <si>
-    <t>NCT04801550</t>
-  </si>
-  <si>
-    <t>NCT03876990</t>
+    <t>NCT02754063</t>
+  </si>
+  <si>
+    <t>NCT04562974</t>
   </si>
   <si>
     <t>NCT03428516</t>
   </si>
   <si>
+    <t>NCT03218722</t>
+  </si>
+  <si>
+    <t>NCT04159389</t>
+  </si>
+  <si>
+    <t>NCT03613025</t>
+  </si>
+  <si>
+    <t>NCT02817880</t>
+  </si>
+  <si>
+    <t>NCT04109625</t>
+  </si>
+  <si>
+    <t>NCT03938363</t>
+  </si>
+  <si>
+    <t>NCT02816203</t>
+  </si>
+  <si>
+    <t>NCT04590079</t>
+  </si>
+  <si>
+    <t>NCT05452018</t>
+  </si>
+  <si>
     <t>NCT03996616</t>
   </si>
   <si>
-    <t>NCT03613025</t>
-  </si>
-  <si>
-    <t>NCT03218722</t>
-  </si>
-  <si>
-    <t>NCT02754063</t>
-  </si>
-  <si>
-    <t>NCT05452018</t>
-  </si>
-  <si>
     <t>NCT03633370</t>
   </si>
   <si>
-    <t>NCT02817880</t>
-  </si>
-  <si>
-    <t>NCT04109625</t>
-  </si>
-  <si>
-    <t>NCT04590079</t>
-  </si>
-  <si>
-    <t>NCT04562974</t>
-  </si>
-  <si>
-    <t>NCT03938363</t>
-  </si>
-  <si>
-    <t>NCT02816203</t>
-  </si>
-  <si>
-    <t>NCT04159389</t>
+    <t>NCT04633980</t>
+  </si>
+  <si>
+    <t>NCT03844295</t>
+  </si>
+  <si>
+    <t>NCT05477069</t>
+  </si>
+  <si>
+    <t>NCT05120739</t>
+  </si>
+  <si>
+    <t>NCT04176341</t>
+  </si>
+  <si>
+    <t>NCT04682678</t>
+  </si>
+  <si>
+    <t>NCT04455074</t>
+  </si>
+  <si>
+    <t>NCT04825132</t>
+  </si>
+  <si>
+    <t>NCT03474575</t>
   </si>
   <si>
     <t>NCT04849975</t>
   </si>
   <si>
-    <t>NCT03474575</t>
-  </si>
-  <si>
-    <t>NCT05120739</t>
-  </si>
-  <si>
-    <t>NCT05477069</t>
-  </si>
-  <si>
-    <t>NCT04825132</t>
-  </si>
-  <si>
-    <t>NCT04682678</t>
-  </si>
-  <si>
-    <t>NCT04633980</t>
-  </si>
-  <si>
-    <t>NCT03844295</t>
-  </si>
-  <si>
-    <t>NCT04455074</t>
-  </si>
-  <si>
-    <t>NCT04176341</t>
+    <t>NCT02210585</t>
+  </si>
+  <si>
+    <t>NCT05092906</t>
+  </si>
+  <si>
+    <t>NCT03387475</t>
+  </si>
+  <si>
+    <t>NCT04971018</t>
+  </si>
+  <si>
+    <t>NCT04369118</t>
+  </si>
+  <si>
+    <t>NCT04126837</t>
   </si>
   <si>
     <t>NCT06648538</t>
   </si>
   <si>
-    <t>NCT05092906</t>
+    <t>NCT02851121</t>
   </si>
   <si>
     <t>NCT02660268</t>
   </si>
   <si>
-    <t>NCT04971018</t>
-  </si>
-  <si>
-    <t>NCT02851121</t>
-  </si>
-  <si>
-    <t>NCT04369118</t>
-  </si>
-  <si>
-    <t>NCT02210585</t>
-  </si>
-  <si>
-    <t>NCT04126837</t>
-  </si>
-  <si>
-    <t>NCT03387475</t>
-  </si>
-  <si>
     <t>2013-000014-38</t>
   </si>
   <si>
     <t>2013-001665-16</t>
   </si>
   <si>
+    <t>2014-003156-31</t>
+  </si>
+  <si>
     <t>2015-004485-28</t>
   </si>
   <si>
-    <t>2014-003156-31</t>
-  </si>
-  <si>
     <t>2014-001273-13</t>
   </si>
   <si>
@@ -754,55 +754,67 @@
     <t>Treatment of Greater Saphenous Vein (GSV) Insufficiency Using Echo-Guided Sclerotherapy With Lauromacrogol 400 Foam -Comparative Study of 3% Versus 1% Concentration.</t>
   </si>
   <si>
+    <t>Transplantation d'Ilots Pancreatiques Allogeniques Adultes Pour le Traitement du Diabete Insulino-dependant: Etude GRAGIL 2.</t>
+  </si>
+  <si>
     <t>Effect of an Intensive Insulin Therapy on the Production of LTE4 in Patients With Diabetes</t>
   </si>
   <si>
-    <t>Transplantation d'Ilots Pancreatiques Allogeniques Adultes Pour le Traitement du Diabete Insulino-dependant: Etude GRAGIL 2.</t>
-  </si>
-  <si>
     <t>Effects of Home Pulmonary Rehabilitation in Patients With Chronic Respiratory Failure and Nutritional Depletion.</t>
   </si>
   <si>
+    <t>Effect of Controlled Diets on Structural and Functional Dynamic of the Human Intestinal Microflora</t>
+  </si>
+  <si>
     <t>Multicentric Study About Treatment of High Grade Peripheral T Cell Lymphoma in Adults. LTP Study Comparison Between VIP ABVD Versus CHOP</t>
   </si>
   <si>
     <t>Adjonction of Androgenotheapy for Post-Remission Treatment of Elderly Patients With Acute Myeloid Leukemia - Results of the Multicenter Goelams SA-2002 Trial.</t>
   </si>
   <si>
-    <t>Effect of Controlled Diets on Structural and Functional Dynamic of the Human Intestinal Microflora</t>
-  </si>
-  <si>
     <t>Dressing: Comparison of 3-day and 7-day Catheter Dressing Frequency and Efficacy of Antiseptic Impregnated Dressing in Preventing Catheter-related Infection in ICU</t>
   </si>
   <si>
+    <t>Damage to DNA Caused by UV-A Irradiation: Photochemical Mechanism and Cutaneous Parameters Involved in the Formation of Cyclobutane Pyrimidine Dimers</t>
+  </si>
+  <si>
+    <t>Assessment of the Nociception During Lumbar Surgery</t>
+  </si>
+  <si>
+    <t>Comparative Study of Effect of Valsartan 160mg Treatment Versus Continuous Positive Airway Pressure on Arterial Blood Pressure in Patients Who Have an Obstructive Sleep Apnea Syndrome and a Weak or Moderate Hypertension.</t>
+  </si>
+  <si>
     <t>Double-blind Phase II Pilot Monocentric Randomized Clinical Trial Evaluating the Effect of a Preliminary Administration of Erythropoietin on Different Markers of Cardiac Ischemia Induced by Cardiopulmonary Bypass</t>
   </si>
   <si>
-    <t>Damage to DNA Caused by UV-A Irradiation: Photochemical Mechanism and Cutaneous Parameters Involved in the Formation of Cyclobutane Pyrimidine Dimers</t>
-  </si>
-  <si>
-    <t>Assessment of the Nociception During Lumbar Surgery</t>
-  </si>
-  <si>
-    <t>Comparative Study of Effect of Valsartan 160mg Treatment Versus Continuous Positive Airway Pressure on Arterial Blood Pressure in Patients Who Have an Obstructive Sleep Apnea Syndrome and a Weak or Moderate Hypertension.</t>
+    <t>Opothérapie Par Hydrocortisone après Injection Unique d'Etomidate Chez le Patient de réanimation</t>
+  </si>
+  <si>
+    <t>Contribution of Respiratory Plethysmography by Inductance and of Informatic Tool for the Study of Swallowing Disorders in Geriatrics (PRIOD)</t>
   </si>
   <si>
     <t>Reinforcement of the Impact of a Functional Insulin Therapy Training Course by Telemonotoring With a PDA-phone in Type 1 Diabetic Patients. The TELFIT Study</t>
   </si>
   <si>
-    <t>Contribution of Respiratory Plethysmography by Inductance and of Informatic Tool for the Study of Swallowing Disorders in Geriatrics (PRIOD)</t>
-  </si>
-  <si>
     <t>Randomized Controlled Study Versus Placebo Evaluating Effectiveness of Gelsemium Sempervirens (5CH et 15CH) on Provoked Anticipatory Anxiety, in Healthy Volunteers</t>
   </si>
   <si>
-    <t>Opothérapie Par Hydrocortisone après Injection Unique d'Etomidate Chez le Patient de réanimation</t>
+    <t>Light Endoscopic Robot Use in Abdominal and Urological Laparoscopic Surgery</t>
+  </si>
+  <si>
+    <t>Cutaneous Iontophoresis of Iloprost and Treprostinil in Healthy Volunteers</t>
+  </si>
+  <si>
+    <t>Evaluation of the Cerebral Responses to Exercise in Hypoxia</t>
   </si>
   <si>
     <t>Effect of Oral Sildenafil With Digital Therapeutic Iontophoresis of Sodium Nitroprussiate on Cutaneous Blood Flow in Healthy Volunteers</t>
   </si>
   <si>
-    <t>Light Endoscopic Robot Use in Abdominal and Urological Laparoscopic Surgery</t>
+    <t>Reversion of the Anticoagulant Effect of the New Antithrombotic Agents Anti-Xa and Anti IIa by Specific and Non-specific Haemostatic Drugs,: an Ex-Vivo Study in Healthy Volunteers</t>
+  </si>
+  <si>
+    <t>Study of Predictive Echo Doppler Score and D-dimer Level in Evaluation of the Thromboembolic Event Recurrence After Anticoagulant Treatment Cessation.</t>
   </si>
   <si>
     <t>Impact of Tegaderm HP and Tegaderm CHG in Major Catheter Related Infections and Dressing Detachment in ICU Patients a Prospective Randomized Study</t>
@@ -811,295 +823,304 @@
     <t>Impact of Four Patient Information Leaflets (PIL) on Patient Behaviour : a Randomised Controlled Trial in Primary Care.</t>
   </si>
   <si>
-    <t>Cutaneous Iontophoresis of Iloprost and Treprostinil in Healthy Volunteers</t>
-  </si>
-  <si>
-    <t>Reversion of the Anticoagulant Effect of the New Antithrombotic Agents Anti-Xa and Anti IIa by Specific and Non-specific Haemostatic Drugs,: an Ex-Vivo Study in Healthy Volunteers</t>
-  </si>
-  <si>
-    <t>Evaluation of the Cerebral Responses to Exercise in Hypoxia</t>
-  </si>
-  <si>
-    <t>Study of Predictive Echo Doppler Score and D-dimer Level in Evaluation of the Thromboembolic Event Recurrence After Anticoagulant Treatment Cessation.</t>
+    <t>Efficacy of Alfentanyl Versus Sufentanyl in Children for Pain During Treatment by Tracheal Suction in an Intensive Care Unit.</t>
+  </si>
+  <si>
+    <t>Intra-arrest Therapeutic Hypothermia in Prehospital Cardiac Arrest. Impact on Biomarker of Brain Damage.</t>
+  </si>
+  <si>
+    <t>Assess the Risk-benefit Balance of the New Vacuum Assisted-delivery Device "iCUP" Versus the Reference Vacuum. Multicenter Prospective Randomized Controlled Study</t>
+  </si>
+  <si>
+    <t>Influence of Cardio-ventilatory Factors on Exercise Intolerance in Obese Adolescents: Effects of Exercise Training</t>
   </si>
   <si>
     <t>Reduction of no Flow Time During Out of Hospital Cardiac Arrest by Using Laryngeal Tube for Airway Management by Nurses.</t>
   </si>
   <si>
+    <t>Exercise Intolerance in Obstructive Sleep Apnea Syndrome Patients: Cardiovascular and Metabolic Characterisation During Exercise. Treatments Effect.</t>
+  </si>
+  <si>
+    <t>Efficacy of Continuous Wound Infusion in Major Lumbar and Thoracic Spine Surgery : A Randomised, Double-blinded, Placebo-controlled Study</t>
+  </si>
+  <si>
+    <t>Cardiovascular Consequences of Obstructive Sleep Apnea (OSA): Role of Endothelin and Preventive Effects of Bosentan</t>
+  </si>
+  <si>
+    <t>Role of Epoxy-eicosatrienoic Acids in Post-occlusive Hyperemia and Thermal Hyperemia</t>
+  </si>
+  <si>
     <t>Measurement of Pharyngeal Sensitivity With the SENSITEST Device: Validation of the Diagnosis Algorithm for Sleep Disordered Breathing</t>
   </si>
   <si>
-    <t>Efficacy of Continuous Wound Infusion in Major Lumbar and Thoracic Spine Surgery : A Randomised, Double-blinded, Placebo-controlled Study</t>
-  </si>
-  <si>
-    <t>Influence of Cardio-ventilatory Factors on Exercise Intolerance in Obese Adolescents: Effects of Exercise Training</t>
-  </si>
-  <si>
-    <t>Intra-arrest Therapeutic Hypothermia in Prehospital Cardiac Arrest. Impact on Biomarker of Brain Damage.</t>
-  </si>
-  <si>
-    <t>Efficacy of Alfentanyl Versus Sufentanyl in Children for Pain During Treatment by Tracheal Suction in an Intensive Care Unit.</t>
-  </si>
-  <si>
-    <t>Cardiovascular Consequences of Obstructive Sleep Apnea (OSA): Role of Endothelin and Preventive Effects of Bosentan</t>
-  </si>
-  <si>
-    <t>Exercise Intolerance in Obstructive Sleep Apnea Syndrome Patients: Cardiovascular and Metabolic Characterisation During Exercise. Treatments Effect.</t>
-  </si>
-  <si>
-    <t>Assess the Risk-benefit Balance of the New Vacuum Assisted-delivery Device "iCUP" Versus the Reference Vacuum. Multicenter Prospective Randomized Controlled Study</t>
-  </si>
-  <si>
-    <t>Role of Epoxy-eicosatrienoic Acids in Post-occlusive Hyperemia and Thermal Hyperemia</t>
-  </si>
-  <si>
     <t>Functional Correlates of Bipolar Disorders and Effects of the Psychoeducation. Assessment by Functional and Anatomic Neuroimaging.</t>
   </si>
   <si>
     <t>Comparison Between Two Types of Semipermeable Dressings of New Generation in the Prevention of Intravascular Catheters Related Complications in Intensive Care.</t>
   </si>
   <si>
+    <t>Characterization of Sitting Postures in Healthy Subjects</t>
+  </si>
+  <si>
+    <t>Etude de la réactivité émotionnelle Des Patients MICI ou SII</t>
+  </si>
+  <si>
     <t>Comparison of the Evolution of Memory Deficit in Patients With Sleep Apnea Obstructive Syndrome (SAOS) Before and After "Effective" Versus Sham Treatment by Positive Pression Continues (PPC)</t>
   </si>
   <si>
-    <t>Etude de la réactivité émotionnelle Des Patients MICI ou SII</t>
-  </si>
-  <si>
     <t>Assessment of an Innovative Visual Analogue Scale of Pain (Pictorial VAS) Versus the Usual VAS (VAS) Among Deaf People</t>
   </si>
   <si>
-    <t>Characterization of Sitting Postures in Healthy Subjects</t>
-  </si>
-  <si>
     <t>Assessment of the MMP-1/TIMP-1 Ratio as a Predictor of Wound Healing in Diabetic Foot Ulcers</t>
   </si>
   <si>
+    <t>Psycho-sensorial Mindfulness and Top-down Control : Mindfulness Program for Obese Patients in Preparation to Bariatric Surgery</t>
+  </si>
+  <si>
+    <t>Physiological Characteristics of High Altitude Climbers</t>
+  </si>
+  <si>
+    <t>Comparative Study of Two Radiological Modalities, Ultrasonography Versus Stress Radiography, in the Urgent Care and Prognosis of Lateral Ankle Sprains.</t>
+  </si>
+  <si>
+    <t>Effect of Selective Laser Trabeculoplasty on the Intraocular Pressure Nycthemeral Rhythm.</t>
+  </si>
+  <si>
+    <t>Validation of a Portable Medical Device for Diagnostic in Vitro, Designed to Measure Blood Coagulation's Biological Parameters</t>
+  </si>
+  <si>
+    <t>Study of the Relationships Between Refractory Hypertension, Overweight/Obesity and Sleep Apnea Syndrome</t>
+  </si>
+  <si>
+    <t>Interest of Cardiac Computed Tomography (CT) to Optimize and Improve the Procedure of Transcatheter Aortic Valve Implantation (TAVI)</t>
+  </si>
+  <si>
     <t>Multicenter RCT to Assess the Impact of Improvements in Lexico-syntactic Readability and Good Practice in Writing on the Comprehension of Written Information Given to Patients Participating in Clinical Trials.</t>
   </si>
   <si>
+    <t>Evaluation of Multidisciplinary Collaboration Care Program in Pulmonary Arterial Hypertension</t>
+  </si>
+  <si>
+    <t>Echographie de Contraste Pour l'Analyse de la Perfusion Musculaire Dans l'ischémie Critique</t>
+  </si>
+  <si>
+    <t>Randomized, Monocentric and Multidisciplinary Study of the Effects of an Intensive Rehabilitation by Interval Training With Active Recovery in Peripheral Arterial Disease With Claudication</t>
+  </si>
+  <si>
     <t>Interest of Ultrasound Coupled to a Guidance System (GPS) for Central Venous Catheters (CVC) Insertion.</t>
   </si>
   <si>
-    <t>Interest of Cardiac Computed Tomography (CT) to Optimize and Improve the Procedure of Transcatheter Aortic Valve Implantation (TAVI)</t>
-  </si>
-  <si>
-    <t>Study of the Relationships Between Refractory Hypertension, Overweight/Obesity and Sleep Apnea Syndrome</t>
-  </si>
-  <si>
-    <t>Comparative Study of Two Radiological Modalities, Ultrasonography Versus Stress Radiography, in the Urgent Care and Prognosis of Lateral Ankle Sprains.</t>
-  </si>
-  <si>
-    <t>Randomized, Monocentric and Multidisciplinary Study of the Effects of an Intensive Rehabilitation by Interval Training With Active Recovery in Peripheral Arterial Disease With Claudication</t>
-  </si>
-  <si>
-    <t>Effect of Selective Laser Trabeculoplasty on the Intraocular Pressure Nycthemeral Rhythm.</t>
-  </si>
-  <si>
-    <t>Psycho-sensorial Mindfulness and Top-down Control : Mindfulness Program for Obese Patients in Preparation to Bariatric Surgery</t>
-  </si>
-  <si>
-    <t>Evaluation of Multidisciplinary Collaboration Care Program in Pulmonary Arterial Hypertension</t>
-  </si>
-  <si>
-    <t>Physiological Characteristics of High Altitude Climbers</t>
-  </si>
-  <si>
-    <t>Echographie de Contraste Pour l'Analyse de la Perfusion Musculaire Dans l'ischémie Critique</t>
-  </si>
-  <si>
-    <t>Validation of a Portable Medical Device for Diagnostic in Vitro, Designed to Measure Blood Coagulation's Biological Parameters</t>
+    <t>Therapeutic Management of Acute Cephalalgia Before and After Use of a Therapeutic Protocol in Emergency Department</t>
+  </si>
+  <si>
+    <t>Is it Possible to Improve Static and Dynamic Postural Stability in Cerebral Palsy Children by Modulating Attention?</t>
+  </si>
+  <si>
+    <t>LPRobacus: Light Needle Positioning Robot Under MRI Guidance</t>
+  </si>
+  <si>
+    <t>Evaluation of Prognosis Factors of Neurological Evolution in Cardiac Arrest : Prospective Study of Routine Care</t>
+  </si>
+  <si>
+    <t>Peut-on améliorer la Marche de l'amputé fémoral en Guidant la Correction prothétique Par l'Analyse Des Pressions Dans l'emboîture ?</t>
+  </si>
+  <si>
+    <t>Evaluation of the Water Drinking Test Response in Supine and Sitting Position Using the Continuous Intraocular Pressure Measurement Device Sensimed Triggerfish in Healthy Subjects</t>
+  </si>
+  <si>
+    <t>Evaluation of Pupillary Distension Reflexes, as a Tool for the Monitoring of Analgesia for Patients in Intensive Care.</t>
+  </si>
+  <si>
+    <t>Central Sleep Apneas Syndrome and Ventricular Function in Patients With Heart Failure, After Coronary Artery Bypass Graft Surgery or Other Coronary Reperfusion</t>
+  </si>
+  <si>
+    <t>Laser SPEckle Contrast Imaging Interest in dEtection of Cutaneous Microvascular Dysfunction in Systemic Sclerosis.</t>
   </si>
   <si>
     <t>Benefice Assessment of Repetitive Transcranial Magnetic Stimulation Used as an Additional Procedure to Rehabilitation Exercises in Patients Suffering From Fibromyalgia</t>
   </si>
   <si>
-    <t>Laser SPEckle Contrast Imaging Interest in dEtection of Cutaneous Microvascular Dysfunction in Systemic Sclerosis.</t>
-  </si>
-  <si>
-    <t>Is it Possible to Improve Static and Dynamic Postural Stability in Cerebral Palsy Children by Modulating Attention?</t>
+    <t>Myocardial Dysfunction at Early Phase of Traumatic Brain Injury : Evaluation by Two Dimensional and Speckle Tracking Transthoracic Echocardiography</t>
+  </si>
+  <si>
+    <t>Effect of Continuous Positive Airway Pressure Treatment on Nocturnal Glycemia of Patients Having Type 1 Diabetes and Sleep Apnea Syndrome: a Randomized Controlled Trial</t>
   </si>
   <si>
     <t>Efficacy and Safety of "as Required" Sildenafil for Patients With Moderate to Severe Raynaud's Phenomenon (RP)</t>
   </si>
   <si>
-    <t>Peut-on améliorer la Marche de l'amputé fémoral en Guidant la Correction prothétique Par l'Analyse Des Pressions Dans l'emboîture ?</t>
-  </si>
-  <si>
     <t>Stress Thallium-201/Rest Technetium-99m Sequential Dual Isotope High-Speed Myocardial Perfusion Imaging Validation Versus Invasive Coronary Angiography</t>
   </si>
   <si>
-    <t>Therapeutic Management of Acute Cephalalgia Before and After Use of a Therapeutic Protocol in Emergency Department</t>
-  </si>
-  <si>
-    <t>Myocardial Dysfunction at Early Phase of Traumatic Brain Injury : Evaluation by Two Dimensional and Speckle Tracking Transthoracic Echocardiography</t>
-  </si>
-  <si>
     <t>Micafungin Versus Placebo in the Nosocomial Sepsis in Patients Multi-colonized With Candida, Randomized Controlled Trial</t>
   </si>
   <si>
-    <t>Evaluation of Pupillary Distension Reflexes, as a Tool for the Monitoring of Analgesia for Patients in Intensive Care.</t>
-  </si>
-  <si>
-    <t>Effect of Continuous Positive Airway Pressure Treatment on Nocturnal Glycemia of Patients Having Type 1 Diabetes and Sleep Apnea Syndrome: a Randomized Controlled Trial</t>
-  </si>
-  <si>
-    <t>Central Sleep Apneas Syndrome and Ventricular Function in Patients With Heart Failure, After Coronary Artery Bypass Graft Surgery or Other Coronary Reperfusion</t>
-  </si>
-  <si>
-    <t>Evaluation of Prognosis Factors of Neurological Evolution in Cardiac Arrest : Prospective Study of Routine Care</t>
-  </si>
-  <si>
-    <t>LPRobacus: Light Needle Positioning Robot Under MRI Guidance</t>
-  </si>
-  <si>
-    <t>Evaluation of the Water Drinking Test Response in Supine and Sitting Position Using the Continuous Intraocular Pressure Measurement Device Sensimed Triggerfish in Healthy Subjects</t>
+    <t>Screening for Sleep-disordered Breathing in Routine Cardiology Practice: Validation of the Apnea + Hypopnea Detection by an Implantable Cardioverter Defibrillator (ICD) or Cardiac Resynchronization Therapy-defibrillator (CRT-D) With Impedance-based Respiration Sensor (ApneaScanTM)</t>
+  </si>
+  <si>
+    <t>Intra Nasal Sufentanil Versus Intravenous Morphine for Acute Severe Traumatic Pain Analgesia in Emergency Setting. A Multicenter,Randomized,Controled, Comparative, Double Blinded Study</t>
+  </si>
+  <si>
+    <t>Prevalence of Acromegaly in a Diagnostic Consultation for Sleep Apnea Syndrome: A Prospective, National and Multicentric Study</t>
+  </si>
+  <si>
+    <t>Effects of Reduction of the Length of Treatment by Nebulized 3% Hypertonic Saline From 72 to 24 Hours on Clinical Remission, in Children Younger Than 12 Month Hospitalized for Acute Bronchiolitis. BRONDUSAL</t>
   </si>
   <si>
     <t>Plasticity and Cross-modal Interactions for Oral Communication in Profoundly Deaf Adults</t>
   </si>
   <si>
+    <t>Characterisation by Electric Impedance Measurements of the Different Wound Healing Phases of Diabetic Foot Ulcers</t>
+  </si>
+  <si>
+    <t>Study of Cortical Excitability in Healthy Subjects With Transcranial Magnetic Stimulation (TMS) and a Neuronavigation Device</t>
+  </si>
+  <si>
     <t>Multicentric Evaluation of IMACTIS-CT Navigation System</t>
   </si>
   <si>
+    <t>Impact of the Obstructive Sleep Apnea Syndrome Treatment and Ventricular Function in Heart Failure Patients Undergoing Coronary Artery Bypass Surgery or Other Coronary Reperfusion</t>
+  </si>
+  <si>
+    <t>Study of the Impact of Bronchial Colonization With Fungi in the Occurrence of Late Ventilator Acquired Pneumonia</t>
+  </si>
+  <si>
+    <t>Evaluation of Biological Biomarkers Diagnostic of Toxoplasmosis Uveitis</t>
+  </si>
+  <si>
     <t>Calibration of a New Reflectance Oximeter.</t>
   </si>
   <si>
+    <t>Safety and Efficacy of Nonsteroidal Antiinflammatory Drug and Glucocorticoids in Acute Sciatica</t>
+  </si>
+  <si>
+    <t>Soluble VE-cadherin and VE-cadherin Antibody in Sclerodermic Sclerosis</t>
+  </si>
+  <si>
     <t>Brain Bases of Visual Perceptionnatural Scenes of Natural Scenes.</t>
   </si>
   <si>
-    <t>Evaluation of Biological Biomarkers Diagnostic of Toxoplasmosis Uveitis</t>
-  </si>
-  <si>
-    <t>Impact of the Obstructive Sleep Apnea Syndrome Treatment and Ventricular Function in Heart Failure Patients Undergoing Coronary Artery Bypass Surgery or Other Coronary Reperfusion</t>
-  </si>
-  <si>
-    <t>Safety and Efficacy of Nonsteroidal Antiinflammatory Drug and Glucocorticoids in Acute Sciatica</t>
-  </si>
-  <si>
-    <t>Intra Nasal Sufentanil Versus Intravenous Morphine for Acute Severe Traumatic Pain Analgesia in Emergency Setting. A Multicenter,Randomized,Controled, Comparative, Double Blinded Study</t>
-  </si>
-  <si>
-    <t>Effects of Reduction of the Length of Treatment by Nebulized 3% Hypertonic Saline From 72 to 24 Hours on Clinical Remission, in Children Younger Than 12 Month Hospitalized for Acute Bronchiolitis. BRONDUSAL</t>
-  </si>
-  <si>
-    <t>Soluble VE-cadherin and VE-cadherin Antibody in Sclerodermic Sclerosis</t>
-  </si>
-  <si>
-    <t>Study of Cortical Excitability in Healthy Subjects With Transcranial Magnetic Stimulation (TMS) and a Neuronavigation Device</t>
-  </si>
-  <si>
-    <t>Prevalence of Acromegaly in a Diagnostic Consultation for Sleep Apnea Syndrome: A Prospective, National and Multicentric Study</t>
-  </si>
-  <si>
-    <t>Characterisation by Electric Impedance Measurements of the Different Wound Healing Phases of Diabetic Foot Ulcers</t>
-  </si>
-  <si>
-    <t>Screening for Sleep-disordered Breathing in Routine Cardiology Practice: Validation of the Apnea + Hypopnea Detection by an Implantable Cardioverter Defibrillator (ICD) or Cardiac Resynchronization Therapy-defibrillator (CRT-D) With Impedance-based Respiration Sensor (ApneaScanTM)</t>
-  </si>
-  <si>
-    <t>Study of the Impact of Bronchial Colonization With Fungi in the Occurrence of Late Ventilator Acquired Pneumonia</t>
+    <t>Study of Minimed 640G Insulin Pump With SmartGuard in Prevention of Low Glucose Events in Adults With Type 1 Diabetes at Risk of Severe Hypoglycemia</t>
+  </si>
+  <si>
+    <t>Etude de la tolérance du fentanyl intranasal (Pecfent®) dans le traitement des douleurs procédurales chez la personne âgée, avec ou sans traitement de fond.</t>
+  </si>
+  <si>
+    <t>Effets d’un soluté hypertonique et du Ringer Lactate sur la fonction ventriculaire droite après chirurgie cardiaque</t>
   </si>
   <si>
     <t>Clinical and Medico-economic Assessment of Conventional Care Plus the "Autonom@Dom" Telemonitoring System Versus a Conventional Care Package Alone, for People With Heart Failure in Several French Structures.</t>
   </si>
   <si>
-    <t>Effets d’un soluté hypertonique et du Ringer Lactate sur la fonction ventriculaire droite après chirurgie cardiaque</t>
+    <t>Dexmedetomidine for Non-invasive Ventilation After Chest Trauma (VENDETTA)</t>
+  </si>
+  <si>
+    <t>Sleep, Autonomic Nervous System and Cardiorespiratory Capacity in Autism Spectrum Disorders Children</t>
+  </si>
+  <si>
+    <t>Beta2-mimetic and Central Nervous System: Effects of Salbutamol on Cortical Excitability and Cerebral Activation</t>
+  </si>
+  <si>
+    <t>Estimate the Efficiency of the Association of an Injection of Ketamine and the Venlafaxine in the Severe Major Depressive Disorder for Six Weeks.</t>
+  </si>
+  <si>
+    <t>Comparison of the Effects of an Hypertonic Solution With Ringer Lactate on Right Ventricular Function Following Cardiac Surgery</t>
+  </si>
+  <si>
+    <t>Assessment of a Device Used for Measuring the Rheological Parameters of Human Sputum.</t>
+  </si>
+  <si>
+    <t>Angioplasty of Distal Lesions for Carriers of Inoperable Post-embolic HTP</t>
+  </si>
+  <si>
+    <t>Development of Tools for Respiration and Circulation Studies and Exploration, Their Mutual Interactions and the Functions Involved in the Daily Life in Healthy Volunteers</t>
+  </si>
+  <si>
+    <t>Dose-escalation Study to Assess the Safety and Tolerability of Sub-cutaneous Injections of a Peptide-loaded Plasmacytoid Dendritic Cell Line (GeniusVac-Mel4) in Patients With Melanoma</t>
+  </si>
+  <si>
+    <t>Personal Lifestyle Assistant for Better Health Through Nutrition : Cook to Health Study</t>
+  </si>
+  <si>
+    <t>Spectral Dynamic Imaging of Cognitive Functions in Epileptic Patients Explored</t>
+  </si>
+  <si>
+    <t>Sensory-motor Interactions in the Perception of Vowels: a Study in Repetition - Suppression</t>
+  </si>
+  <si>
+    <t>Traitement Des Carcinomes à Cellules de Merkel inopérables et/ou métastatiques Par Analogue de la Somatostatine - Etude Nationale Multicentrique Mono-bras de Phase II.</t>
   </si>
   <si>
     <t>Cell Therapy by Intravenous Injection of Mesenchymal Stem Cells After Stroke</t>
   </si>
   <si>
-    <t>Etude de la tolérance du fentanyl intranasal (Pecfent®) dans le traitement des douleurs procédurales chez la personne âgée, avec ou sans traitement de fond.</t>
-  </si>
-  <si>
-    <t>Beta2-mimetic and Central Nervous System: Effects of Salbutamol on Cortical Excitability and Cerebral Activation</t>
-  </si>
-  <si>
-    <t>Spectral Dynamic Imaging of Cognitive Functions in Epileptic Patients Explored</t>
-  </si>
-  <si>
-    <t>Sensory-motor Interactions in the Perception of Vowels: a Study in Repetition - Suppression</t>
-  </si>
-  <si>
-    <t>Development of Tools for Respiration and Circulation Studies and Exploration, Their Mutual Interactions and the Functions Involved in the Daily Life in Healthy Volunteers</t>
-  </si>
-  <si>
-    <t>Dexmedetomidine for Non-invasive Ventilation After Chest Trauma (VENDETTA)</t>
-  </si>
-  <si>
-    <t>Assessment of a Device Used for Measuring the Rheological Parameters of Human Sputum.</t>
-  </si>
-  <si>
-    <t>Sleep, Autonomic Nervous System and Cardiorespiratory Capacity in Autism Spectrum Disorders Children</t>
-  </si>
-  <si>
-    <t>Personal Lifestyle Assistant for Better Health Through Nutrition : Cook to Health Study</t>
-  </si>
-  <si>
-    <t>Traitement Des Carcinomes à Cellules de Merkel inopérables et/ou métastatiques Par Analogue de la Somatostatine - Etude Nationale Multicentrique Mono-bras de Phase II.</t>
-  </si>
-  <si>
-    <t>Study of Minimed 640G Insulin Pump With SmartGuard in Prevention of Low Glucose Events in Adults With Type 1 Diabetes at Risk of Severe Hypoglycemia</t>
-  </si>
-  <si>
-    <t>Comparison of the Effects of an Hypertonic Solution With Ringer Lactate on Right Ventricular Function Following Cardiac Surgery</t>
-  </si>
-  <si>
-    <t>Estimate the Efficiency of the Association of an Injection of Ketamine and the Venlafaxine in the Severe Major Depressive Disorder for Six Weeks.</t>
-  </si>
-  <si>
     <t>Development of the Tool " iPSC " (Induced Pluripotent Stem Cells) for the Functional Study of Mutations Responsible for Mental Retardation - Application to Familial Study of MYT1L Gene Mutations</t>
   </si>
   <si>
-    <t>Angioplasty of Distal Lesions for Carriers of Inoperable Post-embolic HTP</t>
-  </si>
-  <si>
-    <t>Dose-escalation Study to Assess the Safety and Tolerability of Sub-cutaneous Injections of a Peptide-loaded Plasmacytoid Dendritic Cell Line (GeniusVac-Mel4) in Patients With Melanoma</t>
+    <t>Sport as a Treatment in Chronic Diseases and Healthcare Sustainability: Sport 4 Health</t>
+  </si>
+  <si>
+    <t>Assessment of the Reproducibility of the 3 Minutes Sit-to-stand Test in Patients With Idiopathic Pulmonary Fibrosis (IPF)</t>
+  </si>
+  <si>
+    <t>Prediction of the Answer to the Treatment by Biotherapies for Naive Spondyloarthritis Disease During 6 Months by Combinatorial Analysis of Serum Biomarkers</t>
+  </si>
+  <si>
+    <t>Impact of a Written Document on Post Traumatic Stress Disorder (PTSD) Diagnosed in Family Members After Withholding and Withdrawing Life-sustaining Therapies in the Intensive Care Unit</t>
+  </si>
+  <si>
+    <t>Conformity Measurement Assessment of a Diagnostic Medical Device Used for the Measurement of the INR (International Normalized Ratio)</t>
+  </si>
+  <si>
+    <t>The Proposed Study is to Validate a New Non-invasive Imaging Technique for Evaluation of Cardiac Microciculation in Coronary Artery Disease With a Comparison With Validated Technique Invasive, Which is Measure of Index of Myocardial Resistance</t>
+  </si>
+  <si>
+    <t>Physiological Constraints Associated With Trail Running</t>
+  </si>
+  <si>
+    <t>Positive Communication Within Healthcare Team and Clinical Performance: a Prospective, Randomised and Controlled Simulation Trial.</t>
+  </si>
+  <si>
+    <t>Longitudinal Study by 2D-speckle-tracking Echocardiography of the Ventricular Wall Motion During Postnatal Adaptation</t>
+  </si>
+  <si>
+    <t>Benefit of Prophylactic Embolization of the Splenic Salvage in Trauma Patients at High Risk of Splenectomy.</t>
+  </si>
+  <si>
+    <t>Non-automatic Control of Gait and Posture in Obstructive Sleep Apnea Syndrome : a Randomised Controlled Trial of Continuous Positive Airway Pressure Effectiveness (CIH - Gait)</t>
+  </si>
+  <si>
+    <t>Brain During Effort : Effects of Hypoxia With Respiratory Patients</t>
   </si>
   <si>
     <t>Randomized Controlled Trial Comparing the Metabolic Efficiency of Allogeneic Pancreatic Islet Transplantation to Intensive Insulin Therapy for the Treatment of Type 1 Diabetes</t>
   </si>
   <si>
-    <t>Brain During Effort : Effects of Hypoxia With Respiratory Patients</t>
-  </si>
-  <si>
-    <t>Physiological Constraints Associated With Trail Running</t>
-  </si>
-  <si>
-    <t>Sport as a Treatment in Chronic Diseases and Healthcare Sustainability: Sport 4 Health</t>
-  </si>
-  <si>
-    <t>Impact of a Written Document on Post Traumatic Stress Disorder (PTSD) Diagnosed in Family Members After Withholding and Withdrawing Life-sustaining Therapies in the Intensive Care Unit</t>
-  </si>
-  <si>
     <t>Safety of Intranasal Fentanyl (PecFent®) in the Treatment of Procedural Pain in the Elderly With or Without Background Treatment.</t>
   </si>
   <si>
-    <t>Longitudinal Study by 2D-speckle-tracking Echocardiography of the Ventricular Wall Motion During Postnatal Adaptation</t>
-  </si>
-  <si>
-    <t>Non-automatic Control of Gait and Posture in Obstructive Sleep Apnea Syndrome : a Randomised Controlled Trial of Continuous Positive Airway Pressure Effectiveness (CIH - Gait)</t>
-  </si>
-  <si>
-    <t>Assessment of the Reproducibility of the 3 Minutes Sit-to-stand Test in Patients With Idiopathic Pulmonary Fibrosis (IPF)</t>
-  </si>
-  <si>
-    <t>Positive Communication Within Healthcare Team and Clinical Performance: a Prospective, Randomised and Controlled Simulation Trial.</t>
-  </si>
-  <si>
-    <t>Conformity Measurement Assessment of a Diagnostic Medical Device Used for the Measurement of the INR (International Normalized Ratio)</t>
-  </si>
-  <si>
-    <t>The Proposed Study is to Validate a New Non-invasive Imaging Technique for Evaluation of Cardiac Microciculation in Coronary Artery Disease With a Comparison With Validated Technique Invasive, Which is Measure of Index of Myocardial Resistance</t>
-  </si>
-  <si>
     <t>Prophylactic Non-invasive Ventilation During Surgical Procedure in Rhythmology</t>
   </si>
   <si>
-    <t>Prediction of the Answer to the Treatment by Biotherapies for Naive Spondyloarthritis Disease During 6 Months by Combinatorial Analysis of Serum Biomarkers</t>
-  </si>
-  <si>
-    <t>Benefit of Prophylactic Embolization of the Splenic Salvage in Trauma Patients at High Risk of Splenectomy.</t>
+    <t>Impact of the Type of Interface in Neuromuscular Patients Treated With Nocturnal Noninvasive Ventilation: a Randomized Crossover Trial</t>
+  </si>
+  <si>
+    <t>Validation of Optical Transcutaneous Sensors to Measure Capnia and Tissue Oxygenation</t>
+  </si>
+  <si>
+    <t>"Cook to Health 2" : Monitoring Wellbeing and Health in the Community</t>
+  </si>
+  <si>
+    <t>Detection of Pulmonary Nodules: Comparison of Ultra-low-dose Chest CT (Approaching a Two Views Chest X-ray Radiation) and Standard Low Dose CT. A Monocentric, Prospective, Non-randomized, Comparative, Open-label Study With Blind Reading of the Judgment Criteria.</t>
+  </si>
+  <si>
+    <t>Medico-economic Evaluation of a "IsereADOM" Package of Services Versus Conventional Health and Social Monitoring, in the Care of a Population of People With Heart Failure in Isère.</t>
+  </si>
+  <si>
+    <t>Impact of Polyethylene Terephthalate Micronet Mesh-Covered Stent (MGuard) on Coronary Microcirculation's Lesions in Patients With ST or Non ST-segment Elevation Myocardial Infarction (STE and NSTE-ACS): Assessment by Index of Microcirculatory Resistance (IMR)</t>
+  </si>
+  <si>
+    <t>Respiratory Muscle Training in Patients With Cystic Fibrosis</t>
   </si>
   <si>
     <t>Medico-economic Assessment of a "IsereADOM" Package of Services Versus Conventional Monitoring in the Care of a Population of Frail Elderly People With Loss of Autonomy.</t>
@@ -1108,381 +1129,384 @@
     <t>Etude Clinique de Phase I de Radiosensibilisation de métastases cérébrales Par Nanoparticules de Gadolinium</t>
   </si>
   <si>
+    <t>Investigating the Effect of Nasal High Flow Oxygen Therapy on Regional Lung Function</t>
+  </si>
+  <si>
+    <t>Evaluation of a Treadmill Workstation in an Emergency Dispatch Center. A Randomized Controlled Trial.</t>
+  </si>
+  <si>
+    <t>Prognosis Assessment of the Increase of GADD34 Gene Expression for Patient Suffering From Systemic Lupus Erythematosus</t>
+  </si>
+  <si>
+    <t>Identification of Transient Receptor Potential (TRP) Channels as New Potential Therapeutic Targets in Primary and Secondary Raynaud's Phenomenon.</t>
+  </si>
+  <si>
     <t>Therapeutic Iontophoresis of Treprostinil in Systemic Sclerosis Digital UlcErations. A Proof of Concept Study</t>
   </si>
   <si>
-    <t>Investigating the Effect of Nasal High Flow Oxygen Therapy on Regional Lung Function</t>
-  </si>
-  <si>
-    <t>Respiratory Muscle Training in Patients With Cystic Fibrosis</t>
-  </si>
-  <si>
-    <t>Medico-economic Evaluation of a "IsereADOM" Package of Services Versus Conventional Health and Social Monitoring, in the Care of a Population of People With Heart Failure in Isère.</t>
-  </si>
-  <si>
-    <t>Validation of Optical Transcutaneous Sensors to Measure Capnia and Tissue Oxygenation</t>
-  </si>
-  <si>
-    <t>Prognosis Assessment of the Increase of GADD34 Gene Expression for Patient Suffering From Systemic Lupus Erythematosus</t>
-  </si>
-  <si>
-    <t>"Cook to Health 2" : Monitoring Wellbeing and Health in the Community</t>
-  </si>
-  <si>
-    <t>Impact of the Type of Interface in Neuromuscular Patients Treated With Nocturnal Noninvasive Ventilation: a Randomized Crossover Trial</t>
-  </si>
-  <si>
-    <t>Evaluation of a Treadmill Workstation in an Emergency Dispatch Center. A Randomized Controlled Trial.</t>
-  </si>
-  <si>
-    <t>Impact of Polyethylene Terephthalate Micronet Mesh-Covered Stent (MGuard) on Coronary Microcirculation's Lesions in Patients With ST or Non ST-segment Elevation Myocardial Infarction (STE and NSTE-ACS): Assessment by Index of Microcirculatory Resistance (IMR)</t>
-  </si>
-  <si>
-    <t>Detection of Pulmonary Nodules: Comparison of Ultra-low-dose Chest CT (Approaching a Two Views Chest X-ray Radiation) and Standard Low Dose CT. A Monocentric, Prospective, Non-randomized, Comparative, Open-label Study With Blind Reading of the Judgment Criteria.</t>
-  </si>
-  <si>
-    <t>Identification of Transient Receptor Potential (TRP) Channels as New Potential Therapeutic Targets in Primary and Secondary Raynaud's Phenomenon.</t>
+    <t>Prediction of Adalimumab Treatment Response at 6 Months by Combinatorial Analysis of Serum Biomarkers in Biotherapy Naive Spondyloarthritis: Pilot Study</t>
+  </si>
+  <si>
+    <t>Randomised Double-blind Evaluation of the Prophylactic Efficacy of Transcranial Direct Current Stimulation (tDCS) in Chronic Migraine</t>
+  </si>
+  <si>
+    <t>Impact of Pollution on Allergic Rhinitis and Sleep Quality: the POLLAR Study</t>
+  </si>
+  <si>
+    <t>MagnetoEncephaloGraphy Study of Cerebral Activations Induced by Psychomotor Tasks for Target Localisation in View of BCI Clinical Trial</t>
+  </si>
+  <si>
+    <t>Impact of Interictal Electroencephalographic Abnormalities on the Stability of Attention in the Epilepsies in Adults and Children</t>
+  </si>
+  <si>
+    <t>Non-invasive Device for the Screening and Diagnosis of Sleep Apnea Syndrome</t>
+  </si>
+  <si>
+    <t>Study on Fluids Associated to Lung Cancer, of the Ectopic Expression of Cancer Testis Gene and Mutation as Diagnostics and Prognosis Biomarkers</t>
   </si>
   <si>
     <t>Early Percutaneous Vertebroplasty Versus Standard Conservative Treatment in Thoracolumbar Vertebral Fractures. Monocentric, Prospective, Randomised and Compared Clinical Study</t>
   </si>
   <si>
-    <t>Randomised Double-blind Evaluation of the Prophylactic Efficacy of Transcranial Direct Current Stimulation (tDCS) in Chronic Migraine</t>
-  </si>
-  <si>
-    <t>Study on Fluids Associated to Lung Cancer, of the Ectopic Expression of Cancer Testis Gene and Mutation as Diagnostics and Prognosis Biomarkers</t>
-  </si>
-  <si>
-    <t>MagnetoEncephaloGraphy Study of Cerebral Activations Induced by Psychomotor Tasks for Target Localisation in View of BCI Clinical Trial</t>
-  </si>
-  <si>
-    <t>Non-invasive Device for the Screening and Diagnosis of Sleep Apnea Syndrome</t>
-  </si>
-  <si>
-    <t>Impact of Interictal Electroencephalographic Abnormalities on the Stability of Attention in the Epilepsies in Adults and Children</t>
-  </si>
-  <si>
     <t>Evaluation of the Correlation Between the Respiratory Index Events Generated by Sunrise® Versus Polysomnography for Sleep Apnea Syndrome Diagnosis</t>
   </si>
   <si>
-    <t>Prediction of Adalimumab Treatment Response at 6 Months by Combinatorial Analysis of Serum Biomarkers in Biotherapy Naive Spondyloarthritis: Pilot Study</t>
-  </si>
-  <si>
-    <t>Impact of Pollution on Allergic Rhinitis and Sleep Quality: the POLLAR Study</t>
+    <t>Clinical and Medico-economical Assessment of Deep Brain Stimulation of the Anterior Nucleus of the Thalamus for the Treatment of Pharmacoresistant Partial Epilepsy</t>
   </si>
   <si>
     <t>Impact of a Curriculum About Professionalism on Stress Response During a Critical Situation</t>
-  </si>
-  <si>
-    <t>Physiological Changes Exploration During the Hypnotic State (HYPNOTE)</t>
-  </si>
-  <si>
-    <t>Study of Eye Movements as Markers of the Physiological, Cerebral and Cognitive State of Healthy Subjects</t>
-  </si>
-  <si>
-    <t>Development of MRI Protocols and Associated Explorations (EEG, NIRS) in Voluntary Patients</t>
-  </si>
-  <si>
-    <t>Suprapubic Versus Transurethral Catheterization After Rectal Resection With Low Anastomosis for Cancer in Males</t>
-  </si>
-  <si>
-    <t>Adjustment Exploratory Protocols (MagnetoEncephaloGraphy Study : MEG, ElectroEncephaloGram : EEG, Magnetic Resonance Imaging : MRI, Functional MRI : MRIf, Motor Platform) and Functional Evaluation of New Non Invasive Devices (REX BIONICS Exoskeleton) in Healthy Volunteers</t>
-  </si>
-  <si>
-    <t>Virtual Reality for Preoperative Anxiety in Interventional Cardiology</t>
-  </si>
-  <si>
-    <t>Abdominal Massage to Prevent Postoperative Ileus as Part of an Enhanced Recovery Program After Colorectal Surgery</t>
-  </si>
-  <si>
-    <t>Spatial and Dynamic Characterization of Brain Activity for Language and Posture (Verticality) During Normal Aging. Magnetoencephalography (MEG) Study (MEG-AGING)</t>
-  </si>
-  <si>
-    <t>Clinical and Medico-economical Assessment of Deep Brain Stimulation of the Anterior Nucleus of the Thalamus for the Treatment of Pharmacoresistant Partial Epilepsy</t>
   </si>
   <si>
     <t>NA 
  Impact de l’administration précoce de concentrés de complexe prothrombique chez les patients présentant une hémorragie post-traumatique grave</t>
   </si>
   <si>
+    <t>Study of Eye Movements as Markers of the Physiological, Cerebral and Cognitive State of Healthy Subjects</t>
+  </si>
+  <si>
+    <t>Clinical and Medico-economic Evaluation of a Rapid Test (ePlex-BCID®, GenMark) for the Diagnosis of Bacteremia or Fungemia From Positive Blood Culture Bottles, Combining Fast Identification of Bacteria and Fungi and Evaluation of Bacterial Resistance to First Line Antibiotics.</t>
+  </si>
+  <si>
+    <t>Abdominal Massage to Prevent Postoperative Ileus as Part of an Enhanced Recovery Program After Colorectal Surgery</t>
+  </si>
+  <si>
+    <t>Adjustment Exploratory Protocols (MagnetoEncephaloGraphy Study : MEG, ElectroEncephaloGram : EEG, Magnetic Resonance Imaging : MRI, Functional MRI : MRIf, Motor Platform) and Functional Evaluation of New Non Invasive Devices (REX BIONICS Exoskeleton) in Healthy Volunteers</t>
+  </si>
+  <si>
     <t>The Role of the Upper Colliculus in the Idiopathic Blepharospasm : a Pilot Study in Functional MRI</t>
   </si>
   <si>
+    <t>The Effect of NO Precursors on Physiological Responses to Exercise</t>
+  </si>
+  <si>
+    <t>Effectiveness of a Multifaceted Program to Improve Interpersonal Skills of Physicians in Medical Consultations. A Randomized Controlled Trial (EPECREM)</t>
+  </si>
+  <si>
+    <t>Adjustment Exploratory Protocols (MagnetoEncephaloGraphy Study : MEG, ElectroEncephaloGram : EEG, Magnetic Resonance Imaging : MRI, Functional MRI : MRIf, Motor Platform) and Functional Evaluation of New Non Invasive Devices (REX BIONICS Exoskeleton) in Patient Volunteers</t>
+  </si>
+  <si>
+    <t>Brain Correlates of Visual Processing of Emotional Scenes in ACTion and EMOtional Judgments During Normal VIeillissement</t>
+  </si>
+  <si>
+    <t>Suprapubic Versus Transurethral Catheterization After Rectal Resection With Low Anastomosis for Cancer in Males</t>
+  </si>
+  <si>
+    <t>Ropivacaine Through Continuous Infusion Versus Epidural Morphine for Postoperative Analgesia After Emergency Cesarean Section</t>
+  </si>
+  <si>
+    <t>Somesthesic Role of the Ventro-lateral Prefrontal Cortex in Speech Motor Learning fMRI Study</t>
+  </si>
+  <si>
+    <t>Virtual Reality for Preoperative Anxiety in Interventional Cardiology</t>
+  </si>
+  <si>
+    <t>Attentional Capture by Emotional Information in Alzheimer's Disease : an fMRI Study</t>
+  </si>
+  <si>
+    <t>Physiological Changes Exploration During the Hypnotic State (HYPNOTE)</t>
+  </si>
+  <si>
+    <t>Development of MRI Protocols and Associated Explorations (EEG, NIRS) in Voluntary Patients</t>
+  </si>
+  <si>
+    <t>Spatial and Dynamic Characterization of Brain Activity for Language and Posture (Verticality) During Normal Aging. Magnetoencephalography (MEG) Study (MEG-AGING)</t>
+  </si>
+  <si>
+    <t>Study of Somatosensory Responses During Millimeter Waves Application (RESOM)</t>
+  </si>
+  <si>
     <t>Development of MRI Protocols and Associated Explorations (EEG, NIRS) in Healthy Volunteers</t>
   </si>
   <si>
-    <t>Brain Correlates of Visual Processing of Emotional Scenes in ACTion and EMOtional Judgments During Normal VIeillissement</t>
-  </si>
-  <si>
-    <t>The Effect of NO Precursors on Physiological Responses to Exercise</t>
-  </si>
-  <si>
-    <t>Ropivacaine Through Continuous Infusion Versus Epidural Morphine for Postoperative Analgesia After Emergency Cesarean Section</t>
-  </si>
-  <si>
-    <t>Adjustment Exploratory Protocols (MagnetoEncephaloGraphy Study : MEG, ElectroEncephaloGram : EEG, Magnetic Resonance Imaging : MRI, Functional MRI : MRIf, Motor Platform) and Functional Evaluation of New Non Invasive Devices (REX BIONICS Exoskeleton) in Patient Volunteers</t>
-  </si>
-  <si>
-    <t>Effectiveness of a Multifaceted Program to Improve Interpersonal Skills of Physicians in Medical Consultations. A Randomized Controlled Trial (EPECREM)</t>
-  </si>
-  <si>
-    <t>Somesthesic Role of the Ventro-lateral Prefrontal Cortex in Speech Motor Learning fMRI Study</t>
-  </si>
-  <si>
-    <t>Attentional Capture by Emotional Information in Alzheimer's Disease : an fMRI Study</t>
-  </si>
-  <si>
-    <t>Study of Somatosensory Responses During Millimeter Waves Application (RESOM)</t>
-  </si>
-  <si>
-    <t>Clinical and Medico-economic Evaluation of a Rapid Test (ePlex-BCID®, GenMark) for the Diagnosis of Bacteremia or Fungemia From Positive Blood Culture Bottles, Combining Fast Identification of Bacteria and Fungi and Evaluation of Bacterial Resistance to First Line Antibiotics.</t>
+    <t>Impact of Early Optimization of Brain Oxygenation on Neurological Outcome After Severe Traumatic Brain Injury</t>
+  </si>
+  <si>
+    <t>Approche représentationnelle de l'Hippocampe Dans la Cognition : Étude en IRMf</t>
   </si>
   <si>
     <t>Decrease in Sympathetic Tone in OSA Patients: Is CPAP More Effective Than APAP ?</t>
   </si>
   <si>
+    <t>Impact of Early Administration of Prothrombin Concentrate Complex in Patients With Acute Hemorrhage Following Severe Trauma</t>
+  </si>
+  <si>
+    <t>Learning Mental Visualization to Improve Performance in Anesthesia: a Randomized Controlled Trial by Simulation</t>
+  </si>
+  <si>
+    <t>Performance of Non-targeted and/or Non-invasive Respiratory Samples for the Rapid Diagnosis of Pneumocystis Pneumonia Using the BDMAX TM Molecular Biology Platform (Becton Dickinson)</t>
+  </si>
+  <si>
+    <t>Comparison of the Analgesic Effect Between the Motor Cortex Stimulation (tDCS and rTMS) and the Trans-spinal Stimulation (tsDCS ) in the Algoneurodystrophy of Members. A Randomised Clinical Trial. tDCS : Transcranial Direct-current Stimulation rTMS : Repetitive Transcranial Magnetic Stimulation tsDCS : Transcutaneous Spinal Direct Current Stimulation</t>
+  </si>
+  <si>
+    <t>Preliminary Validation of the Demonstrator of an In Vitro Diagnostic Device for Hepatitis B Screening</t>
+  </si>
+  <si>
+    <t>Analyse de la Marche de Patients Atteints de Dystonie Focale Avant et après Traitement Par Toxine Botulique</t>
+  </si>
+  <si>
+    <t>Vacuum Device for Hemostasis in Obstetrics and Gynecology. Feasibility Study for Postpartum Hemorrhage</t>
+  </si>
+  <si>
+    <t>Innovative Device for Pain Management by Millimeter Band Radiation : Electronic-Pain Killer. Evaluation in Patients With Peripheral Osteoarthritis: A Single Center, Prospective, Randomized in Cross-over, Comparative and Open-label Study</t>
+  </si>
+  <si>
+    <t>Detection of Early Swallowing Time by Electromyogram and Sound Recording in Healthy Volunteers. Single-center, Prospective, Not-controlled, Not-randomized, Open-label Study.</t>
+  </si>
+  <si>
     <t>Head-up Position, Active Compression-decompression Mechanical Cardiopulmonary Resuscitation and Impedance Threshold Device to Improve Outcomes in Out-of-hospital Cardiac Arrest. A Multicenter Prospective Controlled Quasi-experimental Trial</t>
   </si>
   <si>
-    <t>Performance of Non-targeted and/or Non-invasive Respiratory Samples for the Rapid Diagnosis of Pneumocystis Pneumonia Using the BDMAX TM Molecular Biology Platform (Becton Dickinson)</t>
-  </si>
-  <si>
-    <t>Impact of Early Administration of Prothrombin Concentrate Complex in Patients With Acute Hemorrhage Following Severe Trauma</t>
-  </si>
-  <si>
-    <t>Impact of Early Optimization of Brain Oxygenation on Neurological Outcome After Severe Traumatic Brain Injury</t>
-  </si>
-  <si>
-    <t>Detection of Early Swallowing Time by Electromyogram and Sound Recording in Healthy Volunteers. Single-center, Prospective, Not-controlled, Not-randomized, Open-label Study.</t>
-  </si>
-  <si>
     <t>Multifaceted Intervention for Increasing Performance of Cardiopulmonary Resuscitation by Laypersons in Out-of-hospital Cardiac Arrest. A Stepped Wedge Cluster Randomized Controlled Trial</t>
   </si>
   <si>
-    <t>Comparison of the Analgesic Effect Between the Motor Cortex Stimulation (tDCS and rTMS) and the Trans-spinal Stimulation (tsDCS ) in the Algoneurodystrophy of Members. A Randomised Clinical Trial. tDCS : Transcranial Direct-current Stimulation rTMS : Repetitive Transcranial Magnetic Stimulation tsDCS : Transcutaneous Spinal Direct Current Stimulation</t>
-  </si>
-  <si>
-    <t>Preliminary Validation of the Demonstrator of an In Vitro Diagnostic Device for Hepatitis B Screening</t>
-  </si>
-  <si>
-    <t>Innovative Device for Pain Management by Millimeter Band Radiation : Electronic-Pain Killer. Evaluation in Patients With Peripheral Osteoarthritis: A Single Center, Prospective, Randomized in Cross-over, Comparative and Open-label Study</t>
-  </si>
-  <si>
-    <t>Approche représentationnelle de l'Hippocampe Dans la Cognition : Étude en IRMf</t>
-  </si>
-  <si>
-    <t>Analyse de la Marche de Patients Atteints de Dystonie Focale Avant et après Traitement Par Toxine Botulique</t>
-  </si>
-  <si>
-    <t>Vacuum Device for Hemostasis in Obstetrics and Gynecology. Feasibility Study for Postpartum Hemorrhage</t>
-  </si>
-  <si>
-    <t>Learning Mental Visualization to Improve Performance in Anesthesia: a Randomized Controlled Trial by Simulation</t>
+    <t>Hydrogen Inhalation Therapy in Patients With Moderate Covid-19: Phase-1 Clinical Trial</t>
+  </si>
+  <si>
+    <t>Upper AIRway Implanted Nerve STIMulation Therapy: A Breakthrough in Obstructive Sleep Apnea Therapy</t>
+  </si>
+  <si>
+    <t>Feasibility Study of an Innovative Medical Device for Sampling the Contents of the Small Intestine. Functional Evaluation on the Transit of Healthy Volunteers. A First in Man, Prospective, Monocentric, Not Randomized Study.</t>
+  </si>
+  <si>
+    <t>Skin Preparation of Patients Before Orthopedic Surgery : A Randomized Controlled Study on the Efficacy of Chlorhexidine Cloths Versus Chlorhexidine Soaps</t>
+  </si>
+  <si>
+    <t>Feasibility and Clinical Impact Study of Non Pharmacological Interventions Targeting the Subject's Empowerment Among Slackline, Mindfulness, Adapted Physical Activity, Self-hypnosis, Qi Gong Versus Usual Care in Management of Chronic Pain</t>
+  </si>
+  <si>
+    <t>Spinal Cord Stimulation for Gait Disorders in Parkinson's Disease: a Pilot Study</t>
+  </si>
+  <si>
+    <t>French Validation Study of a New Scale for Neuropsychiatric Fluctuations in Parkinson Disease</t>
+  </si>
+  <si>
+    <t>Aged European Population QUality of Life in Infectious Diseases</t>
+  </si>
+  <si>
+    <t>EXADOM: Early Supported Discharge and Enhanced Homecare After Emergency Department Admission for Acute Exacerbation of Chronic Obstructive Pulmonary Disease</t>
   </si>
   <si>
     <t>Comparison of Pelvimetric Measurements Between MRI and Low-dose Stereoradiography (EOS® Imaging System)</t>
   </si>
   <si>
-    <t>EXADOM: Early Supported Discharge and Enhanced Homecare After Emergency Department Admission for Acute Exacerbation of Chronic Obstructive Pulmonary Disease</t>
-  </si>
-  <si>
-    <t>Skin Preparation of Patients Before Orthopedic Surgery : A Randomized Controlled Study on the Efficacy of Chlorhexidine Cloths Versus Chlorhexidine Soaps</t>
-  </si>
-  <si>
-    <t>Feasibility Study of an Innovative Medical Device for Sampling the Contents of the Small Intestine. Functional Evaluation on the Transit of Healthy Volunteers. A First in Man, Prospective, Monocentric, Not Randomized Study.</t>
-  </si>
-  <si>
-    <t>Aged European Population QUality of Life in Infectious Diseases</t>
-  </si>
-  <si>
-    <t>Spinal Cord Stimulation for Gait Disorders in Parkinson's Disease: a Pilot Study</t>
-  </si>
-  <si>
-    <t>Hydrogen Inhalation Therapy in Patients With Moderate Covid-19: Phase-1 Clinical Trial</t>
-  </si>
-  <si>
-    <t>Upper AIRway Implanted Nerve STIMulation Therapy: A Breakthrough in Obstructive Sleep Apnea Therapy</t>
-  </si>
-  <si>
-    <t>French Validation Study of a New Scale for Neuropsychiatric Fluctuations in Parkinson Disease</t>
-  </si>
-  <si>
-    <t>Feasibility and Clinical Impact Study of Non Pharmacological Interventions Targeting the Subject's Empowerment Among Slackline, Mindfulness, Adapted Physical Activity, Self-hypnosis, Qi Gong Versus Usual Care in Management of Chronic Pain</t>
-  </si>
-  <si>
-    <t>Evaluation D'une Application D'éducation Thérapeutique Dans La Prise En Charge De Jeunes Ayant Un Usage Modéré Ou Problématique Des Écrans</t>
+    <t>Study of Multi-site Neuromuscular Electrical Stimulation to Increase Spontaneous Physical Activity in Obesity Patient Carrying Severe Inactive: Randomized Controlled Trial vs Placebo</t>
   </si>
   <si>
     <t>Randomized Controlled Study Evaluating The Contribution of a Hypnosis Intervention During a Lumbar Puncture in the Neurology Department.</t>
+  </si>
+  <si>
+    <t>Phase II Trial Evaluating Low-dose Deferasirox (DFX) in Patients With Low-risk (MDS) Myelodysplastic Syndrome Resistant or Relapsing After ESA Agents (LODEFI)</t>
+  </si>
+  <si>
+    <t>Impact of Transcutaneous Auricular Vagus Nerve Stimulation on Digestive Symptoms in Systemic Sclerosis</t>
+  </si>
+  <si>
+    <t>Efficacy Study of a Selective Chest Wall Restriction Belt in Postoperative of Lung Resection. A Multicenter, Prospective, Controlled, Randomized Study With Stratification on the Surgical Approach, Open With a Blind Analysis</t>
   </si>
   <si>
     <t>Radiotherapy of multiple brain metastases using AGuIX® gadolinium-chelated polysiloxane based nanoparticles: a prospective randomized phase II clinical trial. 
  Traitement de métastases cérébrales multiples par Radiothérapie et nanoparticule de gadolinium, AGuiX® : étude prospective randomisée de phase II.</t>
   </si>
   <si>
+    <t>Accelerated Nursing Branch for the Diagnosis and Treatment of Ankle and Foot Injuries in Emergency Department: Preliminary Pilot Study</t>
+  </si>
+  <si>
+    <t>Evaluation D'une Application D'éducation Thérapeutique Dans La Prise En Charge De Jeunes Ayant Un Usage Modéré Ou Problématique Des Écrans</t>
+  </si>
+  <si>
+    <t>Study of Neurophysiological Correlates of the Link Between Perception and Action Through Varied Protocols of Sensorimotor Studies</t>
+  </si>
+  <si>
     <t>Evaluation of the Implementation of a Clinical Pathway for Improving the Performance of Medical and Surgical Management of Hip Prosthesis Infections</t>
   </si>
   <si>
-    <t>Impact of Transcutaneous Auricular Vagus Nerve Stimulation on Digestive Symptoms in Systemic Sclerosis</t>
-  </si>
-  <si>
-    <t>Study of Neurophysiological Correlates of the Link Between Perception and Action Through Varied Protocols of Sensorimotor Studies</t>
-  </si>
-  <si>
-    <t>Efficacy Study of a Selective Chest Wall Restriction Belt in Postoperative of Lung Resection. A Multicenter, Prospective, Controlled, Randomized Study With Stratification on the Surgical Approach, Open With a Blind Analysis</t>
-  </si>
-  <si>
-    <t>Study of Multi-site Neuromuscular Electrical Stimulation to Increase Spontaneous Physical Activity in Obesity Patient Carrying Severe Inactive: Randomized Controlled Trial vs Placebo</t>
-  </si>
-  <si>
-    <t>Accelerated Nursing Branch for the Diagnosis and Treatment of Ankle and Foot Injuries in Emergency Department: Preliminary Pilot Study</t>
-  </si>
-  <si>
-    <t>Phase II Trial Evaluating Low-dose Deferasirox (DFX) in Patients With Low-risk (MDS) Myelodysplastic Syndrome Resistant or Relapsing After ESA Agents (LODEFI)</t>
+    <t>AlimIntest</t>
   </si>
   <si>
     <t>LTP</t>
   </si>
   <si>
-    <t>AlimIntest</t>
-  </si>
-  <si>
     <t>DRESSING</t>
   </si>
   <si>
+    <t>DIMUVA</t>
+  </si>
+  <si>
+    <t>CARDEAN-2</t>
+  </si>
+  <si>
+    <t>VALSAS</t>
+  </si>
+  <si>
     <t>EPOetCEC</t>
   </si>
   <si>
-    <t>DIMUVA</t>
-  </si>
-  <si>
-    <t>CARDEAN-2</t>
-  </si>
-  <si>
-    <t>VALSAS</t>
+    <t>PRIOD</t>
   </si>
   <si>
     <t>TELFIT</t>
   </si>
   <si>
-    <t>PRIOD</t>
-  </si>
-  <si>
     <t>ANXIHOMEV</t>
   </si>
   <si>
+    <t>INFLUX-IT-VS</t>
+  </si>
+  <si>
+    <t>CERVOX</t>
+  </si>
+  <si>
     <t>INFLUX-VS</t>
   </si>
   <si>
+    <t>REVNEWANTICO</t>
+  </si>
+  <si>
+    <t>VAPRED</t>
+  </si>
+  <si>
     <t>DRESSING2</t>
   </si>
   <si>
     <t>PIL</t>
   </si>
   <si>
-    <t>INFLUX-IT-VS</t>
-  </si>
-  <si>
-    <t>REVNEWANTICO</t>
-  </si>
-  <si>
-    <t>CERVOX</t>
-  </si>
-  <si>
-    <t>VAPRED</t>
+    <t>DOLOREAPEDIA</t>
+  </si>
+  <si>
+    <t>HITUPPAC-BIO</t>
+  </si>
+  <si>
+    <t>ICUP</t>
+  </si>
+  <si>
+    <t>VENTILOBE</t>
   </si>
   <si>
     <t>FLOWERS</t>
   </si>
   <si>
+    <t>EXAOS</t>
+  </si>
+  <si>
+    <t>BOSAS</t>
+  </si>
+  <si>
+    <t>EETY</t>
+  </si>
+  <si>
     <t>SENSITEST</t>
   </si>
   <si>
-    <t>VENTILOBE</t>
-  </si>
-  <si>
-    <t>HITUPPAC-BIO</t>
-  </si>
-  <si>
-    <t>DOLOREAPEDIA</t>
-  </si>
-  <si>
-    <t>BOSAS</t>
-  </si>
-  <si>
-    <t>EXAOS</t>
-  </si>
-  <si>
-    <t>ICUP</t>
-  </si>
-  <si>
-    <t>EETY</t>
-  </si>
-  <si>
     <t>BIP-ED</t>
   </si>
   <si>
     <t>ADVANCED</t>
   </si>
   <si>
+    <t>CaPAS</t>
+  </si>
+  <si>
     <t>EMOTION</t>
   </si>
   <si>
     <t>EVA_SOURD</t>
   </si>
   <si>
-    <t>CaPAS</t>
-  </si>
-  <si>
     <t>DIAB-MMP2</t>
   </si>
   <si>
+    <t>PConscience</t>
+  </si>
+  <si>
+    <t>ALTIPERF</t>
+  </si>
+  <si>
+    <t>TALOS</t>
+  </si>
+  <si>
+    <t>PIO laser SPNP</t>
+  </si>
+  <si>
+    <t>FIBRECHO</t>
+  </si>
+  <si>
+    <t>HEMOPTIC</t>
+  </si>
+  <si>
+    <t>RHOOSAS</t>
+  </si>
+  <si>
+    <t>CT-TAVI</t>
+  </si>
+  <si>
     <t>LISYCOM</t>
   </si>
   <si>
+    <t>ETHAP</t>
+  </si>
+  <si>
+    <t>Echomuscle</t>
+  </si>
+  <si>
+    <t>ARTEX</t>
+  </si>
+  <si>
     <t>VVC and GPS</t>
   </si>
   <si>
-    <t>CT-TAVI</t>
-  </si>
-  <si>
-    <t>FIBRECHO</t>
-  </si>
-  <si>
-    <t>RHOOSAS</t>
-  </si>
-  <si>
-    <t>TALOS</t>
-  </si>
-  <si>
-    <t>ARTEX</t>
-  </si>
-  <si>
-    <t>PIO laser SPNP</t>
-  </si>
-  <si>
-    <t>PConscience</t>
-  </si>
-  <si>
-    <t>ETHAP</t>
-  </si>
-  <si>
-    <t>ALTIPERF</t>
-  </si>
-  <si>
-    <t>Echomuscle</t>
-  </si>
-  <si>
-    <t>HEMOPTIC</t>
+    <t>PEACE</t>
+  </si>
+  <si>
+    <t>Dual-Task</t>
+  </si>
+  <si>
+    <t>LPRobacus</t>
+  </si>
+  <si>
+    <t>ACR</t>
+  </si>
+  <si>
+    <t>PIO-WDT</t>
+  </si>
+  <si>
+    <t>PUPILLO REA</t>
+  </si>
+  <si>
+    <t>SPECIES</t>
+  </si>
+  <si>
+    <t>AIRPEDIA</t>
   </si>
   <si>
     <t>STIMALGI</t>
   </si>
   <si>
-    <t>SPECIES</t>
-  </si>
-  <si>
-    <t>Dual-Task</t>
+    <t>Echo-TC</t>
+  </si>
+  <si>
+    <t>DIADEME</t>
   </si>
   <si>
     <t>PROFIL</t>
@@ -1491,271 +1515,223 @@
     <t>CameraCZT</t>
   </si>
   <si>
-    <t>PEACE</t>
-  </si>
-  <si>
-    <t>Echo-TC</t>
-  </si>
-  <si>
     <t>EMPIRICUS</t>
   </si>
   <si>
-    <t>PUPILLO REA</t>
-  </si>
-  <si>
-    <t>DIADEME</t>
-  </si>
-  <si>
-    <t>ACR</t>
-  </si>
-  <si>
-    <t>LPRobacus</t>
-  </si>
-  <si>
-    <t>PIO-WDT</t>
-  </si>
-  <si>
-    <t>AIRPEDIA</t>
+    <t>AIRLESS</t>
+  </si>
+  <si>
+    <t>ALGOFINE-2</t>
+  </si>
+  <si>
+    <t>ACROSAS</t>
+  </si>
+  <si>
+    <t>BRONDUSAL</t>
   </si>
   <si>
     <t>PLASMODY</t>
   </si>
   <si>
+    <t>BIPPED</t>
+  </si>
+  <si>
+    <t>RC-TMS</t>
+  </si>
+  <si>
+    <t>PAC-IC-SAOS</t>
+  </si>
+  <si>
+    <t>CBF et PAVMt</t>
+  </si>
+  <si>
+    <t>BIOLUVE</t>
+  </si>
+  <si>
     <t>PATCHSANTESpO2</t>
   </si>
   <si>
+    <t>TéAGS</t>
+  </si>
+  <si>
+    <t>Sclerocadh1</t>
+  </si>
+  <si>
     <t>SCENES</t>
   </si>
   <si>
-    <t>BIOLUVE</t>
-  </si>
-  <si>
-    <t>PAC-IC-SAOS</t>
-  </si>
-  <si>
-    <t>TéAGS</t>
-  </si>
-  <si>
-    <t>ALGOFINE-2</t>
-  </si>
-  <si>
-    <t>BRONDUSAL</t>
-  </si>
-  <si>
-    <t>Sclerocadh1</t>
-  </si>
-  <si>
-    <t>RC-TMS</t>
-  </si>
-  <si>
-    <t>ACROSAS</t>
-  </si>
-  <si>
-    <t>BIPPED</t>
-  </si>
-  <si>
-    <t>AIRLESS</t>
-  </si>
-  <si>
-    <t>CBF et PAVMt</t>
+    <t>ALPPHY</t>
+  </si>
+  <si>
+    <t>FenTA</t>
+  </si>
+  <si>
+    <t>SUCCESS</t>
   </si>
   <si>
     <t>AUTONOM@DOM</t>
   </si>
   <si>
-    <t>SUCCESS</t>
+    <t>VENDETTA</t>
+  </si>
+  <si>
+    <t>APAUTRES</t>
+  </si>
+  <si>
+    <t>BETACTIV</t>
+  </si>
+  <si>
+    <t>KETADEP</t>
+  </si>
+  <si>
+    <t>RHEOMUCO</t>
+  </si>
+  <si>
+    <t>OCT²EPH</t>
+  </si>
+  <si>
+    <t>MAPO-RCVQ</t>
+  </si>
+  <si>
+    <t>GeniusVac-Mel4</t>
+  </si>
+  <si>
+    <t>C2H</t>
+  </si>
+  <si>
+    <t>ISDETSEEG</t>
+  </si>
+  <si>
+    <t>NEUROPHONE</t>
+  </si>
+  <si>
+    <t>PHRC-Merkel</t>
   </si>
   <si>
     <t>ISIS</t>
   </si>
   <si>
-    <t>FenTA</t>
-  </si>
-  <si>
-    <t>BETACTIV</t>
-  </si>
-  <si>
-    <t>ISDETSEEG</t>
-  </si>
-  <si>
-    <t>NEUROPHONE</t>
-  </si>
-  <si>
-    <t>MAPO-RCVQ</t>
-  </si>
-  <si>
-    <t>VENDETTA</t>
-  </si>
-  <si>
-    <t>RHEOMUCO</t>
-  </si>
-  <si>
-    <t>APAUTRES</t>
-  </si>
-  <si>
-    <t>C2H</t>
-  </si>
-  <si>
-    <t>PHRC-Merkel</t>
-  </si>
-  <si>
-    <t>ALPPHY</t>
-  </si>
-  <si>
-    <t>KETADEP</t>
-  </si>
-  <si>
     <t>Rementips</t>
   </si>
   <si>
-    <t>OCT²EPH</t>
-  </si>
-  <si>
-    <t>GeniusVac-Mel4</t>
+    <t>S4H</t>
+  </si>
+  <si>
+    <t>ST2-IPF</t>
+  </si>
+  <si>
+    <t>PRESA</t>
+  </si>
+  <si>
+    <t>LATA</t>
+  </si>
+  <si>
+    <t>HEMOPTICS2</t>
+  </si>
+  <si>
+    <t>EVACORY</t>
+  </si>
+  <si>
+    <t>UT4M2018</t>
+  </si>
+  <si>
+    <t>ComPerf</t>
+  </si>
+  <si>
+    <t>BABYSTRAIN</t>
+  </si>
+  <si>
+    <t>Splash</t>
+  </si>
+  <si>
+    <t>CIH-Gait</t>
+  </si>
+  <si>
+    <t>NEUROX</t>
   </si>
   <si>
     <t>TRIMECO</t>
   </si>
   <si>
-    <t>NEUROX</t>
-  </si>
-  <si>
-    <t>UT4M2018</t>
-  </si>
-  <si>
-    <t>S4H</t>
-  </si>
-  <si>
-    <t>LATA</t>
-  </si>
-  <si>
     <t>FENTA</t>
   </si>
   <si>
-    <t>BABYSTRAIN</t>
-  </si>
-  <si>
-    <t>CIH-Gait</t>
-  </si>
-  <si>
-    <t>ST2-IPF</t>
-  </si>
-  <si>
-    <t>ComPerf</t>
-  </si>
-  <si>
-    <t>HEMOPTICS2</t>
-  </si>
-  <si>
-    <t>EVACORY</t>
-  </si>
-  <si>
     <t>VNI-RYTHMO</t>
   </si>
   <si>
-    <t>PRESA</t>
-  </si>
-  <si>
-    <t>Splash</t>
+    <t>InterfaceNMD</t>
+  </si>
+  <si>
+    <t>CTCO</t>
+  </si>
+  <si>
+    <t>C2H2</t>
+  </si>
+  <si>
+    <t>npUBD</t>
   </si>
   <si>
     <t>EVARESERVE</t>
   </si>
   <si>
+    <t>CardIC</t>
+  </si>
+  <si>
+    <t>GUARDIANCORY</t>
+  </si>
+  <si>
+    <t>MUCOMUREE</t>
+  </si>
+  <si>
     <t>PARC</t>
   </si>
   <si>
     <t>NANO-RAD</t>
   </si>
   <si>
+    <t>INVENT</t>
+  </si>
+  <si>
+    <t>DBS V3</t>
+  </si>
+  <si>
+    <t>Marche_15</t>
+  </si>
+  <si>
+    <t>GADD34-LES</t>
+  </si>
+  <si>
+    <t>TRP</t>
+  </si>
+  <si>
     <t>TISSUE-PoC</t>
   </si>
   <si>
-    <t>INVENT</t>
-  </si>
-  <si>
-    <t>DBS V3</t>
-  </si>
-  <si>
-    <t>MUCOMUREE</t>
-  </si>
-  <si>
-    <t>CardIC</t>
-  </si>
-  <si>
-    <t>CTCO</t>
-  </si>
-  <si>
-    <t>GADD34-LES</t>
-  </si>
-  <si>
-    <t>C2H2</t>
-  </si>
-  <si>
-    <t>InterfaceNMD</t>
-  </si>
-  <si>
-    <t>Marche_15</t>
-  </si>
-  <si>
-    <t>GUARDIANCORY</t>
-  </si>
-  <si>
-    <t>npUBD</t>
-  </si>
-  <si>
-    <t>TRP</t>
+    <t>PRESHUM</t>
+  </si>
+  <si>
+    <t>Medis</t>
+  </si>
+  <si>
+    <t>POLLAR</t>
+  </si>
+  <si>
+    <t>TAPFINGER</t>
+  </si>
+  <si>
+    <t>COGNIT-AIC</t>
+  </si>
+  <si>
+    <t>Episas</t>
+  </si>
+  <si>
+    <t>ECTOPIC/MUTAS</t>
   </si>
   <si>
     <t>AGIL11</t>
   </si>
   <si>
-    <t>Medis</t>
-  </si>
-  <si>
-    <t>ECTOPIC/MUTAS</t>
-  </si>
-  <si>
-    <t>TAPFINGER</t>
-  </si>
-  <si>
-    <t>Episas</t>
-  </si>
-  <si>
-    <t>COGNIT-AIC</t>
-  </si>
-  <si>
     <t>SENSAPNEA</t>
-  </si>
-  <si>
-    <t>PRESHUM</t>
-  </si>
-  <si>
-    <t>POLLAR</t>
-  </si>
-  <si>
-    <t>HYPNOTE</t>
-  </si>
-  <si>
-    <t>EyeProxy</t>
-  </si>
-  <si>
-    <t>MAP-PV</t>
-  </si>
-  <si>
-    <t>GRECCAR10</t>
-  </si>
-  <si>
-    <t>MAP-EFNI</t>
-  </si>
-  <si>
-    <t>No PANIC</t>
-  </si>
-  <si>
-    <t>MATRAC</t>
-  </si>
-  <si>
-    <t>MEG-AGING</t>
   </si>
   <si>
     <t>FRANCE</t>
@@ -1765,138 +1741,162 @@
  PROCOAG</t>
   </si>
   <si>
+    <t>EyeProxy</t>
+  </si>
+  <si>
+    <t>HEMOFAST</t>
+  </si>
+  <si>
+    <t>MATRAC</t>
+  </si>
+  <si>
+    <t>MAP-EFNI</t>
+  </si>
+  <si>
     <t>COLL-BSP</t>
   </si>
   <si>
+    <t>NO-SUP</t>
+  </si>
+  <si>
+    <t>EPECREM</t>
+  </si>
+  <si>
+    <t>MAP-EFNI PV</t>
+  </si>
+  <si>
+    <t>ACTEMOVI</t>
+  </si>
+  <si>
+    <t>GRECCAR10</t>
+  </si>
+  <si>
+    <t>ROMANCE</t>
+  </si>
+  <si>
+    <t>BRAVA²</t>
+  </si>
+  <si>
+    <t>No PANIC</t>
+  </si>
+  <si>
+    <t>ATEMMA</t>
+  </si>
+  <si>
+    <t>HYPNOTE</t>
+  </si>
+  <si>
+    <t>MAP-PV</t>
+  </si>
+  <si>
+    <t>MEG-AGING</t>
+  </si>
+  <si>
+    <t>RESOM</t>
+  </si>
+  <si>
     <t>MAP-VS</t>
   </si>
   <si>
-    <t>ACTEMOVI</t>
-  </si>
-  <si>
-    <t>NO-SUP</t>
-  </si>
-  <si>
-    <t>ROMANCE</t>
-  </si>
-  <si>
-    <t>MAP-EFNI PV</t>
-  </si>
-  <si>
-    <t>EPECREM</t>
-  </si>
-  <si>
-    <t>BRAVA²</t>
-  </si>
-  <si>
-    <t>ATEMMA</t>
-  </si>
-  <si>
-    <t>RESOM</t>
-  </si>
-  <si>
-    <t>HEMOFAST</t>
+    <t>OXY-TC</t>
+  </si>
+  <si>
+    <t>SHIP</t>
   </si>
   <si>
     <t>APAP-CPAP</t>
   </si>
   <si>
+    <t>PROCOAG</t>
+  </si>
+  <si>
+    <t>DANIPOP</t>
+  </si>
+  <si>
+    <t>ALGOSTIM</t>
+  </si>
+  <si>
+    <t>DiVHeB</t>
+  </si>
+  <si>
+    <t>GAIT-TOX</t>
+  </si>
+  <si>
+    <t>HEMOGYN2</t>
+  </si>
+  <si>
+    <t>Epikarthrose</t>
+  </si>
+  <si>
+    <t>DEGLUTITION</t>
+  </si>
+  <si>
     <t>GRAVITY</t>
   </si>
   <si>
-    <t>DANIPOP</t>
-  </si>
-  <si>
-    <t>PROCOAG</t>
-  </si>
-  <si>
-    <t>OXY-TC</t>
-  </si>
-  <si>
-    <t>DEGLUTITION</t>
-  </si>
-  <si>
     <t>DISPATCH</t>
   </si>
   <si>
-    <t>ALGOSTIM</t>
-  </si>
-  <si>
-    <t>DiVHeB</t>
-  </si>
-  <si>
-    <t>Epikarthrose</t>
-  </si>
-  <si>
-    <t>SHIP</t>
-  </si>
-  <si>
-    <t>GAIT-TOX</t>
-  </si>
-  <si>
-    <t>HEMOGYN2</t>
+    <t>H2Covid</t>
+  </si>
+  <si>
+    <t>AIRSTIM</t>
+  </si>
+  <si>
+    <t>DIGEST</t>
+  </si>
+  <si>
+    <t>POL</t>
+  </si>
+  <si>
+    <t>ELISAD</t>
+  </si>
+  <si>
+    <t>SCM-PARK</t>
+  </si>
+  <si>
+    <t>EFN-VALID</t>
+  </si>
+  <si>
+    <t>AEQUI</t>
+  </si>
+  <si>
+    <t>EXADOM</t>
   </si>
   <si>
     <t>CAPEOS®</t>
   </si>
   <si>
-    <t>EXADOM</t>
-  </si>
-  <si>
-    <t>POL</t>
-  </si>
-  <si>
-    <t>DIGEST</t>
-  </si>
-  <si>
-    <t>AEQUI</t>
-  </si>
-  <si>
-    <t>SCM-PARK</t>
-  </si>
-  <si>
-    <t>H2Covid</t>
-  </si>
-  <si>
-    <t>AIRSTIM</t>
-  </si>
-  <si>
-    <t>EFN-VALID</t>
-  </si>
-  <si>
-    <t>ELISAD</t>
+    <t>STIMOBIII</t>
+  </si>
+  <si>
+    <t>HYPNOPLUS</t>
+  </si>
+  <si>
+    <t>LODEFI</t>
+  </si>
+  <si>
+    <t>AVADIS</t>
+  </si>
+  <si>
+    <t>CTS-POP</t>
+  </si>
+  <si>
+    <t>NANORAD2</t>
+  </si>
+  <si>
+    <t>ATENA</t>
   </si>
   <si>
     <t>PHONIX CARE</t>
   </si>
   <si>
-    <t>HYPNOPLUS</t>
-  </si>
-  <si>
-    <t>NANORAD2</t>
+    <t>PSM_EEG</t>
   </si>
   <si>
     <t>OSCAR-PH</t>
   </si>
   <si>
-    <t>AVADIS</t>
-  </si>
-  <si>
-    <t>PSM_EEG</t>
-  </si>
-  <si>
-    <t>CTS-POP</t>
-  </si>
-  <si>
-    <t>STIMOBIII</t>
-  </si>
-  <si>
-    <t>ATENA</t>
-  </si>
-  <si>
-    <t>LODEFI</t>
-  </si>
-  <si>
     <t>DEVICE</t>
   </si>
   <si>
@@ -1909,10 +1909,10 @@
     <t>BEHAVIORAL</t>
   </si>
   <si>
+    <t>DIETARY_SUPPLEMENT</t>
+  </si>
+  <si>
     <t>RADIATION</t>
-  </si>
-  <si>
-    <t>DIETARY_SUPPLEMENT</t>
   </si>
   <si>
     <t>OTHER</t>
@@ -2394,7 +2394,7 @@
         <v>246</v>
       </c>
       <c r="I5" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -2414,7 +2414,7 @@
         <v>247</v>
       </c>
       <c r="I6" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -2462,10 +2462,10 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
         <v>24</v>
@@ -2476,16 +2476,19 @@
       <c r="G9" t="s">
         <v>250</v>
       </c>
+      <c r="H9" t="s">
+        <v>442</v>
+      </c>
       <c r="I9" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
         <v>25</v>
@@ -2496,11 +2499,8 @@
       <c r="G10" t="s">
         <v>251</v>
       </c>
-      <c r="H10" t="s">
-        <v>442</v>
-      </c>
       <c r="I10" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -2546,7 +2546,7 @@
         <v>444</v>
       </c>
       <c r="I12" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -2569,15 +2569,15 @@
         <v>445</v>
       </c>
       <c r="I13" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
         <v>29</v>
@@ -2592,15 +2592,15 @@
         <v>446</v>
       </c>
       <c r="I14" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
         <v>30</v>
@@ -2615,15 +2615,15 @@
         <v>447</v>
       </c>
       <c r="I15" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s">
         <v>31</v>
@@ -2634,11 +2634,8 @@
       <c r="G16" t="s">
         <v>257</v>
       </c>
-      <c r="H16" t="s">
-        <v>448</v>
-      </c>
       <c r="I16" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -2658,7 +2655,7 @@
         <v>258</v>
       </c>
       <c r="H17" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I17" t="s">
         <v>626</v>
@@ -2681,18 +2678,18 @@
         <v>259</v>
       </c>
       <c r="H18" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I18" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C19" t="s">
         <v>34</v>
@@ -2703,16 +2700,19 @@
       <c r="G19" t="s">
         <v>260</v>
       </c>
+      <c r="H19" t="s">
+        <v>450</v>
+      </c>
       <c r="I19" t="s">
         <v>627</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C20" t="s">
         <v>35</v>
@@ -2723,11 +2723,8 @@
       <c r="G20" t="s">
         <v>261</v>
       </c>
-      <c r="H20" t="s">
-        <v>451</v>
-      </c>
       <c r="I20" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -2746,16 +2743,19 @@
       <c r="G21" t="s">
         <v>262</v>
       </c>
+      <c r="H21" t="s">
+        <v>451</v>
+      </c>
       <c r="I21" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C22" t="s">
         <v>37</v>
@@ -2770,15 +2770,15 @@
         <v>452</v>
       </c>
       <c r="I22" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C23" t="s">
         <v>38</v>
@@ -2793,15 +2793,15 @@
         <v>453</v>
       </c>
       <c r="I23" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B24" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C24" t="s">
         <v>39</v>
@@ -2839,15 +2839,15 @@
         <v>455</v>
       </c>
       <c r="I25" t="s">
-        <v>627</v>
+        <v>632</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C26" t="s">
         <v>41</v>
@@ -2862,15 +2862,15 @@
         <v>456</v>
       </c>
       <c r="I26" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C27" t="s">
         <v>42</v>
@@ -2885,7 +2885,7 @@
         <v>457</v>
       </c>
       <c r="I27" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -2908,15 +2908,15 @@
         <v>458</v>
       </c>
       <c r="I28" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C29" t="s">
         <v>44</v>
@@ -2931,7 +2931,7 @@
         <v>459</v>
       </c>
       <c r="I29" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -2950,8 +2950,11 @@
       <c r="G30" t="s">
         <v>271</v>
       </c>
+      <c r="H30" t="s">
+        <v>460</v>
+      </c>
       <c r="I30" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -2971,7 +2974,7 @@
         <v>272</v>
       </c>
       <c r="H31" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="I31" t="s">
         <v>629</v>
@@ -2979,10 +2982,10 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B32" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C32" t="s">
         <v>47</v>
@@ -2994,10 +2997,10 @@
         <v>273</v>
       </c>
       <c r="H32" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="I32" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -3017,18 +3020,18 @@
         <v>274</v>
       </c>
       <c r="H33" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="I33" t="s">
-        <v>627</v>
+        <v>632</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C34" t="s">
         <v>49</v>
@@ -3039,11 +3042,8 @@
       <c r="G34" t="s">
         <v>275</v>
       </c>
-      <c r="H34" t="s">
-        <v>463</v>
-      </c>
       <c r="I34" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -3066,15 +3066,15 @@
         <v>464</v>
       </c>
       <c r="I35" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C36" t="s">
         <v>51</v>
@@ -3089,7 +3089,7 @@
         <v>465</v>
       </c>
       <c r="I36" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -3112,7 +3112,7 @@
         <v>466</v>
       </c>
       <c r="I37" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -3163,10 +3163,10 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B40" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C40" t="s">
         <v>55</v>
@@ -3177,6 +3177,9 @@
       <c r="G40" t="s">
         <v>281</v>
       </c>
+      <c r="H40" t="s">
+        <v>469</v>
+      </c>
       <c r="I40" t="s">
         <v>626</v>
       </c>
@@ -3198,7 +3201,7 @@
         <v>282</v>
       </c>
       <c r="H41" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="I41" t="s">
         <v>629</v>
@@ -3206,10 +3209,10 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C42" t="s">
         <v>57</v>
@@ -3220,9 +3223,6 @@
       <c r="G42" t="s">
         <v>283</v>
       </c>
-      <c r="H42" t="s">
-        <v>470</v>
-      </c>
       <c r="I42" t="s">
         <v>626</v>
       </c>
@@ -3293,7 +3293,7 @@
         <v>473</v>
       </c>
       <c r="I45" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -3316,7 +3316,7 @@
         <v>474</v>
       </c>
       <c r="I46" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -3355,19 +3355,22 @@
       <c r="F48" t="s">
         <v>232</v>
       </c>
+      <c r="G48" t="s">
+        <v>289</v>
+      </c>
       <c r="H48" t="s">
         <v>476</v>
       </c>
       <c r="I48" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B49" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C49" t="s">
         <v>64</v>
@@ -3375,9 +3378,6 @@
       <c r="F49" t="s">
         <v>232</v>
       </c>
-      <c r="G49" t="s">
-        <v>289</v>
-      </c>
       <c r="H49" t="s">
         <v>477</v>
       </c>
@@ -3405,7 +3405,7 @@
         <v>478</v>
       </c>
       <c r="I50" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -3428,7 +3428,7 @@
         <v>479</v>
       </c>
       <c r="I51" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -3451,7 +3451,7 @@
         <v>480</v>
       </c>
       <c r="I52" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -3474,7 +3474,7 @@
         <v>481</v>
       </c>
       <c r="I53" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -3525,10 +3525,10 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B56" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C56" t="s">
         <v>71</v>
@@ -3543,7 +3543,7 @@
         <v>484</v>
       </c>
       <c r="I56" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -3571,10 +3571,10 @@
     </row>
     <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B58" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C58" t="s">
         <v>73</v>
@@ -3589,15 +3589,15 @@
         <v>486</v>
       </c>
       <c r="I58" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B59" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C59" t="s">
         <v>74</v>
@@ -3635,22 +3635,19 @@
         <v>488</v>
       </c>
       <c r="I60" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B61" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C61" t="s">
         <v>76</v>
       </c>
-      <c r="D61" t="s">
-        <v>215</v>
-      </c>
       <c r="F61" t="s">
         <v>233</v>
       </c>
@@ -3661,7 +3658,7 @@
         <v>489</v>
       </c>
       <c r="I61" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -3686,10 +3683,10 @@
     </row>
     <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B63" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C63" t="s">
         <v>78</v>
@@ -3704,7 +3701,7 @@
         <v>490</v>
       </c>
       <c r="I63" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -3727,15 +3724,15 @@
         <v>491</v>
       </c>
       <c r="I64" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B65" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C65" t="s">
         <v>80</v>
@@ -3746,11 +3743,8 @@
       <c r="G65" t="s">
         <v>305</v>
       </c>
-      <c r="H65" t="s">
-        <v>492</v>
-      </c>
       <c r="I65" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -3770,18 +3764,18 @@
         <v>306</v>
       </c>
       <c r="H66" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="I66" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B67" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C67" t="s">
         <v>82</v>
@@ -3789,22 +3783,19 @@
       <c r="F67" t="s">
         <v>233</v>
       </c>
-      <c r="G67" t="s">
-        <v>307</v>
-      </c>
       <c r="H67" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="I67" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B68" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C68" t="s">
         <v>83</v>
@@ -3813,10 +3804,10 @@
         <v>233</v>
       </c>
       <c r="G68" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H68" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="I68" t="s">
         <v>626</v>
@@ -3824,10 +3815,10 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B69" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C69" t="s">
         <v>84</v>
@@ -3836,10 +3827,13 @@
         <v>233</v>
       </c>
       <c r="G69" t="s">
-        <v>309</v>
+        <v>308</v>
+      </c>
+      <c r="H69" t="s">
+        <v>495</v>
       </c>
       <c r="I69" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -3856,7 +3850,7 @@
         <v>233</v>
       </c>
       <c r="G70" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H70" t="s">
         <v>496</v>
@@ -3867,33 +3861,36 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B71" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C71" t="s">
         <v>86</v>
       </c>
+      <c r="D71" t="s">
+        <v>215</v>
+      </c>
       <c r="F71" t="s">
         <v>233</v>
       </c>
       <c r="G71" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H71" t="s">
         <v>497</v>
       </c>
       <c r="I71" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B72" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C72" t="s">
         <v>87</v>
@@ -3902,13 +3899,13 @@
         <v>233</v>
       </c>
       <c r="G72" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H72" t="s">
         <v>498</v>
       </c>
       <c r="I72" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -3924,11 +3921,14 @@
       <c r="F73" t="s">
         <v>233</v>
       </c>
+      <c r="G73" t="s">
+        <v>312</v>
+      </c>
       <c r="H73" t="s">
         <v>499</v>
       </c>
       <c r="I73" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -3951,27 +3951,33 @@
         <v>500</v>
       </c>
       <c r="I74" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B75" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C75" t="s">
         <v>90</v>
       </c>
+      <c r="D75" t="s">
+        <v>216</v>
+      </c>
       <c r="F75" t="s">
         <v>234</v>
       </c>
       <c r="G75" t="s">
         <v>314</v>
       </c>
+      <c r="H75" t="s">
+        <v>501</v>
+      </c>
       <c r="I75" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -3991,18 +3997,18 @@
         <v>315</v>
       </c>
       <c r="H76" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="I76" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B77" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C77" t="s">
         <v>92</v>
@@ -4014,10 +4020,10 @@
         <v>316</v>
       </c>
       <c r="H77" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="I77" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -4037,10 +4043,10 @@
         <v>317</v>
       </c>
       <c r="H78" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="I78" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -4060,10 +4066,10 @@
         <v>318</v>
       </c>
       <c r="H79" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="I79" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -4083,44 +4089,38 @@
         <v>319</v>
       </c>
       <c r="H80" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="I80" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B81" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C81" t="s">
         <v>96</v>
       </c>
-      <c r="D81" t="s">
-        <v>216</v>
-      </c>
       <c r="F81" t="s">
         <v>234</v>
       </c>
       <c r="G81" t="s">
         <v>320</v>
       </c>
-      <c r="H81" t="s">
-        <v>506</v>
-      </c>
       <c r="I81" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B82" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C82" t="s">
         <v>97</v>
@@ -4135,15 +4135,15 @@
         <v>507</v>
       </c>
       <c r="I82" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B83" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C83" t="s">
         <v>98</v>
@@ -4158,7 +4158,7 @@
         <v>508</v>
       </c>
       <c r="I83" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -4181,7 +4181,7 @@
         <v>509</v>
       </c>
       <c r="I84" t="s">
-        <v>626</v>
+        <v>633</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -4204,7 +4204,7 @@
         <v>510</v>
       </c>
       <c r="I85" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -4227,7 +4227,7 @@
         <v>511</v>
       </c>
       <c r="I86" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -4250,15 +4250,15 @@
         <v>512</v>
       </c>
       <c r="I87" t="s">
-        <v>626</v>
+        <v>633</v>
       </c>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B88" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C88" t="s">
         <v>103</v>
@@ -4273,7 +4273,7 @@
         <v>513</v>
       </c>
       <c r="I88" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -4296,7 +4296,7 @@
         <v>514</v>
       </c>
       <c r="I89" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -4321,13 +4321,13 @@
     </row>
     <row r="91" spans="1:9">
       <c r="A91" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B91" t="s">
-        <v>15</v>
-      </c>
-      <c r="C91" t="s">
-        <v>105</v>
+        <v>14</v>
+      </c>
+      <c r="D91" t="s">
+        <v>218</v>
       </c>
       <c r="F91" t="s">
         <v>235</v>
@@ -4338,19 +4338,16 @@
       <c r="H91" t="s">
         <v>516</v>
       </c>
-      <c r="I91" t="s">
-        <v>634</v>
-      </c>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B92" t="s">
-        <v>14</v>
-      </c>
-      <c r="D92" t="s">
-        <v>218</v>
+        <v>13</v>
+      </c>
+      <c r="C92" t="s">
+        <v>105</v>
       </c>
       <c r="F92" t="s">
         <v>235</v>
@@ -4361,6 +4358,9 @@
       <c r="H92" t="s">
         <v>517</v>
       </c>
+      <c r="I92" t="s">
+        <v>632</v>
+      </c>
     </row>
     <row r="93" spans="1:9">
       <c r="A93" t="s">
@@ -4405,7 +4405,7 @@
         <v>519</v>
       </c>
       <c r="I94" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -4428,7 +4428,7 @@
         <v>520</v>
       </c>
       <c r="I95" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -4451,7 +4451,7 @@
         <v>521</v>
       </c>
       <c r="I96" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -4471,7 +4471,7 @@
         <v>336</v>
       </c>
       <c r="H97" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="I97" t="s">
         <v>627</v>
@@ -4494,7 +4494,7 @@
         <v>337</v>
       </c>
       <c r="H98" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="I98" t="s">
         <v>632</v>
@@ -4517,10 +4517,10 @@
         <v>338</v>
       </c>
       <c r="H99" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="I99" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -4540,25 +4540,22 @@
         <v>339</v>
       </c>
       <c r="H100" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="I100" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
     </row>
     <row r="101" spans="1:9">
       <c r="A101" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B101" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C101" t="s">
         <v>114</v>
       </c>
-      <c r="D101" t="s">
-        <v>219</v>
-      </c>
       <c r="F101" t="s">
         <v>235</v>
       </c>
@@ -4566,10 +4563,10 @@
         <v>340</v>
       </c>
       <c r="H101" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="I101" t="s">
-        <v>627</v>
+        <v>633</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -4589,10 +4586,10 @@
         <v>341</v>
       </c>
       <c r="H102" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I102" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -4612,10 +4609,10 @@
         <v>342</v>
       </c>
       <c r="H103" t="s">
-        <v>515</v>
+        <v>527</v>
       </c>
       <c r="I103" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -4638,19 +4635,22 @@
         <v>528</v>
       </c>
       <c r="I104" t="s">
-        <v>627</v>
+        <v>632</v>
       </c>
     </row>
     <row r="105" spans="1:9">
       <c r="A105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B105" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C105" t="s">
         <v>118</v>
       </c>
+      <c r="D105" t="s">
+        <v>219</v>
+      </c>
       <c r="F105" t="s">
         <v>235</v>
       </c>
@@ -4661,15 +4661,15 @@
         <v>529</v>
       </c>
       <c r="I105" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="106" spans="1:9">
       <c r="A106" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B106" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C106" t="s">
         <v>119</v>
@@ -4684,7 +4684,7 @@
         <v>530</v>
       </c>
       <c r="I106" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -4707,7 +4707,7 @@
         <v>531</v>
       </c>
       <c r="I107" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -4730,7 +4730,7 @@
         <v>532</v>
       </c>
       <c r="I108" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -4753,7 +4753,7 @@
         <v>533</v>
       </c>
       <c r="I109" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -4776,15 +4776,15 @@
         <v>534</v>
       </c>
       <c r="I110" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
     </row>
     <row r="111" spans="1:9">
       <c r="A111" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B111" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C111" t="s">
         <v>124</v>
@@ -4799,15 +4799,15 @@
         <v>535</v>
       </c>
       <c r="I111" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
     </row>
     <row r="112" spans="1:9">
       <c r="A112" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B112" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C112" t="s">
         <v>125</v>
@@ -4822,7 +4822,7 @@
         <v>536</v>
       </c>
       <c r="I112" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -4845,7 +4845,7 @@
         <v>537</v>
       </c>
       <c r="I113" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -4891,15 +4891,15 @@
         <v>539</v>
       </c>
       <c r="I115" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
     </row>
     <row r="116" spans="1:9">
       <c r="A116" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B116" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C116" t="s">
         <v>129</v>
@@ -4914,7 +4914,7 @@
         <v>540</v>
       </c>
       <c r="I116" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -4937,15 +4937,15 @@
         <v>541</v>
       </c>
       <c r="I117" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
     </row>
     <row r="118" spans="1:9">
       <c r="A118" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B118" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C118" t="s">
         <v>131</v>
@@ -4965,10 +4965,10 @@
     </row>
     <row r="119" spans="1:9">
       <c r="A119" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B119" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C119" t="s">
         <v>132</v>
@@ -4983,15 +4983,15 @@
         <v>543</v>
       </c>
       <c r="I119" t="s">
-        <v>628</v>
+        <v>633</v>
       </c>
     </row>
     <row r="120" spans="1:9">
       <c r="A120" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B120" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C120" t="s">
         <v>133</v>
@@ -5006,7 +5006,7 @@
         <v>544</v>
       </c>
       <c r="I120" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -5034,10 +5034,10 @@
     </row>
     <row r="122" spans="1:9">
       <c r="A122" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B122" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C122" t="s">
         <v>135</v>
@@ -5052,15 +5052,15 @@
         <v>546</v>
       </c>
       <c r="I122" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
     </row>
     <row r="123" spans="1:9">
       <c r="A123" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B123" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C123" t="s">
         <v>136</v>
@@ -5068,6 +5068,9 @@
       <c r="F123" t="s">
         <v>237</v>
       </c>
+      <c r="G123" t="s">
+        <v>362</v>
+      </c>
       <c r="H123" t="s">
         <v>547</v>
       </c>
@@ -5089,21 +5092,21 @@
         <v>237</v>
       </c>
       <c r="G124" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H124" t="s">
         <v>548</v>
       </c>
       <c r="I124" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
     </row>
     <row r="125" spans="1:9">
       <c r="A125" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B125" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C125" t="s">
         <v>138</v>
@@ -5112,21 +5115,21 @@
         <v>237</v>
       </c>
       <c r="G125" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H125" t="s">
         <v>549</v>
       </c>
       <c r="I125" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
     </row>
     <row r="126" spans="1:9">
       <c r="A126" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B126" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C126" t="s">
         <v>139</v>
@@ -5135,21 +5138,21 @@
         <v>237</v>
       </c>
       <c r="G126" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H126" t="s">
         <v>550</v>
       </c>
       <c r="I126" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="127" spans="1:9">
       <c r="A127" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B127" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C127" t="s">
         <v>140</v>
@@ -5157,14 +5160,11 @@
       <c r="F127" t="s">
         <v>237</v>
       </c>
-      <c r="G127" t="s">
-        <v>365</v>
-      </c>
       <c r="H127" t="s">
         <v>551</v>
       </c>
       <c r="I127" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -5180,19 +5180,22 @@
       <c r="F128" t="s">
         <v>237</v>
       </c>
+      <c r="G128" t="s">
+        <v>366</v>
+      </c>
       <c r="H128" t="s">
         <v>552</v>
       </c>
       <c r="I128" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
     </row>
     <row r="129" spans="1:9">
       <c r="A129" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B129" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C129" t="s">
         <v>142</v>
@@ -5201,21 +5204,21 @@
         <v>237</v>
       </c>
       <c r="G129" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H129" t="s">
         <v>553</v>
       </c>
       <c r="I129" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
     </row>
     <row r="130" spans="1:9">
       <c r="A130" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B130" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C130" t="s">
         <v>143</v>
@@ -5224,7 +5227,7 @@
         <v>237</v>
       </c>
       <c r="G130" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H130" t="s">
         <v>554</v>
@@ -5247,13 +5250,13 @@
         <v>237</v>
       </c>
       <c r="G131" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H131" t="s">
         <v>555</v>
       </c>
       <c r="I131" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -5270,21 +5273,21 @@
         <v>237</v>
       </c>
       <c r="G132" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H132" t="s">
         <v>556</v>
       </c>
       <c r="I132" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="133" spans="1:9">
       <c r="A133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B133" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C133" t="s">
         <v>146</v>
@@ -5293,21 +5296,21 @@
         <v>237</v>
       </c>
       <c r="G133" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H133" t="s">
         <v>557</v>
       </c>
       <c r="I133" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="134" spans="1:9">
       <c r="A134" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B134" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C134" t="s">
         <v>147</v>
@@ -5315,9 +5318,6 @@
       <c r="F134" t="s">
         <v>237</v>
       </c>
-      <c r="G134" t="s">
-        <v>371</v>
-      </c>
       <c r="H134" t="s">
         <v>558</v>
       </c>
@@ -5350,10 +5350,10 @@
     </row>
     <row r="136" spans="1:9">
       <c r="A136" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B136" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C136" t="s">
         <v>149</v>
@@ -5368,15 +5368,15 @@
         <v>560</v>
       </c>
       <c r="I136" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
     </row>
     <row r="137" spans="1:9">
       <c r="A137" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B137" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C137" t="s">
         <v>150</v>
@@ -5391,7 +5391,7 @@
         <v>561</v>
       </c>
       <c r="I137" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -5414,7 +5414,7 @@
         <v>562</v>
       </c>
       <c r="I138" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -5437,7 +5437,7 @@
         <v>563</v>
       </c>
       <c r="I139" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -5483,7 +5483,7 @@
         <v>565</v>
       </c>
       <c r="I141" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -5511,10 +5511,10 @@
     </row>
     <row r="143" spans="1:9">
       <c r="A143" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B143" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C143" t="s">
         <v>156</v>
@@ -5529,15 +5529,15 @@
         <v>567</v>
       </c>
       <c r="I143" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="144" spans="1:9">
       <c r="A144" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B144" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C144" t="s">
         <v>157</v>
@@ -5552,15 +5552,15 @@
         <v>568</v>
       </c>
       <c r="I144" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
     </row>
     <row r="145" spans="1:9">
       <c r="A145" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B145" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C145" t="s">
         <v>158</v>
@@ -5575,7 +5575,7 @@
         <v>569</v>
       </c>
       <c r="I145" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -5598,15 +5598,15 @@
         <v>570</v>
       </c>
       <c r="I146" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="147" spans="1:9">
       <c r="A147" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B147" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C147" t="s">
         <v>160</v>
@@ -5621,7 +5621,7 @@
         <v>571</v>
       </c>
       <c r="I147" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
     </row>
     <row r="148" spans="1:9">
@@ -5640,8 +5640,11 @@
       <c r="G148" t="s">
         <v>385</v>
       </c>
+      <c r="H148" t="s">
+        <v>572</v>
+      </c>
       <c r="I148" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -5660,11 +5663,8 @@
       <c r="G149" t="s">
         <v>386</v>
       </c>
-      <c r="H149" t="s">
-        <v>572</v>
-      </c>
       <c r="I149" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -5674,8 +5674,8 @@
       <c r="B150" t="s">
         <v>13</v>
       </c>
-      <c r="C150" t="s">
-        <v>163</v>
+      <c r="D150" t="s">
+        <v>220</v>
       </c>
       <c r="F150" t="s">
         <v>239</v>
@@ -5686,9 +5686,6 @@
       <c r="H150" t="s">
         <v>573</v>
       </c>
-      <c r="I150" t="s">
-        <v>632</v>
-      </c>
     </row>
     <row r="151" spans="1:9">
       <c r="A151" t="s">
@@ -5698,7 +5695,7 @@
         <v>13</v>
       </c>
       <c r="C151" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F151" t="s">
         <v>239</v>
@@ -5710,7 +5707,7 @@
         <v>574</v>
       </c>
       <c r="I151" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -5721,7 +5718,7 @@
         <v>13</v>
       </c>
       <c r="C152" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F152" t="s">
         <v>239</v>
@@ -5733,7 +5730,7 @@
         <v>575</v>
       </c>
       <c r="I152" t="s">
-        <v>626</v>
+        <v>635</v>
       </c>
     </row>
     <row r="153" spans="1:9">
@@ -5744,7 +5741,7 @@
         <v>13</v>
       </c>
       <c r="C153" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F153" t="s">
         <v>239</v>
@@ -5756,7 +5753,7 @@
         <v>576</v>
       </c>
       <c r="I153" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
     </row>
     <row r="154" spans="1:9">
@@ -5767,7 +5764,7 @@
         <v>13</v>
       </c>
       <c r="C154" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F154" t="s">
         <v>239</v>
@@ -5779,7 +5776,7 @@
         <v>577</v>
       </c>
       <c r="I154" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
     </row>
     <row r="155" spans="1:9">
@@ -5790,7 +5787,7 @@
         <v>13</v>
       </c>
       <c r="C155" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F155" t="s">
         <v>239</v>
@@ -5802,7 +5799,7 @@
         <v>578</v>
       </c>
       <c r="I155" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -5813,7 +5810,7 @@
         <v>13</v>
       </c>
       <c r="C156" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F156" t="s">
         <v>239</v>
@@ -5825,18 +5822,18 @@
         <v>579</v>
       </c>
       <c r="I156" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="157" spans="1:9">
       <c r="A157" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B157" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C157" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F157" t="s">
         <v>239</v>
@@ -5848,7 +5845,7 @@
         <v>580</v>
       </c>
       <c r="I157" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
     </row>
     <row r="158" spans="1:9">
@@ -5858,8 +5855,8 @@
       <c r="B158" t="s">
         <v>13</v>
       </c>
-      <c r="D158" t="s">
-        <v>220</v>
+      <c r="C158" t="s">
+        <v>170</v>
       </c>
       <c r="F158" t="s">
         <v>239</v>
@@ -5870,6 +5867,9 @@
       <c r="H158" t="s">
         <v>581</v>
       </c>
+      <c r="I158" t="s">
+        <v>626</v>
+      </c>
     </row>
     <row r="159" spans="1:9">
       <c r="A159" t="s">
@@ -5914,7 +5914,7 @@
         <v>583</v>
       </c>
       <c r="I160" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
     </row>
     <row r="161" spans="1:9">
@@ -5937,7 +5937,7 @@
         <v>584</v>
       </c>
       <c r="I161" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
     </row>
     <row r="162" spans="1:9">
@@ -5960,7 +5960,7 @@
         <v>585</v>
       </c>
       <c r="I162" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="163" spans="1:9">
@@ -5983,7 +5983,7 @@
         <v>586</v>
       </c>
       <c r="I163" t="s">
-        <v>627</v>
+        <v>632</v>
       </c>
     </row>
     <row r="164" spans="1:9">
@@ -6006,15 +6006,15 @@
         <v>587</v>
       </c>
       <c r="I164" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
     </row>
     <row r="165" spans="1:9">
       <c r="A165" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B165" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C165" t="s">
         <v>177</v>
@@ -6029,7 +6029,7 @@
         <v>588</v>
       </c>
       <c r="I165" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
     </row>
     <row r="166" spans="1:9">
@@ -6052,7 +6052,7 @@
         <v>589</v>
       </c>
       <c r="I166" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
     </row>
     <row r="167" spans="1:9">
@@ -6121,7 +6121,7 @@
         <v>592</v>
       </c>
       <c r="I169" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
     </row>
     <row r="170" spans="1:9">
@@ -6172,10 +6172,10 @@
     </row>
     <row r="172" spans="1:9">
       <c r="A172" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B172" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C172" t="s">
         <v>184</v>
@@ -6190,7 +6190,7 @@
         <v>595</v>
       </c>
       <c r="I172" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
     </row>
     <row r="173" spans="1:9">
@@ -6218,10 +6218,10 @@
     </row>
     <row r="174" spans="1:9">
       <c r="A174" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B174" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C174" t="s">
         <v>186</v>
@@ -6232,11 +6232,8 @@
       <c r="G174" t="s">
         <v>411</v>
       </c>
-      <c r="H174" t="s">
-        <v>597</v>
-      </c>
       <c r="I174" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
     </row>
     <row r="175" spans="1:9">
@@ -6256,10 +6253,10 @@
         <v>412</v>
       </c>
       <c r="H175" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="I175" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
     </row>
     <row r="176" spans="1:9">
@@ -6279,10 +6276,10 @@
         <v>413</v>
       </c>
       <c r="H176" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="I176" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
     </row>
     <row r="177" spans="1:9">
@@ -6302,10 +6299,10 @@
         <v>414</v>
       </c>
       <c r="H177" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="I177" t="s">
-        <v>626</v>
+        <v>635</v>
       </c>
     </row>
     <row r="178" spans="1:9">
@@ -6325,7 +6322,7 @@
         <v>415</v>
       </c>
       <c r="H178" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="I178" t="s">
         <v>635</v>
@@ -6333,10 +6330,10 @@
     </row>
     <row r="179" spans="1:9">
       <c r="A179" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B179" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C179" t="s">
         <v>191</v>
@@ -6348,7 +6345,7 @@
         <v>416</v>
       </c>
       <c r="H179" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="I179" t="s">
         <v>626</v>
@@ -6356,10 +6353,10 @@
     </row>
     <row r="180" spans="1:9">
       <c r="A180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B180" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C180" t="s">
         <v>192</v>
@@ -6371,7 +6368,7 @@
         <v>417</v>
       </c>
       <c r="H180" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="I180" t="s">
         <v>626</v>
@@ -6394,10 +6391,10 @@
         <v>418</v>
       </c>
       <c r="H181" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I181" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="182" spans="1:9">
@@ -6417,7 +6414,7 @@
         <v>419</v>
       </c>
       <c r="H182" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I182" t="s">
         <v>626</v>
@@ -6439,6 +6436,9 @@
       <c r="G183" t="s">
         <v>420</v>
       </c>
+      <c r="H183" t="s">
+        <v>605</v>
+      </c>
       <c r="I183" t="s">
         <v>632</v>
       </c>
@@ -6463,7 +6463,7 @@
         <v>606</v>
       </c>
       <c r="I184" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
     </row>
     <row r="185" spans="1:9">
@@ -6486,7 +6486,7 @@
         <v>607</v>
       </c>
       <c r="I185" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
     </row>
     <row r="186" spans="1:9">
@@ -6509,7 +6509,7 @@
         <v>608</v>
       </c>
       <c r="I186" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="187" spans="1:9">
@@ -6532,7 +6532,7 @@
         <v>609</v>
       </c>
       <c r="I187" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="188" spans="1:9">
@@ -6601,7 +6601,7 @@
         <v>612</v>
       </c>
       <c r="I190" t="s">
-        <v>627</v>
+        <v>632</v>
       </c>
     </row>
     <row r="191" spans="1:9">
@@ -6624,7 +6624,7 @@
         <v>613</v>
       </c>
       <c r="I191" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
     </row>
     <row r="192" spans="1:9">
@@ -6693,7 +6693,7 @@
         <v>616</v>
       </c>
       <c r="I194" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
     </row>
     <row r="195" spans="1:9">
@@ -6726,8 +6726,8 @@
       <c r="B196" t="s">
         <v>13</v>
       </c>
-      <c r="D196" t="s">
-        <v>221</v>
+      <c r="C196" t="s">
+        <v>208</v>
       </c>
       <c r="F196" t="s">
         <v>242</v>
@@ -6738,6 +6738,9 @@
       <c r="H196" t="s">
         <v>618</v>
       </c>
+      <c r="I196" t="s">
+        <v>627</v>
+      </c>
     </row>
     <row r="197" spans="1:9">
       <c r="A197" t="s">
@@ -6747,7 +6750,7 @@
         <v>13</v>
       </c>
       <c r="C197" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F197" t="s">
         <v>242</v>
@@ -6759,7 +6762,7 @@
         <v>619</v>
       </c>
       <c r="I197" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
     </row>
     <row r="198" spans="1:9">
@@ -6770,7 +6773,7 @@
         <v>13</v>
       </c>
       <c r="C198" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F198" t="s">
         <v>242</v>
@@ -6782,7 +6785,7 @@
         <v>620</v>
       </c>
       <c r="I198" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
     </row>
     <row r="199" spans="1:9">
@@ -6792,8 +6795,8 @@
       <c r="B199" t="s">
         <v>13</v>
       </c>
-      <c r="C199" t="s">
-        <v>210</v>
+      <c r="D199" t="s">
+        <v>221</v>
       </c>
       <c r="F199" t="s">
         <v>242</v>
@@ -6804,9 +6807,6 @@
       <c r="H199" t="s">
         <v>621</v>
       </c>
-      <c r="I199" t="s">
-        <v>629</v>
-      </c>
     </row>
     <row r="200" spans="1:9">
       <c r="A200" t="s">
@@ -6828,7 +6828,7 @@
         <v>622</v>
       </c>
       <c r="I200" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
     </row>
     <row r="201" spans="1:9">
@@ -6851,7 +6851,7 @@
         <v>623</v>
       </c>
       <c r="I201" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
     </row>
     <row r="202" spans="1:9">
@@ -6874,7 +6874,7 @@
         <v>624</v>
       </c>
       <c r="I202" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
     </row>
     <row r="203" spans="1:9">
@@ -6897,7 +6897,7 @@
         <v>625</v>
       </c>
       <c r="I203" t="s">
-        <v>627</v>
+        <v>632</v>
       </c>
     </row>
   </sheetData>

--- a/publipostage2/041rhpw39/liste_essais_cliniques_identifies_041rhpw39.xlsx
+++ b/publipostage2/041rhpw39/liste_essais_cliniques_identifies_041rhpw39.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1402" uniqueCount="636">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1419" uniqueCount="646">
   <si>
     <t>statut</t>
   </si>
@@ -55,16 +55,16 @@
     <t>1</t>
   </si>
   <si>
-    <t>4: pas de résultats postés ni publiés</t>
-  </si>
-  <si>
-    <t>3: résultats postés ou publiés après les 36 mois</t>
-  </si>
-  <si>
-    <t>2: résultats postés ou publiés entre 12 et 36 mois</t>
-  </si>
-  <si>
-    <t>1: résultats postés ou publiés dans les 12 mois</t>
+    <t>4 : pas de résultats postés ni publiés</t>
+  </si>
+  <si>
+    <t>3 : résultats postés ou publiés après les 36 mois</t>
+  </si>
+  <si>
+    <t>2 : résultats postés ou publiés entre 12 et 36 mois</t>
+  </si>
+  <si>
+    <t>1 : résultats postés ou publiés dans les 12 mois</t>
   </si>
   <si>
     <t>NCT00324584</t>
@@ -82,31 +82,34 @@
     <t>NCT00324792</t>
   </si>
   <si>
+    <t>NCT00417235</t>
+  </si>
+  <si>
+    <t>NCT00639561</t>
+  </si>
+  <si>
+    <t>NCT00970385</t>
+  </si>
+  <si>
+    <t>NCT00700544</t>
+  </si>
+  <si>
     <t>NCT00230984</t>
   </si>
   <si>
-    <t>NCT00639561</t>
-  </si>
-  <si>
-    <t>NCT00970385</t>
-  </si>
-  <si>
-    <t>NCT00700544</t>
-  </si>
-  <si>
-    <t>NCT00417235</t>
-  </si>
-  <si>
     <t>NCT00864955</t>
   </si>
   <si>
+    <t>NCT00273767</t>
+  </si>
+  <si>
+    <t>NCT00409487</t>
+  </si>
+  <si>
     <t>NCT01015651</t>
   </si>
   <si>
-    <t>NCT00409487</t>
-  </si>
-  <si>
-    <t>NCT00273767</t>
+    <t>NCT00758082</t>
   </si>
   <si>
     <t>NCT00862381</t>
@@ -115,322 +118,346 @@
     <t>NCT00827749</t>
   </si>
   <si>
-    <t>NCT00758082</t>
-  </si>
-  <si>
     <t>NCT00914329</t>
   </si>
   <si>
+    <t>NCT01210755</t>
+  </si>
+  <si>
+    <t>NCT01082484</t>
+  </si>
+  <si>
+    <t>NCT00710099</t>
+  </si>
+  <si>
+    <t>NCT01189682</t>
+  </si>
+  <si>
+    <t>NCT01614119</t>
+  </si>
+  <si>
+    <t>NCT01398696</t>
+  </si>
+  <si>
     <t>NCT00828035</t>
   </si>
   <si>
-    <t>NCT01082484</t>
-  </si>
-  <si>
-    <t>NCT01614119</t>
-  </si>
-  <si>
-    <t>NCT00710099</t>
-  </si>
-  <si>
-    <t>NCT01210755</t>
-  </si>
-  <si>
     <t>NCT00860106</t>
   </si>
   <si>
-    <t>NCT01189682</t>
-  </si>
-  <si>
-    <t>NCT01398696</t>
+    <t>NCT00886184</t>
+  </si>
+  <si>
+    <t>NCT01290198</t>
+  </si>
+  <si>
+    <t>NCT01743794</t>
+  </si>
+  <si>
+    <t>NCT00777985</t>
+  </si>
+  <si>
+    <t>NCT01295749</t>
+  </si>
+  <si>
+    <t>NCT01411605</t>
+  </si>
+  <si>
+    <t>NCT00837018</t>
+  </si>
+  <si>
+    <t>NCT00885573</t>
+  </si>
+  <si>
+    <t>NCT01058200</t>
   </si>
   <si>
     <t>NCT01235637</t>
   </si>
   <si>
-    <t>NCT00886184</t>
-  </si>
-  <si>
-    <t>NCT01058200</t>
-  </si>
-  <si>
-    <t>NCT01411605</t>
-  </si>
-  <si>
-    <t>NCT01295749</t>
-  </si>
-  <si>
-    <t>NCT00837018</t>
-  </si>
-  <si>
-    <t>NCT01743794</t>
-  </si>
-  <si>
-    <t>NCT00777985</t>
-  </si>
-  <si>
-    <t>NCT01290198</t>
-  </si>
-  <si>
-    <t>NCT00885573</t>
+    <t>NCT01423409</t>
   </si>
   <si>
     <t>NCT01821469</t>
   </si>
   <si>
+    <t>NCT01095042</t>
+  </si>
+  <si>
+    <t>NCT00464659</t>
+  </si>
+  <si>
+    <t>NCT00935051</t>
+  </si>
+  <si>
     <t>NCT01773564</t>
   </si>
   <si>
     <t>NCT01857089</t>
   </si>
   <si>
-    <t>NCT01095042</t>
-  </si>
-  <si>
-    <t>NCT00464659</t>
-  </si>
-  <si>
-    <t>NCT01423409</t>
-  </si>
-  <si>
-    <t>NCT00935051</t>
+    <t>NCT02880150</t>
+  </si>
+  <si>
+    <t>NCT02843958</t>
+  </si>
+  <si>
+    <t>NCT00908557</t>
+  </si>
+  <si>
+    <t>NCT01038284</t>
+  </si>
+  <si>
+    <t>NCT01537965</t>
+  </si>
+  <si>
+    <t>NCT01672268</t>
+  </si>
+  <si>
+    <t>NCT00746902</t>
+  </si>
+  <si>
+    <t>NCT01734603</t>
+  </si>
+  <si>
+    <t>NCT02128750</t>
+  </si>
+  <si>
+    <t>NCT01798732</t>
+  </si>
+  <si>
+    <t>NCT00639028</t>
   </si>
   <si>
     <t>NCT02854306</t>
   </si>
   <si>
-    <t>NCT02880150</t>
-  </si>
-  <si>
-    <t>NCT00639028</t>
-  </si>
-  <si>
-    <t>NCT01798732</t>
-  </si>
-  <si>
-    <t>NCT01537965</t>
-  </si>
-  <si>
-    <t>NCT02843958</t>
-  </si>
-  <si>
-    <t>NCT00746902</t>
-  </si>
-  <si>
-    <t>NCT01672268</t>
-  </si>
-  <si>
-    <t>NCT00908557</t>
-  </si>
-  <si>
-    <t>NCT01038284</t>
-  </si>
-  <si>
-    <t>NCT02128750</t>
-  </si>
-  <si>
-    <t>NCT01734603</t>
-  </si>
-  <si>
     <t>NCT02231528</t>
   </si>
   <si>
+    <t>NCT02849561</t>
+  </si>
+  <si>
+    <t>NCT01773876</t>
+  </si>
+  <si>
+    <t>NCT02360241</t>
+  </si>
+  <si>
     <t>NCT02236442</t>
   </si>
   <si>
+    <t>NCT01814267</t>
+  </si>
+  <si>
+    <t>NCT01848964</t>
+  </si>
+  <si>
+    <t>NCT02843971</t>
+  </si>
+  <si>
+    <t>NCT02843893</t>
+  </si>
+  <si>
+    <t>NCT02050360</t>
+  </si>
+  <si>
+    <t>NCT01743612</t>
+  </si>
+  <si>
     <t>NCT01799304</t>
   </si>
   <si>
-    <t>NCT02360241</t>
-  </si>
-  <si>
-    <t>NCT02849561</t>
-  </si>
-  <si>
-    <t>NCT01848964</t>
-  </si>
-  <si>
-    <t>NCT02843971</t>
-  </si>
-  <si>
-    <t>NCT02843893</t>
+    <t>NCT02316665</t>
+  </si>
+  <si>
+    <t>NCT01308801</t>
+  </si>
+  <si>
+    <t>NCT01785589</t>
   </si>
   <si>
     <t>NCT01741337</t>
   </si>
   <si>
-    <t>NCT01743612</t>
-  </si>
-  <si>
-    <t>NCT01814267</t>
-  </si>
-  <si>
-    <t>NCT01308801</t>
-  </si>
-  <si>
     <t>NCT02380482</t>
   </si>
   <si>
-    <t>NCT02316665</t>
-  </si>
-  <si>
-    <t>NCT02050360</t>
-  </si>
-  <si>
-    <t>NCT01785589</t>
-  </si>
-  <si>
-    <t>NCT01773876</t>
+    <t>NCT02632214</t>
+  </si>
+  <si>
+    <t>NCT02842255</t>
+  </si>
+  <si>
+    <t>NCT02789696</t>
+  </si>
+  <si>
+    <t>NCT02538458</t>
   </si>
   <si>
     <t>NCT02045173</t>
   </si>
   <si>
+    <t>NCT01816334</t>
+  </si>
+  <si>
     <t>NCT02095366</t>
   </si>
   <si>
-    <t>NCT02789696</t>
-  </si>
-  <si>
-    <t>NCT02538458</t>
-  </si>
-  <si>
-    <t>NCT02632214</t>
+    <t>NCT02212249</t>
+  </si>
+  <si>
+    <t>NCT01900379</t>
+  </si>
+  <si>
+    <t>NCT02843438</t>
+  </si>
+  <si>
+    <t>NCT02840305</t>
   </si>
   <si>
     <t>NCT02405767</t>
   </si>
   <si>
+    <t>NCT01896219</t>
+  </si>
+  <si>
+    <t>NCT01770015</t>
+  </si>
+  <si>
     <t>NCT02596789</t>
   </si>
   <si>
-    <t>NCT01896219</t>
-  </si>
-  <si>
-    <t>NCT01900379</t>
-  </si>
-  <si>
-    <t>NCT01770015</t>
-  </si>
-  <si>
-    <t>NCT02843438</t>
-  </si>
-  <si>
-    <t>NCT02842255</t>
-  </si>
-  <si>
-    <t>NCT01816334</t>
-  </si>
-  <si>
-    <t>NCT02212249</t>
-  </si>
-  <si>
-    <t>NCT02840305</t>
-  </si>
-  <si>
     <t>NCT02657213</t>
   </si>
   <si>
+    <t>NCT02682290</t>
+  </si>
+  <si>
     <t>NCT02135458</t>
   </si>
   <si>
+    <t>NCT02980302</t>
+  </si>
+  <si>
+    <t>NCT01557712</t>
+  </si>
+  <si>
+    <t>NCT01863108</t>
+  </si>
+  <si>
+    <t>NCT02869698</t>
+  </si>
+  <si>
+    <t>NCT02925130</t>
+  </si>
+  <si>
     <t>NCT02537366</t>
   </si>
   <si>
     <t>NCT02830022</t>
   </si>
   <si>
-    <t>NCT02925130</t>
-  </si>
-  <si>
-    <t>NCT01557712</t>
-  </si>
-  <si>
     <t>NCT02782520</t>
   </si>
   <si>
-    <t>NCT02682290</t>
+    <t>NCT02114749</t>
+  </si>
+  <si>
+    <t>NCT02351128</t>
+  </si>
+  <si>
+    <t>NCT03102983</t>
+  </si>
+  <si>
+    <t>NCT00875654</t>
+  </si>
+  <si>
+    <t>NCT03171571</t>
   </si>
   <si>
     <t>NCT02844036</t>
   </si>
   <si>
-    <t>NCT02114749</t>
-  </si>
-  <si>
-    <t>NCT01863108</t>
-  </si>
-  <si>
-    <t>NCT03171571</t>
-  </si>
-  <si>
-    <t>NCT02869698</t>
-  </si>
-  <si>
-    <t>NCT03102983</t>
-  </si>
-  <si>
-    <t>NCT02351128</t>
-  </si>
-  <si>
-    <t>NCT00875654</t>
-  </si>
-  <si>
-    <t>NCT02980302</t>
+    <t>NCT02779998</t>
+  </si>
+  <si>
+    <t>NCT03712592</t>
+  </si>
+  <si>
+    <t>NCT03654430</t>
+  </si>
+  <si>
+    <t>NCT01148680</t>
+  </si>
+  <si>
+    <t>NCT03033095</t>
+  </si>
+  <si>
+    <t>NCT02854280</t>
+  </si>
+  <si>
+    <t>NCT02345694</t>
+  </si>
+  <si>
+    <t>NCT02329418</t>
+  </si>
+  <si>
+    <t>NCT02021396</t>
   </si>
   <si>
     <t>NCT03087318</t>
   </si>
   <si>
+    <t>NCT02298582</t>
+  </si>
+  <si>
     <t>NCT03268915</t>
   </si>
   <si>
-    <t>NCT03033095</t>
-  </si>
-  <si>
-    <t>NCT02329418</t>
-  </si>
-  <si>
     <t>NCT02779400</t>
   </si>
   <si>
     <t>NCT01995955</t>
   </si>
   <si>
-    <t>NCT03712592</t>
-  </si>
-  <si>
     <t>NCT03375073</t>
   </si>
   <si>
-    <t>NCT03654430</t>
-  </si>
-  <si>
-    <t>NCT02021396</t>
-  </si>
-  <si>
-    <t>NCT02345694</t>
-  </si>
-  <si>
-    <t>NCT02854280</t>
-  </si>
-  <si>
-    <t>NCT01148680</t>
-  </si>
-  <si>
-    <t>NCT02298582</t>
-  </si>
-  <si>
-    <t>NCT02779998</t>
+    <t>NCT03457623</t>
+  </si>
+  <si>
+    <t>NCT03190031</t>
+  </si>
+  <si>
+    <t>NCT03211325</t>
+  </si>
+  <si>
+    <t>NCT02782533</t>
+  </si>
+  <si>
+    <t>NCT03545529</t>
+  </si>
+  <si>
+    <t>NCT03120533</t>
+  </si>
+  <si>
+    <t>NCT03507764</t>
+  </si>
+  <si>
+    <t>NCT02820454</t>
+  </si>
+  <si>
+    <t>NCT03992651</t>
+  </si>
+  <si>
+    <t>NCT03169088</t>
   </si>
   <si>
     <t>NCT03458507</t>
   </si>
   <si>
-    <t>NCT03992651</t>
-  </si>
-  <si>
-    <t>NCT03169088</t>
+    <t>NCT03087175</t>
   </si>
   <si>
     <t>NCT03305978</t>
@@ -439,241 +466,232 @@
     <t>NCT02773043</t>
   </si>
   <si>
-    <t>NCT03457623</t>
-  </si>
-  <si>
-    <t>NCT03087175</t>
-  </si>
-  <si>
-    <t>NCT03190031</t>
-  </si>
-  <si>
-    <t>NCT03545529</t>
-  </si>
-  <si>
-    <t>NCT02820454</t>
-  </si>
-  <si>
     <t>NCT03821311</t>
   </si>
   <si>
-    <t>NCT02782533</t>
-  </si>
-  <si>
-    <t>NCT03507764</t>
-  </si>
-  <si>
     <t>NCT02455089</t>
   </si>
   <si>
-    <t>NCT03211325</t>
-  </si>
-  <si>
-    <t>NCT03120533</t>
-  </si>
-  <si>
     <t>NCT03561649</t>
   </si>
   <si>
+    <t>NCT02853006</t>
+  </si>
+  <si>
+    <t>NCT03632382</t>
+  </si>
+  <si>
+    <t>NCT03617094</t>
+  </si>
+  <si>
+    <t>NCT02574026</t>
+  </si>
+  <si>
+    <t>NCT03094793</t>
+  </si>
+  <si>
     <t>NCT02120326</t>
   </si>
   <si>
     <t>NCT03776773</t>
   </si>
   <si>
-    <t>NCT02574026</t>
-  </si>
-  <si>
-    <t>NCT03094793</t>
-  </si>
-  <si>
-    <t>NCT03632382</t>
-  </si>
-  <si>
-    <t>NCT02853006</t>
-  </si>
-  <si>
-    <t>NCT03617094</t>
-  </si>
-  <si>
     <t>NCT04262557</t>
   </si>
   <si>
+    <t>NCT02922647</t>
+  </si>
+  <si>
+    <t>NCT03903341</t>
+  </si>
+  <si>
+    <t>NCT04192097</t>
+  </si>
+  <si>
+    <t>NCT02790411</t>
+  </si>
+  <si>
+    <t>NCT04325971</t>
+  </si>
+  <si>
+    <t>NCT03876990</t>
+  </si>
+  <si>
+    <t>NCT04801550</t>
+  </si>
+  <si>
+    <t>NCT02410317</t>
+  </si>
+  <si>
     <t>NCT02076698</t>
   </si>
   <si>
-    <t>NCT04192097</t>
-  </si>
-  <si>
-    <t>NCT04325971</t>
-  </si>
-  <si>
-    <t>NCT03876990</t>
+    <t>NCT04547569</t>
+  </si>
+  <si>
+    <t>NCT03969043</t>
+  </si>
+  <si>
+    <t>NCT03971994</t>
+  </si>
+  <si>
+    <t>NCT04020731</t>
+  </si>
+  <si>
+    <t>NCT02850367</t>
+  </si>
+  <si>
+    <t>NCT04036162</t>
+  </si>
+  <si>
+    <t>NCT03152539</t>
+  </si>
+  <si>
+    <t>NCT02790424</t>
   </si>
   <si>
     <t>NCT04462705</t>
   </si>
   <si>
-    <t>NCT02790411</t>
-  </si>
-  <si>
-    <t>NCT03903341</t>
-  </si>
-  <si>
-    <t>NCT02850367</t>
+    <t>NCT04242563</t>
+  </si>
+  <si>
+    <t>NCT03160235</t>
   </si>
   <si>
     <t>NCT04703816</t>
   </si>
   <si>
-    <t>NCT02790424</t>
-  </si>
-  <si>
-    <t>NCT03969043</t>
-  </si>
-  <si>
-    <t>NCT02922647</t>
-  </si>
-  <si>
-    <t>NCT02410317</t>
-  </si>
-  <si>
-    <t>NCT04547569</t>
-  </si>
-  <si>
-    <t>NCT04242563</t>
-  </si>
-  <si>
-    <t>NCT03971994</t>
-  </si>
-  <si>
-    <t>NCT04020731</t>
-  </si>
-  <si>
-    <t>NCT03160235</t>
-  </si>
-  <si>
-    <t>NCT04036162</t>
-  </si>
-  <si>
-    <t>NCT04801550</t>
-  </si>
-  <si>
-    <t>NCT03152539</t>
+    <t>NCT04159389</t>
+  </si>
+  <si>
+    <t>NCT02817880</t>
+  </si>
+  <si>
+    <t>NCT03218722</t>
+  </si>
+  <si>
+    <t>NCT04286490</t>
+  </si>
+  <si>
+    <t>NCT05452018</t>
+  </si>
+  <si>
+    <t>NCT03633370</t>
+  </si>
+  <si>
+    <t>NCT03613025</t>
+  </si>
+  <si>
+    <t>NCT04562974</t>
+  </si>
+  <si>
+    <t>NCT04590079</t>
+  </si>
+  <si>
+    <t>NCT02816203</t>
+  </si>
+  <si>
+    <t>NCT03428516</t>
+  </si>
+  <si>
+    <t>NCT04109625</t>
   </si>
   <si>
     <t>NCT02754063</t>
   </si>
   <si>
-    <t>NCT04562974</t>
-  </si>
-  <si>
-    <t>NCT03428516</t>
-  </si>
-  <si>
-    <t>NCT03218722</t>
-  </si>
-  <si>
-    <t>NCT04159389</t>
-  </si>
-  <si>
-    <t>NCT03613025</t>
-  </si>
-  <si>
-    <t>NCT02817880</t>
-  </si>
-  <si>
-    <t>NCT04109625</t>
-  </si>
-  <si>
     <t>NCT03938363</t>
   </si>
   <si>
-    <t>NCT02816203</t>
-  </si>
-  <si>
-    <t>NCT04590079</t>
-  </si>
-  <si>
-    <t>NCT05452018</t>
-  </si>
-  <si>
     <t>NCT03996616</t>
   </si>
   <si>
-    <t>NCT03633370</t>
-  </si>
-  <si>
     <t>NCT04633980</t>
   </si>
   <si>
     <t>NCT03844295</t>
   </si>
   <si>
+    <t>NCT04176341</t>
+  </si>
+  <si>
+    <t>NCT04849975</t>
+  </si>
+  <si>
+    <t>NCT04682678</t>
+  </si>
+  <si>
     <t>NCT05477069</t>
   </si>
   <si>
+    <t>NCT04825132</t>
+  </si>
+  <si>
+    <t>NCT03474575</t>
+  </si>
+  <si>
     <t>NCT05120739</t>
   </si>
   <si>
-    <t>NCT04176341</t>
-  </si>
-  <si>
-    <t>NCT04682678</t>
-  </si>
-  <si>
     <t>NCT04455074</t>
   </si>
   <si>
-    <t>NCT04825132</t>
-  </si>
-  <si>
-    <t>NCT03474575</t>
-  </si>
-  <si>
-    <t>NCT04849975</t>
+    <t>NCT02851121</t>
+  </si>
+  <si>
+    <t>NCT03387475</t>
+  </si>
+  <si>
+    <t>NCT05092906</t>
+  </si>
+  <si>
+    <t>NCT06648538</t>
   </si>
   <si>
     <t>NCT02210585</t>
   </si>
   <si>
-    <t>NCT05092906</t>
-  </si>
-  <si>
-    <t>NCT03387475</t>
+    <t>NCT04126837</t>
+  </si>
+  <si>
+    <t>NCT04369118</t>
   </si>
   <si>
     <t>NCT04971018</t>
   </si>
   <si>
-    <t>NCT04369118</t>
-  </si>
-  <si>
-    <t>NCT04126837</t>
-  </si>
-  <si>
-    <t>NCT06648538</t>
-  </si>
-  <si>
-    <t>NCT02851121</t>
-  </si>
-  <si>
     <t>NCT02660268</t>
   </si>
   <si>
+    <t>2007-007603-32</t>
+  </si>
+  <si>
+    <t>2007-005333-11</t>
+  </si>
+  <si>
+    <t>2011-005451-14</t>
+  </si>
+  <si>
     <t>2013-000014-38</t>
   </si>
   <si>
     <t>2013-001665-16</t>
   </si>
   <si>
+    <t>2012-003124-20</t>
+  </si>
+  <si>
+    <t>2015-004485-28</t>
+  </si>
+  <si>
+    <t>2014-001273-13</t>
+  </si>
+  <si>
     <t>2014-003156-31</t>
   </si>
   <si>
-    <t>2015-004485-28</t>
-  </si>
-  <si>
-    <t>2014-001273-13</t>
+    <t>2015-004259-30</t>
   </si>
   <si>
     <t>2016-004247-37</t>
@@ -760,31 +778,34 @@
     <t>Effect of an Intensive Insulin Therapy on the Production of LTE4 in Patients With Diabetes</t>
   </si>
   <si>
+    <t>Dressing: Comparison of 3-day and 7-day Catheter Dressing Frequency and Efficacy of Antiseptic Impregnated Dressing in Preventing Catheter-related Infection in ICU</t>
+  </si>
+  <si>
+    <t>Effect of Controlled Diets on Structural and Functional Dynamic of the Human Intestinal Microflora</t>
+  </si>
+  <si>
+    <t>Multicentric Study About Treatment of High Grade Peripheral T Cell Lymphoma in Adults. LTP Study Comparison Between VIP ABVD Versus CHOP</t>
+  </si>
+  <si>
+    <t>Adjonction of Androgenotheapy for Post-Remission Treatment of Elderly Patients With Acute Myeloid Leukemia - Results of the Multicenter Goelams SA-2002 Trial.</t>
+  </si>
+  <si>
     <t>Effects of Home Pulmonary Rehabilitation in Patients With Chronic Respiratory Failure and Nutritional Depletion.</t>
   </si>
   <si>
-    <t>Effect of Controlled Diets on Structural and Functional Dynamic of the Human Intestinal Microflora</t>
-  </si>
-  <si>
-    <t>Multicentric Study About Treatment of High Grade Peripheral T Cell Lymphoma in Adults. LTP Study Comparison Between VIP ABVD Versus CHOP</t>
-  </si>
-  <si>
-    <t>Adjonction of Androgenotheapy for Post-Remission Treatment of Elderly Patients With Acute Myeloid Leukemia - Results of the Multicenter Goelams SA-2002 Trial.</t>
-  </si>
-  <si>
-    <t>Dressing: Comparison of 3-day and 7-day Catheter Dressing Frequency and Efficacy of Antiseptic Impregnated Dressing in Preventing Catheter-related Infection in ICU</t>
-  </si>
-  <si>
     <t>Damage to DNA Caused by UV-A Irradiation: Photochemical Mechanism and Cutaneous Parameters Involved in the Formation of Cyclobutane Pyrimidine Dimers</t>
   </si>
   <si>
+    <t>Double-blind Phase II Pilot Monocentric Randomized Clinical Trial Evaluating the Effect of a Preliminary Administration of Erythropoietin on Different Markers of Cardiac Ischemia Induced by Cardiopulmonary Bypass</t>
+  </si>
+  <si>
+    <t>Comparative Study of Effect of Valsartan 160mg Treatment Versus Continuous Positive Airway Pressure on Arterial Blood Pressure in Patients Who Have an Obstructive Sleep Apnea Syndrome and a Weak or Moderate Hypertension.</t>
+  </si>
+  <si>
     <t>Assessment of the Nociception During Lumbar Surgery</t>
   </si>
   <si>
-    <t>Comparative Study of Effect of Valsartan 160mg Treatment Versus Continuous Positive Airway Pressure on Arterial Blood Pressure in Patients Who Have an Obstructive Sleep Apnea Syndrome and a Weak or Moderate Hypertension.</t>
-  </si>
-  <si>
-    <t>Double-blind Phase II Pilot Monocentric Randomized Clinical Trial Evaluating the Effect of a Preliminary Administration of Erythropoietin on Different Markers of Cardiac Ischemia Induced by Cardiopulmonary Bypass</t>
+    <t>Reinforcement of the Impact of a Functional Insulin Therapy Training Course by Telemonotoring With a PDA-phone in Type 1 Diabetic Patients. The TELFIT Study</t>
   </si>
   <si>
     <t>Opothérapie Par Hydrocortisone après Injection Unique d'Etomidate Chez le Patient de réanimation</t>
@@ -793,879 +814,909 @@
     <t>Contribution of Respiratory Plethysmography by Inductance and of Informatic Tool for the Study of Swallowing Disorders in Geriatrics (PRIOD)</t>
   </si>
   <si>
-    <t>Reinforcement of the Impact of a Functional Insulin Therapy Training Course by Telemonotoring With a PDA-phone in Type 1 Diabetic Patients. The TELFIT Study</t>
-  </si>
-  <si>
     <t>Randomized Controlled Study Versus Placebo Evaluating Effectiveness of Gelsemium Sempervirens (5CH et 15CH) on Provoked Anticipatory Anxiety, in Healthy Volunteers</t>
   </si>
   <si>
+    <t>Reversion of the Anticoagulant Effect of the New Antithrombotic Agents Anti-Xa and Anti IIa by Specific and Non-specific Haemostatic Drugs,: an Ex-Vivo Study in Healthy Volunteers</t>
+  </si>
+  <si>
+    <t>Cutaneous Iontophoresis of Iloprost and Treprostinil in Healthy Volunteers</t>
+  </si>
+  <si>
+    <t>Effect of Oral Sildenafil With Digital Therapeutic Iontophoresis of Sodium Nitroprussiate on Cutaneous Blood Flow in Healthy Volunteers</t>
+  </si>
+  <si>
+    <t>Impact of Tegaderm HP and Tegaderm CHG in Major Catheter Related Infections and Dressing Detachment in ICU Patients a Prospective Randomized Study</t>
+  </si>
+  <si>
+    <t>Evaluation of the Cerebral Responses to Exercise in Hypoxia</t>
+  </si>
+  <si>
+    <t>Impact of Four Patient Information Leaflets (PIL) on Patient Behaviour : a Randomised Controlled Trial in Primary Care.</t>
+  </si>
+  <si>
     <t>Light Endoscopic Robot Use in Abdominal and Urological Laparoscopic Surgery</t>
   </si>
   <si>
-    <t>Cutaneous Iontophoresis of Iloprost and Treprostinil in Healthy Volunteers</t>
-  </si>
-  <si>
-    <t>Evaluation of the Cerebral Responses to Exercise in Hypoxia</t>
-  </si>
-  <si>
-    <t>Effect of Oral Sildenafil With Digital Therapeutic Iontophoresis of Sodium Nitroprussiate on Cutaneous Blood Flow in Healthy Volunteers</t>
-  </si>
-  <si>
-    <t>Reversion of the Anticoagulant Effect of the New Antithrombotic Agents Anti-Xa and Anti IIa by Specific and Non-specific Haemostatic Drugs,: an Ex-Vivo Study in Healthy Volunteers</t>
-  </si>
-  <si>
     <t>Study of Predictive Echo Doppler Score and D-dimer Level in Evaluation of the Thromboembolic Event Recurrence After Anticoagulant Treatment Cessation.</t>
   </si>
   <si>
-    <t>Impact of Tegaderm HP and Tegaderm CHG in Major Catheter Related Infections and Dressing Detachment in ICU Patients a Prospective Randomized Study</t>
-  </si>
-  <si>
-    <t>Impact of Four Patient Information Leaflets (PIL) on Patient Behaviour : a Randomised Controlled Trial in Primary Care.</t>
+    <t>Intra-arrest Therapeutic Hypothermia in Prehospital Cardiac Arrest. Impact on Biomarker of Brain Damage.</t>
+  </si>
+  <si>
+    <t>Role of Epoxy-eicosatrienoic Acids in Post-occlusive Hyperemia and Thermal Hyperemia</t>
+  </si>
+  <si>
+    <t>Efficacy of Continuous Wound Infusion in Major Lumbar and Thoracic Spine Surgery : A Randomised, Double-blinded, Placebo-controlled Study</t>
+  </si>
+  <si>
+    <t>Cardiovascular Consequences of Obstructive Sleep Apnea (OSA): Role of Endothelin and Preventive Effects of Bosentan</t>
+  </si>
+  <si>
+    <t>Reduction of no Flow Time During Out of Hospital Cardiac Arrest by Using Laryngeal Tube for Airway Management by Nurses.</t>
+  </si>
+  <si>
+    <t>Influence of Cardio-ventilatory Factors on Exercise Intolerance in Obese Adolescents: Effects of Exercise Training</t>
+  </si>
+  <si>
+    <t>Exercise Intolerance in Obstructive Sleep Apnea Syndrome Patients: Cardiovascular and Metabolic Characterisation During Exercise. Treatments Effect.</t>
+  </si>
+  <si>
+    <t>Measurement of Pharyngeal Sensitivity With the SENSITEST Device: Validation of the Diagnosis Algorithm for Sleep Disordered Breathing</t>
+  </si>
+  <si>
+    <t>Assess the Risk-benefit Balance of the New Vacuum Assisted-delivery Device "iCUP" Versus the Reference Vacuum. Multicenter Prospective Randomized Controlled Study</t>
   </si>
   <si>
     <t>Efficacy of Alfentanyl Versus Sufentanyl in Children for Pain During Treatment by Tracheal Suction in an Intensive Care Unit.</t>
   </si>
   <si>
-    <t>Intra-arrest Therapeutic Hypothermia in Prehospital Cardiac Arrest. Impact on Biomarker of Brain Damage.</t>
-  </si>
-  <si>
-    <t>Assess the Risk-benefit Balance of the New Vacuum Assisted-delivery Device "iCUP" Versus the Reference Vacuum. Multicenter Prospective Randomized Controlled Study</t>
-  </si>
-  <si>
-    <t>Influence of Cardio-ventilatory Factors on Exercise Intolerance in Obese Adolescents: Effects of Exercise Training</t>
-  </si>
-  <si>
-    <t>Reduction of no Flow Time During Out of Hospital Cardiac Arrest by Using Laryngeal Tube for Airway Management by Nurses.</t>
-  </si>
-  <si>
-    <t>Exercise Intolerance in Obstructive Sleep Apnea Syndrome Patients: Cardiovascular and Metabolic Characterisation During Exercise. Treatments Effect.</t>
-  </si>
-  <si>
-    <t>Efficacy of Continuous Wound Infusion in Major Lumbar and Thoracic Spine Surgery : A Randomised, Double-blinded, Placebo-controlled Study</t>
-  </si>
-  <si>
-    <t>Cardiovascular Consequences of Obstructive Sleep Apnea (OSA): Role of Endothelin and Preventive Effects of Bosentan</t>
-  </si>
-  <si>
-    <t>Role of Epoxy-eicosatrienoic Acids in Post-occlusive Hyperemia and Thermal Hyperemia</t>
-  </si>
-  <si>
-    <t>Measurement of Pharyngeal Sensitivity With the SENSITEST Device: Validation of the Diagnosis Algorithm for Sleep Disordered Breathing</t>
+    <t>Assessment of an Innovative Visual Analogue Scale of Pain (Pictorial VAS) Versus the Usual VAS (VAS) Among Deaf People</t>
   </si>
   <si>
     <t>Functional Correlates of Bipolar Disorders and Effects of the Psychoeducation. Assessment by Functional and Anatomic Neuroimaging.</t>
   </si>
   <si>
+    <t>Etude de la réactivité émotionnelle Des Patients MICI ou SII</t>
+  </si>
+  <si>
+    <t>Comparison of the Evolution of Memory Deficit in Patients With Sleep Apnea Obstructive Syndrome (SAOS) Before and After "Effective" Versus Sham Treatment by Positive Pression Continues (PPC)</t>
+  </si>
+  <si>
+    <t>Assessment of the MMP-1/TIMP-1 Ratio as a Predictor of Wound Healing in Diabetic Foot Ulcers</t>
+  </si>
+  <si>
     <t>Comparison Between Two Types of Semipermeable Dressings of New Generation in the Prevention of Intravascular Catheters Related Complications in Intensive Care.</t>
   </si>
   <si>
     <t>Characterization of Sitting Postures in Healthy Subjects</t>
   </si>
   <si>
-    <t>Etude de la réactivité émotionnelle Des Patients MICI ou SII</t>
-  </si>
-  <si>
-    <t>Comparison of the Evolution of Memory Deficit in Patients With Sleep Apnea Obstructive Syndrome (SAOS) Before and After "Effective" Versus Sham Treatment by Positive Pression Continues (PPC)</t>
-  </si>
-  <si>
-    <t>Assessment of an Innovative Visual Analogue Scale of Pain (Pictorial VAS) Versus the Usual VAS (VAS) Among Deaf People</t>
-  </si>
-  <si>
-    <t>Assessment of the MMP-1/TIMP-1 Ratio as a Predictor of Wound Healing in Diabetic Foot Ulcers</t>
+    <t>Physiological Characteristics of High Altitude Climbers</t>
+  </si>
+  <si>
+    <t>Validation of a Portable Medical Device for Diagnostic in Vitro, Designed to Measure Blood Coagulation's Biological Parameters</t>
+  </si>
+  <si>
+    <t>Multicenter RCT to Assess the Impact of Improvements in Lexico-syntactic Readability and Good Practice in Writing on the Comprehension of Written Information Given to Patients Participating in Clinical Trials.</t>
+  </si>
+  <si>
+    <t>Evaluation of Multidisciplinary Collaboration Care Program in Pulmonary Arterial Hypertension</t>
+  </si>
+  <si>
+    <t>Interest of Cardiac Computed Tomography (CT) to Optimize and Improve the Procedure of Transcatheter Aortic Valve Implantation (TAVI)</t>
+  </si>
+  <si>
+    <t>Study of the Relationships Between Refractory Hypertension, Overweight/Obesity and Sleep Apnea Syndrome</t>
+  </si>
+  <si>
+    <t>Randomized, Monocentric and Multidisciplinary Study of the Effects of an Intensive Rehabilitation by Interval Training With Active Recovery in Peripheral Arterial Disease With Claudication</t>
+  </si>
+  <si>
+    <t>Echographie de Contraste Pour l'Analyse de la Perfusion Musculaire Dans l'ischémie Critique</t>
+  </si>
+  <si>
+    <t>Effect of Selective Laser Trabeculoplasty on the Intraocular Pressure Nycthemeral Rhythm.</t>
+  </si>
+  <si>
+    <t>Comparative Study of Two Radiological Modalities, Ultrasonography Versus Stress Radiography, in the Urgent Care and Prognosis of Lateral Ankle Sprains.</t>
   </si>
   <si>
     <t>Psycho-sensorial Mindfulness and Top-down Control : Mindfulness Program for Obese Patients in Preparation to Bariatric Surgery</t>
   </si>
   <si>
-    <t>Physiological Characteristics of High Altitude Climbers</t>
-  </si>
-  <si>
-    <t>Comparative Study of Two Radiological Modalities, Ultrasonography Versus Stress Radiography, in the Urgent Care and Prognosis of Lateral Ankle Sprains.</t>
-  </si>
-  <si>
-    <t>Effect of Selective Laser Trabeculoplasty on the Intraocular Pressure Nycthemeral Rhythm.</t>
-  </si>
-  <si>
-    <t>Validation of a Portable Medical Device for Diagnostic in Vitro, Designed to Measure Blood Coagulation's Biological Parameters</t>
-  </si>
-  <si>
-    <t>Study of the Relationships Between Refractory Hypertension, Overweight/Obesity and Sleep Apnea Syndrome</t>
-  </si>
-  <si>
-    <t>Interest of Cardiac Computed Tomography (CT) to Optimize and Improve the Procedure of Transcatheter Aortic Valve Implantation (TAVI)</t>
-  </si>
-  <si>
-    <t>Multicenter RCT to Assess the Impact of Improvements in Lexico-syntactic Readability and Good Practice in Writing on the Comprehension of Written Information Given to Patients Participating in Clinical Trials.</t>
-  </si>
-  <si>
-    <t>Evaluation of Multidisciplinary Collaboration Care Program in Pulmonary Arterial Hypertension</t>
-  </si>
-  <si>
-    <t>Echographie de Contraste Pour l'Analyse de la Perfusion Musculaire Dans l'ischémie Critique</t>
-  </si>
-  <si>
-    <t>Randomized, Monocentric and Multidisciplinary Study of the Effects of an Intensive Rehabilitation by Interval Training With Active Recovery in Peripheral Arterial Disease With Claudication</t>
-  </si>
-  <si>
     <t>Interest of Ultrasound Coupled to a Guidance System (GPS) for Central Venous Catheters (CVC) Insertion.</t>
   </si>
   <si>
+    <t>Evaluation of Prognosis Factors of Neurological Evolution in Cardiac Arrest : Prospective Study of Routine Care</t>
+  </si>
+  <si>
+    <t>Micafungin Versus Placebo in the Nosocomial Sepsis in Patients Multi-colonized With Candida, Randomized Controlled Trial</t>
+  </si>
+  <si>
+    <t>LPRobacus: Light Needle Positioning Robot Under MRI Guidance</t>
+  </si>
+  <si>
     <t>Therapeutic Management of Acute Cephalalgia Before and After Use of a Therapeutic Protocol in Emergency Department</t>
   </si>
   <si>
+    <t>Peut-on améliorer la Marche de l'amputé fémoral en Guidant la Correction prothétique Par l'Analyse Des Pressions Dans l'emboîture ?</t>
+  </si>
+  <si>
+    <t>Evaluation of the Water Drinking Test Response in Supine and Sitting Position Using the Continuous Intraocular Pressure Measurement Device Sensimed Triggerfish in Healthy Subjects</t>
+  </si>
+  <si>
+    <t>Evaluation of Pupillary Distension Reflexes, as a Tool for the Monitoring of Analgesia for Patients in Intensive Care.</t>
+  </si>
+  <si>
+    <t>Efficacy and Safety of "as Required" Sildenafil for Patients With Moderate to Severe Raynaud's Phenomenon (RP)</t>
+  </si>
+  <si>
+    <t>Laser SPEckle Contrast Imaging Interest in dEtection of Cutaneous Microvascular Dysfunction in Systemic Sclerosis.</t>
+  </si>
+  <si>
     <t>Is it Possible to Improve Static and Dynamic Postural Stability in Cerebral Palsy Children by Modulating Attention?</t>
   </si>
   <si>
-    <t>LPRobacus: Light Needle Positioning Robot Under MRI Guidance</t>
-  </si>
-  <si>
-    <t>Evaluation of Prognosis Factors of Neurological Evolution in Cardiac Arrest : Prospective Study of Routine Care</t>
-  </si>
-  <si>
-    <t>Peut-on améliorer la Marche de l'amputé fémoral en Guidant la Correction prothétique Par l'Analyse Des Pressions Dans l'emboîture ?</t>
-  </si>
-  <si>
-    <t>Evaluation of the Water Drinking Test Response in Supine and Sitting Position Using the Continuous Intraocular Pressure Measurement Device Sensimed Triggerfish in Healthy Subjects</t>
-  </si>
-  <si>
-    <t>Evaluation of Pupillary Distension Reflexes, as a Tool for the Monitoring of Analgesia for Patients in Intensive Care.</t>
+    <t>Effect of Continuous Positive Airway Pressure Treatment on Nocturnal Glycemia of Patients Having Type 1 Diabetes and Sleep Apnea Syndrome: a Randomized Controlled Trial</t>
+  </si>
+  <si>
+    <t>Benefice Assessment of Repetitive Transcranial Magnetic Stimulation Used as an Additional Procedure to Rehabilitation Exercises in Patients Suffering From Fibromyalgia</t>
+  </si>
+  <si>
+    <t>Stress Thallium-201/Rest Technetium-99m Sequential Dual Isotope High-Speed Myocardial Perfusion Imaging Validation Versus Invasive Coronary Angiography</t>
   </si>
   <si>
     <t>Central Sleep Apneas Syndrome and Ventricular Function in Patients With Heart Failure, After Coronary Artery Bypass Graft Surgery or Other Coronary Reperfusion</t>
   </si>
   <si>
-    <t>Laser SPEckle Contrast Imaging Interest in dEtection of Cutaneous Microvascular Dysfunction in Systemic Sclerosis.</t>
-  </si>
-  <si>
-    <t>Benefice Assessment of Repetitive Transcranial Magnetic Stimulation Used as an Additional Procedure to Rehabilitation Exercises in Patients Suffering From Fibromyalgia</t>
-  </si>
-  <si>
     <t>Myocardial Dysfunction at Early Phase of Traumatic Brain Injury : Evaluation by Two Dimensional and Speckle Tracking Transthoracic Echocardiography</t>
   </si>
   <si>
-    <t>Effect of Continuous Positive Airway Pressure Treatment on Nocturnal Glycemia of Patients Having Type 1 Diabetes and Sleep Apnea Syndrome: a Randomized Controlled Trial</t>
-  </si>
-  <si>
-    <t>Efficacy and Safety of "as Required" Sildenafil for Patients With Moderate to Severe Raynaud's Phenomenon (RP)</t>
-  </si>
-  <si>
-    <t>Stress Thallium-201/Rest Technetium-99m Sequential Dual Isotope High-Speed Myocardial Perfusion Imaging Validation Versus Invasive Coronary Angiography</t>
-  </si>
-  <si>
-    <t>Micafungin Versus Placebo in the Nosocomial Sepsis in Patients Multi-colonized With Candida, Randomized Controlled Trial</t>
+    <t>Plasticity and Cross-modal Interactions for Oral Communication in Profoundly Deaf Adults</t>
+  </si>
+  <si>
+    <t>Calibration of a New Reflectance Oximeter.</t>
+  </si>
+  <si>
+    <t>Prevalence of Acromegaly in a Diagnostic Consultation for Sleep Apnea Syndrome: A Prospective, National and Multicentric Study</t>
+  </si>
+  <si>
+    <t>Effects of Reduction of the Length of Treatment by Nebulized 3% Hypertonic Saline From 72 to 24 Hours on Clinical Remission, in Children Younger Than 12 Month Hospitalized for Acute Bronchiolitis. BRONDUSAL</t>
   </si>
   <si>
     <t>Screening for Sleep-disordered Breathing in Routine Cardiology Practice: Validation of the Apnea + Hypopnea Detection by an Implantable Cardioverter Defibrillator (ICD) or Cardiac Resynchronization Therapy-defibrillator (CRT-D) With Impedance-based Respiration Sensor (ApneaScanTM)</t>
   </si>
   <si>
+    <t>Safety and Efficacy of Nonsteroidal Antiinflammatory Drug and Glucocorticoids in Acute Sciatica</t>
+  </si>
+  <si>
     <t>Intra Nasal Sufentanil Versus Intravenous Morphine for Acute Severe Traumatic Pain Analgesia in Emergency Setting. A Multicenter,Randomized,Controled, Comparative, Double Blinded Study</t>
   </si>
   <si>
-    <t>Prevalence of Acromegaly in a Diagnostic Consultation for Sleep Apnea Syndrome: A Prospective, National and Multicentric Study</t>
-  </si>
-  <si>
-    <t>Effects of Reduction of the Length of Treatment by Nebulized 3% Hypertonic Saline From 72 to 24 Hours on Clinical Remission, in Children Younger Than 12 Month Hospitalized for Acute Bronchiolitis. BRONDUSAL</t>
-  </si>
-  <si>
-    <t>Plasticity and Cross-modal Interactions for Oral Communication in Profoundly Deaf Adults</t>
+    <t>Soluble VE-cadherin and VE-cadherin Antibody in Sclerodermic Sclerosis</t>
+  </si>
+  <si>
+    <t>Impact of the Obstructive Sleep Apnea Syndrome Treatment and Ventricular Function in Heart Failure Patients Undergoing Coronary Artery Bypass Surgery or Other Coronary Reperfusion</t>
+  </si>
+  <si>
+    <t>Evaluation of Biological Biomarkers Diagnostic of Toxoplasmosis Uveitis</t>
+  </si>
+  <si>
+    <t>Brain Bases of Visual Perceptionnatural Scenes of Natural Scenes.</t>
   </si>
   <si>
     <t>Characterisation by Electric Impedance Measurements of the Different Wound Healing Phases of Diabetic Foot Ulcers</t>
   </si>
   <si>
+    <t>Multicentric Evaluation of IMACTIS-CT Navigation System</t>
+  </si>
+  <si>
+    <t>Study of the Impact of Bronchial Colonization With Fungi in the Occurrence of Late Ventilator Acquired Pneumonia</t>
+  </si>
+  <si>
     <t>Study of Cortical Excitability in Healthy Subjects With Transcranial Magnetic Stimulation (TMS) and a Neuronavigation Device</t>
   </si>
   <si>
-    <t>Multicentric Evaluation of IMACTIS-CT Navigation System</t>
-  </si>
-  <si>
-    <t>Impact of the Obstructive Sleep Apnea Syndrome Treatment and Ventricular Function in Heart Failure Patients Undergoing Coronary Artery Bypass Surgery or Other Coronary Reperfusion</t>
-  </si>
-  <si>
-    <t>Study of the Impact of Bronchial Colonization With Fungi in the Occurrence of Late Ventilator Acquired Pneumonia</t>
-  </si>
-  <si>
-    <t>Evaluation of Biological Biomarkers Diagnostic of Toxoplasmosis Uveitis</t>
-  </si>
-  <si>
-    <t>Calibration of a New Reflectance Oximeter.</t>
-  </si>
-  <si>
-    <t>Safety and Efficacy of Nonsteroidal Antiinflammatory Drug and Glucocorticoids in Acute Sciatica</t>
-  </si>
-  <si>
-    <t>Soluble VE-cadherin and VE-cadherin Antibody in Sclerodermic Sclerosis</t>
-  </si>
-  <si>
-    <t>Brain Bases of Visual Perceptionnatural Scenes of Natural Scenes.</t>
-  </si>
-  <si>
     <t>Study of Minimed 640G Insulin Pump With SmartGuard in Prevention of Low Glucose Events in Adults With Type 1 Diabetes at Risk of Severe Hypoglycemia</t>
   </si>
   <si>
+    <t>Assessment of a Device Used for Measuring the Rheological Parameters of Human Sputum.</t>
+  </si>
+  <si>
+    <t>Clinical and Medico-economic Assessment of Conventional Care Plus the "Autonom@Dom" Telemonitoring System Versus a Conventional Care Package Alone, for People With Heart Failure in Several French Structures.</t>
+  </si>
+  <si>
+    <t>Development of the Tool " iPSC " (Induced Pluripotent Stem Cells) for the Functional Study of Mutations Responsible for Mental Retardation - Application to Familial Study of MYT1L Gene Mutations</t>
+  </si>
+  <si>
+    <t>Estimate the Efficiency of the Association of an Injection of Ketamine and the Venlafaxine in the Severe Major Depressive Disorder for Six Weeks.</t>
+  </si>
+  <si>
+    <t>Dose-escalation Study to Assess the Safety and Tolerability of Sub-cutaneous Injections of a Peptide-loaded Plasmacytoid Dendritic Cell Line (GeniusVac-Mel4) in Patients With Melanoma</t>
+  </si>
+  <si>
+    <t>Spectral Dynamic Imaging of Cognitive Functions in Epileptic Patients Explored</t>
+  </si>
+  <si>
+    <t>Effets d’un soluté hypertonique et du Ringer Lactate sur la fonction ventriculaire droite après chirurgie cardiaque</t>
+  </si>
+  <si>
+    <t>Beta2-mimetic and Central Nervous System: Effects of Salbutamol on Cortical Excitability and Cerebral Activation</t>
+  </si>
+  <si>
+    <t>Dexmedetomidine for Non-invasive Ventilation After Chest Trauma (VENDETTA)</t>
+  </si>
+  <si>
+    <t>Sleep, Autonomic Nervous System and Cardiorespiratory Capacity in Autism Spectrum Disorders Children</t>
+  </si>
+  <si>
+    <t>Comparison of the Effects of an Hypertonic Solution With Ringer Lactate on Right Ventricular Function Following Cardiac Surgery</t>
+  </si>
+  <si>
+    <t>Development of Tools for Respiration and Circulation Studies and Exploration, Their Mutual Interactions and the Functions Involved in the Daily Life in Healthy Volunteers</t>
+  </si>
+  <si>
+    <t>Traitement Des Carcinomes à Cellules de Merkel inopérables et/ou métastatiques Par Analogue de la Somatostatine - Etude Nationale Multicentrique Mono-bras de Phase II.</t>
+  </si>
+  <si>
+    <t>Sensory-motor Interactions in the Perception of Vowels: a Study in Repetition - Suppression</t>
+  </si>
+  <si>
+    <t>Cell Therapy by Intravenous Injection of Mesenchymal Stem Cells After Stroke</t>
+  </si>
+  <si>
     <t>Etude de la tolérance du fentanyl intranasal (Pecfent®) dans le traitement des douleurs procédurales chez la personne âgée, avec ou sans traitement de fond.</t>
   </si>
   <si>
-    <t>Effets d’un soluté hypertonique et du Ringer Lactate sur la fonction ventriculaire droite après chirurgie cardiaque</t>
-  </si>
-  <si>
-    <t>Clinical and Medico-economic Assessment of Conventional Care Plus the "Autonom@Dom" Telemonitoring System Versus a Conventional Care Package Alone, for People With Heart Failure in Several French Structures.</t>
-  </si>
-  <si>
-    <t>Dexmedetomidine for Non-invasive Ventilation After Chest Trauma (VENDETTA)</t>
-  </si>
-  <si>
-    <t>Sleep, Autonomic Nervous System and Cardiorespiratory Capacity in Autism Spectrum Disorders Children</t>
-  </si>
-  <si>
-    <t>Beta2-mimetic and Central Nervous System: Effects of Salbutamol on Cortical Excitability and Cerebral Activation</t>
-  </si>
-  <si>
-    <t>Estimate the Efficiency of the Association of an Injection of Ketamine and the Venlafaxine in the Severe Major Depressive Disorder for Six Weeks.</t>
-  </si>
-  <si>
-    <t>Comparison of the Effects of an Hypertonic Solution With Ringer Lactate on Right Ventricular Function Following Cardiac Surgery</t>
-  </si>
-  <si>
-    <t>Assessment of a Device Used for Measuring the Rheological Parameters of Human Sputum.</t>
+    <t>Personal Lifestyle Assistant for Better Health Through Nutrition : Cook to Health Study</t>
   </si>
   <si>
     <t>Angioplasty of Distal Lesions for Carriers of Inoperable Post-embolic HTP</t>
   </si>
   <si>
-    <t>Development of Tools for Respiration and Circulation Studies and Exploration, Their Mutual Interactions and the Functions Involved in the Daily Life in Healthy Volunteers</t>
-  </si>
-  <si>
-    <t>Dose-escalation Study to Assess the Safety and Tolerability of Sub-cutaneous Injections of a Peptide-loaded Plasmacytoid Dendritic Cell Line (GeniusVac-Mel4) in Patients With Melanoma</t>
-  </si>
-  <si>
-    <t>Personal Lifestyle Assistant for Better Health Through Nutrition : Cook to Health Study</t>
-  </si>
-  <si>
-    <t>Spectral Dynamic Imaging of Cognitive Functions in Epileptic Patients Explored</t>
-  </si>
-  <si>
-    <t>Sensory-motor Interactions in the Perception of Vowels: a Study in Repetition - Suppression</t>
-  </si>
-  <si>
-    <t>Traitement Des Carcinomes à Cellules de Merkel inopérables et/ou métastatiques Par Analogue de la Somatostatine - Etude Nationale Multicentrique Mono-bras de Phase II.</t>
-  </si>
-  <si>
-    <t>Cell Therapy by Intravenous Injection of Mesenchymal Stem Cells After Stroke</t>
-  </si>
-  <si>
-    <t>Development of the Tool " iPSC " (Induced Pluripotent Stem Cells) for the Functional Study of Mutations Responsible for Mental Retardation - Application to Familial Study of MYT1L Gene Mutations</t>
+    <t>Prophylactic Non-invasive Ventilation During Surgical Procedure in Rhythmology</t>
+  </si>
+  <si>
+    <t>Physiological Constraints Associated With Trail Running</t>
+  </si>
+  <si>
+    <t>Longitudinal Study by 2D-speckle-tracking Echocardiography of the Ventricular Wall Motion During Postnatal Adaptation</t>
+  </si>
+  <si>
+    <t>Randomized Controlled Trial Comparing the Metabolic Efficiency of Allogeneic Pancreatic Islet Transplantation to Intensive Insulin Therapy for the Treatment of Type 1 Diabetes</t>
+  </si>
+  <si>
+    <t>Prediction of the Answer to the Treatment by Biotherapies for Naive Spondyloarthritis Disease During 6 Months by Combinatorial Analysis of Serum Biomarkers</t>
+  </si>
+  <si>
+    <t>Brain During Effort : Effects of Hypoxia With Respiratory Patients</t>
+  </si>
+  <si>
+    <t>Non-automatic Control of Gait and Posture in Obstructive Sleep Apnea Syndrome : a Randomised Controlled Trial of Continuous Positive Airway Pressure Effectiveness (CIH - Gait)</t>
+  </si>
+  <si>
+    <t>Impact of a Written Document on Post Traumatic Stress Disorder (PTSD) Diagnosed in Family Members After Withholding and Withdrawing Life-sustaining Therapies in the Intensive Care Unit</t>
+  </si>
+  <si>
+    <t>Benefit of Prophylactic Embolization of the Splenic Salvage in Trauma Patients at High Risk of Splenectomy.</t>
   </si>
   <si>
     <t>Sport as a Treatment in Chronic Diseases and Healthcare Sustainability: Sport 4 Health</t>
   </si>
   <si>
+    <t>Safety of Intranasal Fentanyl (PecFent®) in the Treatment of Procedural Pain in the Elderly With or Without Background Treatment.</t>
+  </si>
+  <si>
     <t>Assessment of the Reproducibility of the 3 Minutes Sit-to-stand Test in Patients With Idiopathic Pulmonary Fibrosis (IPF)</t>
   </si>
   <si>
-    <t>Prediction of the Answer to the Treatment by Biotherapies for Naive Spondyloarthritis Disease During 6 Months by Combinatorial Analysis of Serum Biomarkers</t>
-  </si>
-  <si>
-    <t>Impact of a Written Document on Post Traumatic Stress Disorder (PTSD) Diagnosed in Family Members After Withholding and Withdrawing Life-sustaining Therapies in the Intensive Care Unit</t>
-  </si>
-  <si>
     <t>Conformity Measurement Assessment of a Diagnostic Medical Device Used for the Measurement of the INR (International Normalized Ratio)</t>
   </si>
   <si>
     <t>The Proposed Study is to Validate a New Non-invasive Imaging Technique for Evaluation of Cardiac Microciculation in Coronary Artery Disease With a Comparison With Validated Technique Invasive, Which is Measure of Index of Myocardial Resistance</t>
   </si>
   <si>
-    <t>Physiological Constraints Associated With Trail Running</t>
-  </si>
-  <si>
     <t>Positive Communication Within Healthcare Team and Clinical Performance: a Prospective, Randomised and Controlled Simulation Trial.</t>
   </si>
   <si>
-    <t>Longitudinal Study by 2D-speckle-tracking Echocardiography of the Ventricular Wall Motion During Postnatal Adaptation</t>
-  </si>
-  <si>
-    <t>Benefit of Prophylactic Embolization of the Splenic Salvage in Trauma Patients at High Risk of Splenectomy.</t>
-  </si>
-  <si>
-    <t>Non-automatic Control of Gait and Posture in Obstructive Sleep Apnea Syndrome : a Randomised Controlled Trial of Continuous Positive Airway Pressure Effectiveness (CIH - Gait)</t>
-  </si>
-  <si>
-    <t>Brain During Effort : Effects of Hypoxia With Respiratory Patients</t>
-  </si>
-  <si>
-    <t>Randomized Controlled Trial Comparing the Metabolic Efficiency of Allogeneic Pancreatic Islet Transplantation to Intensive Insulin Therapy for the Treatment of Type 1 Diabetes</t>
-  </si>
-  <si>
-    <t>Safety of Intranasal Fentanyl (PecFent®) in the Treatment of Procedural Pain in the Elderly With or Without Background Treatment.</t>
-  </si>
-  <si>
-    <t>Prophylactic Non-invasive Ventilation During Surgical Procedure in Rhythmology</t>
+    <t>Medico-economic Evaluation of a "IsereADOM" Package of Services Versus Conventional Health and Social Monitoring, in the Care of a Population of People With Heart Failure in Isère.</t>
+  </si>
+  <si>
+    <t>Respiratory Muscle Training in Patients With Cystic Fibrosis</t>
+  </si>
+  <si>
+    <t>Identification of Transient Receptor Potential (TRP) Channels as New Potential Therapeutic Targets in Primary and Secondary Raynaud's Phenomenon.</t>
+  </si>
+  <si>
+    <t>Medico-economic Assessment of a "IsereADOM" Package of Services Versus Conventional Monitoring in the Care of a Population of Frail Elderly People With Loss of Autonomy.</t>
+  </si>
+  <si>
+    <t>Therapeutic Iontophoresis of Treprostinil in Systemic Sclerosis Digital UlcErations. A Proof of Concept Study</t>
+  </si>
+  <si>
+    <t>Evaluation of a Treadmill Workstation in an Emergency Dispatch Center. A Randomized Controlled Trial.</t>
+  </si>
+  <si>
+    <t>Etude Clinique de Phase I de Radiosensibilisation de métastases cérébrales Par Nanoparticules de Gadolinium</t>
+  </si>
+  <si>
+    <t>Validation of Optical Transcutaneous Sensors to Measure Capnia and Tissue Oxygenation</t>
+  </si>
+  <si>
+    <t>"Cook to Health 2" : Monitoring Wellbeing and Health in the Community</t>
   </si>
   <si>
     <t>Impact of the Type of Interface in Neuromuscular Patients Treated With Nocturnal Noninvasive Ventilation: a Randomized Crossover Trial</t>
   </si>
   <si>
-    <t>Validation of Optical Transcutaneous Sensors to Measure Capnia and Tissue Oxygenation</t>
-  </si>
-  <si>
-    <t>"Cook to Health 2" : Monitoring Wellbeing and Health in the Community</t>
+    <t>Impact of Polyethylene Terephthalate Micronet Mesh-Covered Stent (MGuard) on Coronary Microcirculation's Lesions in Patients With ST or Non ST-segment Elevation Myocardial Infarction (STE and NSTE-ACS): Assessment by Index of Microcirculatory Resistance (IMR)</t>
   </si>
   <si>
     <t>Detection of Pulmonary Nodules: Comparison of Ultra-low-dose Chest CT (Approaching a Two Views Chest X-ray Radiation) and Standard Low Dose CT. A Monocentric, Prospective, Non-randomized, Comparative, Open-label Study With Blind Reading of the Judgment Criteria.</t>
   </si>
   <si>
-    <t>Medico-economic Evaluation of a "IsereADOM" Package of Services Versus Conventional Health and Social Monitoring, in the Care of a Population of People With Heart Failure in Isère.</t>
-  </si>
-  <si>
-    <t>Impact of Polyethylene Terephthalate Micronet Mesh-Covered Stent (MGuard) on Coronary Microcirculation's Lesions in Patients With ST or Non ST-segment Elevation Myocardial Infarction (STE and NSTE-ACS): Assessment by Index of Microcirculatory Resistance (IMR)</t>
-  </si>
-  <si>
-    <t>Respiratory Muscle Training in Patients With Cystic Fibrosis</t>
-  </si>
-  <si>
-    <t>Medico-economic Assessment of a "IsereADOM" Package of Services Versus Conventional Monitoring in the Care of a Population of Frail Elderly People With Loss of Autonomy.</t>
-  </si>
-  <si>
-    <t>Etude Clinique de Phase I de Radiosensibilisation de métastases cérébrales Par Nanoparticules de Gadolinium</t>
-  </si>
-  <si>
     <t>Investigating the Effect of Nasal High Flow Oxygen Therapy on Regional Lung Function</t>
   </si>
   <si>
-    <t>Evaluation of a Treadmill Workstation in an Emergency Dispatch Center. A Randomized Controlled Trial.</t>
-  </si>
-  <si>
     <t>Prognosis Assessment of the Increase of GADD34 Gene Expression for Patient Suffering From Systemic Lupus Erythematosus</t>
   </si>
   <si>
-    <t>Identification of Transient Receptor Potential (TRP) Channels as New Potential Therapeutic Targets in Primary and Secondary Raynaud's Phenomenon.</t>
-  </si>
-  <si>
-    <t>Therapeutic Iontophoresis of Treprostinil in Systemic Sclerosis Digital UlcErations. A Proof of Concept Study</t>
-  </si>
-  <si>
     <t>Prediction of Adalimumab Treatment Response at 6 Months by Combinatorial Analysis of Serum Biomarkers in Biotherapy Naive Spondyloarthritis: Pilot Study</t>
   </si>
   <si>
+    <t>Study on Fluids Associated to Lung Cancer, of the Ectopic Expression of Cancer Testis Gene and Mutation as Diagnostics and Prognosis Biomarkers</t>
+  </si>
+  <si>
+    <t>Non-invasive Device for the Screening and Diagnosis of Sleep Apnea Syndrome</t>
+  </si>
+  <si>
+    <t>Early Percutaneous Vertebroplasty Versus Standard Conservative Treatment in Thoracolumbar Vertebral Fractures. Monocentric, Prospective, Randomised and Compared Clinical Study</t>
+  </si>
+  <si>
+    <t>MagnetoEncephaloGraphy Study of Cerebral Activations Induced by Psychomotor Tasks for Target Localisation in View of BCI Clinical Trial</t>
+  </si>
+  <si>
+    <t>Impact of Interictal Electroencephalographic Abnormalities on the Stability of Attention in the Epilepsies in Adults and Children</t>
+  </si>
+  <si>
     <t>Randomised Double-blind Evaluation of the Prophylactic Efficacy of Transcranial Direct Current Stimulation (tDCS) in Chronic Migraine</t>
   </si>
   <si>
     <t>Impact of Pollution on Allergic Rhinitis and Sleep Quality: the POLLAR Study</t>
   </si>
   <si>
-    <t>MagnetoEncephaloGraphy Study of Cerebral Activations Induced by Psychomotor Tasks for Target Localisation in View of BCI Clinical Trial</t>
-  </si>
-  <si>
-    <t>Impact of Interictal Electroencephalographic Abnormalities on the Stability of Attention in the Epilepsies in Adults and Children</t>
-  </si>
-  <si>
-    <t>Non-invasive Device for the Screening and Diagnosis of Sleep Apnea Syndrome</t>
-  </si>
-  <si>
-    <t>Study on Fluids Associated to Lung Cancer, of the Ectopic Expression of Cancer Testis Gene and Mutation as Diagnostics and Prognosis Biomarkers</t>
-  </si>
-  <si>
-    <t>Early Percutaneous Vertebroplasty Versus Standard Conservative Treatment in Thoracolumbar Vertebral Fractures. Monocentric, Prospective, Randomised and Compared Clinical Study</t>
-  </si>
-  <si>
     <t>Evaluation of the Correlation Between the Respiratory Index Events Generated by Sunrise® Versus Polysomnography for Sleep Apnea Syndrome Diagnosis</t>
   </si>
   <si>
-    <t>Clinical and Medico-economical Assessment of Deep Brain Stimulation of the Anterior Nucleus of the Thalamus for the Treatment of Pharmacoresistant Partial Epilepsy</t>
+    <t>Suprapubic Versus Transurethral Catheterization After Rectal Resection With Low Anastomosis for Cancer in Males</t>
+  </si>
+  <si>
+    <t>The Role of the Upper Colliculus in the Idiopathic Blepharospasm : a Pilot Study in Functional MRI</t>
   </si>
   <si>
     <t>Impact of a Curriculum About Professionalism on Stress Response During a Critical Situation</t>
+  </si>
+  <si>
+    <t>Adjustment Exploratory Protocols (MagnetoEncephaloGraphy Study : MEG, ElectroEncephaloGram : EEG, Magnetic Resonance Imaging : MRI, Functional MRI : MRIf, Motor Platform) and Functional Evaluation of New Non Invasive Devices (REX BIONICS Exoskeleton) in Healthy Volunteers</t>
+  </si>
+  <si>
+    <t>Study of Eye Movements as Markers of the Physiological, Cerebral and Cognitive State of Healthy Subjects</t>
   </si>
   <si>
     <t>NA 
  Impact de l’administration précoce de concentrés de complexe prothrombique chez les patients présentant une hémorragie post-traumatique grave</t>
   </si>
   <si>
-    <t>Study of Eye Movements as Markers of the Physiological, Cerebral and Cognitive State of Healthy Subjects</t>
-  </si>
-  <si>
     <t>Clinical and Medico-economic Evaluation of a Rapid Test (ePlex-BCID®, GenMark) for the Diagnosis of Bacteremia or Fungemia From Positive Blood Culture Bottles, Combining Fast Identification of Bacteria and Fungi and Evaluation of Bacterial Resistance to First Line Antibiotics.</t>
   </si>
   <si>
+    <t>Study of Somatosensory Responses During Millimeter Waves Application (RESOM)</t>
+  </si>
+  <si>
+    <t>Ropivacaine Through Continuous Infusion Versus Epidural Morphine for Postoperative Analgesia After Emergency Cesarean Section</t>
+  </si>
+  <si>
+    <t>Clinical and Medico-economical Assessment of Deep Brain Stimulation of the Anterior Nucleus of the Thalamus for the Treatment of Pharmacoresistant Partial Epilepsy</t>
+  </si>
+  <si>
+    <t>Somesthesic Role of the Ventro-lateral Prefrontal Cortex in Speech Motor Learning fMRI Study</t>
+  </si>
+  <si>
+    <t>Brain Correlates of Visual Processing of Emotional Scenes in ACTion and EMOtional Judgments During Normal VIeillissement</t>
+  </si>
+  <si>
+    <t>Attentional Capture by Emotional Information in Alzheimer's Disease : an fMRI Study</t>
+  </si>
+  <si>
+    <t>Physiological Changes Exploration During the Hypnotic State (HYPNOTE)</t>
+  </si>
+  <si>
+    <t>The Effect of NO Precursors on Physiological Responses to Exercise</t>
+  </si>
+  <si>
+    <t>Spatial and Dynamic Characterization of Brain Activity for Language and Posture (Verticality) During Normal Aging. Magnetoencephalography (MEG) Study (MEG-AGING)</t>
+  </si>
+  <si>
+    <t>Development of MRI Protocols and Associated Explorations (EEG, NIRS) in Healthy Volunteers</t>
+  </si>
+  <si>
+    <t>Adjustment Exploratory Protocols (MagnetoEncephaloGraphy Study : MEG, ElectroEncephaloGram : EEG, Magnetic Resonance Imaging : MRI, Functional MRI : MRIf, Motor Platform) and Functional Evaluation of New Non Invasive Devices (REX BIONICS Exoskeleton) in Patient Volunteers</t>
+  </si>
+  <si>
     <t>Abdominal Massage to Prevent Postoperative Ileus as Part of an Enhanced Recovery Program After Colorectal Surgery</t>
   </si>
   <si>
-    <t>Adjustment Exploratory Protocols (MagnetoEncephaloGraphy Study : MEG, ElectroEncephaloGram : EEG, Magnetic Resonance Imaging : MRI, Functional MRI : MRIf, Motor Platform) and Functional Evaluation of New Non Invasive Devices (REX BIONICS Exoskeleton) in Healthy Volunteers</t>
-  </si>
-  <si>
-    <t>The Role of the Upper Colliculus in the Idiopathic Blepharospasm : a Pilot Study in Functional MRI</t>
-  </si>
-  <si>
-    <t>The Effect of NO Precursors on Physiological Responses to Exercise</t>
+    <t>Virtual Reality for Preoperative Anxiety in Interventional Cardiology</t>
+  </si>
+  <si>
+    <t>Development of MRI Protocols and Associated Explorations (EEG, NIRS) in Voluntary Patients</t>
   </si>
   <si>
     <t>Effectiveness of a Multifaceted Program to Improve Interpersonal Skills of Physicians in Medical Consultations. A Randomized Controlled Trial (EPECREM)</t>
   </si>
   <si>
-    <t>Adjustment Exploratory Protocols (MagnetoEncephaloGraphy Study : MEG, ElectroEncephaloGram : EEG, Magnetic Resonance Imaging : MRI, Functional MRI : MRIf, Motor Platform) and Functional Evaluation of New Non Invasive Devices (REX BIONICS Exoskeleton) in Patient Volunteers</t>
-  </si>
-  <si>
-    <t>Brain Correlates of Visual Processing of Emotional Scenes in ACTion and EMOtional Judgments During Normal VIeillissement</t>
-  </si>
-  <si>
-    <t>Suprapubic Versus Transurethral Catheterization After Rectal Resection With Low Anastomosis for Cancer in Males</t>
-  </si>
-  <si>
-    <t>Ropivacaine Through Continuous Infusion Versus Epidural Morphine for Postoperative Analgesia After Emergency Cesarean Section</t>
-  </si>
-  <si>
-    <t>Somesthesic Role of the Ventro-lateral Prefrontal Cortex in Speech Motor Learning fMRI Study</t>
-  </si>
-  <si>
-    <t>Virtual Reality for Preoperative Anxiety in Interventional Cardiology</t>
-  </si>
-  <si>
-    <t>Attentional Capture by Emotional Information in Alzheimer's Disease : an fMRI Study</t>
-  </si>
-  <si>
-    <t>Physiological Changes Exploration During the Hypnotic State (HYPNOTE)</t>
-  </si>
-  <si>
-    <t>Development of MRI Protocols and Associated Explorations (EEG, NIRS) in Voluntary Patients</t>
-  </si>
-  <si>
-    <t>Spatial and Dynamic Characterization of Brain Activity for Language and Posture (Verticality) During Normal Aging. Magnetoencephalography (MEG) Study (MEG-AGING)</t>
-  </si>
-  <si>
-    <t>Study of Somatosensory Responses During Millimeter Waves Application (RESOM)</t>
-  </si>
-  <si>
-    <t>Development of MRI Protocols and Associated Explorations (EEG, NIRS) in Healthy Volunteers</t>
+    <t>Learning Mental Visualization to Improve Performance in Anesthesia: a Randomized Controlled Trial by Simulation</t>
+  </si>
+  <si>
+    <t>Comparison of the Analgesic Effect Between the Motor Cortex Stimulation (tDCS and rTMS) and the Trans-spinal Stimulation (tsDCS ) in the Algoneurodystrophy of Members. A Randomised Clinical Trial. tDCS : Transcranial Direct-current Stimulation rTMS : Repetitive Transcranial Magnetic Stimulation tsDCS : Transcutaneous Spinal Direct Current Stimulation</t>
+  </si>
+  <si>
+    <t>Impact of Early Administration of Prothrombin Concentrate Complex in Patients With Acute Hemorrhage Following Severe Trauma</t>
+  </si>
+  <si>
+    <t>Effect of Prone Position on Renal Resistive Index Among Patients With Acute Respiratory Distress Syndrome. The Role of Intra-abdominal Pressure</t>
+  </si>
+  <si>
+    <t>Detection of Early Swallowing Time by Electromyogram and Sound Recording in Healthy Volunteers. Single-center, Prospective, Not-controlled, Not-randomized, Open-label Study.</t>
+  </si>
+  <si>
+    <t>Multifaceted Intervention for Increasing Performance of Cardiopulmonary Resuscitation by Laypersons in Out-of-hospital Cardiac Arrest. A Stepped Wedge Cluster Randomized Controlled Trial</t>
+  </si>
+  <si>
+    <t>Performance of Non-targeted and/or Non-invasive Respiratory Samples for the Rapid Diagnosis of Pneumocystis Pneumonia Using the BDMAX TM Molecular Biology Platform (Becton Dickinson)</t>
+  </si>
+  <si>
+    <t>Approche représentationnelle de l'Hippocampe Dans la Cognition : Étude en IRMf</t>
+  </si>
+  <si>
+    <t>Innovative Device for Pain Management by Millimeter Band Radiation : Electronic-Pain Killer. Evaluation in Patients With Peripheral Osteoarthritis: A Single Center, Prospective, Randomized in Cross-over, Comparative and Open-label Study</t>
+  </si>
+  <si>
+    <t>Vacuum Device for Hemostasis in Obstetrics and Gynecology. Feasibility Study for Postpartum Hemorrhage</t>
+  </si>
+  <si>
+    <t>Decrease in Sympathetic Tone in OSA Patients: Is CPAP More Effective Than APAP ?</t>
+  </si>
+  <si>
+    <t>Preliminary Validation of the Demonstrator of an In Vitro Diagnostic Device for Hepatitis B Screening</t>
   </si>
   <si>
     <t>Impact of Early Optimization of Brain Oxygenation on Neurological Outcome After Severe Traumatic Brain Injury</t>
   </si>
   <si>
-    <t>Approche représentationnelle de l'Hippocampe Dans la Cognition : Étude en IRMf</t>
-  </si>
-  <si>
-    <t>Decrease in Sympathetic Tone in OSA Patients: Is CPAP More Effective Than APAP ?</t>
-  </si>
-  <si>
-    <t>Impact of Early Administration of Prothrombin Concentrate Complex in Patients With Acute Hemorrhage Following Severe Trauma</t>
-  </si>
-  <si>
-    <t>Learning Mental Visualization to Improve Performance in Anesthesia: a Randomized Controlled Trial by Simulation</t>
-  </si>
-  <si>
-    <t>Performance of Non-targeted and/or Non-invasive Respiratory Samples for the Rapid Diagnosis of Pneumocystis Pneumonia Using the BDMAX TM Molecular Biology Platform (Becton Dickinson)</t>
-  </si>
-  <si>
-    <t>Comparison of the Analgesic Effect Between the Motor Cortex Stimulation (tDCS and rTMS) and the Trans-spinal Stimulation (tsDCS ) in the Algoneurodystrophy of Members. A Randomised Clinical Trial. tDCS : Transcranial Direct-current Stimulation rTMS : Repetitive Transcranial Magnetic Stimulation tsDCS : Transcutaneous Spinal Direct Current Stimulation</t>
-  </si>
-  <si>
-    <t>Preliminary Validation of the Demonstrator of an In Vitro Diagnostic Device for Hepatitis B Screening</t>
-  </si>
-  <si>
     <t>Analyse de la Marche de Patients Atteints de Dystonie Focale Avant et après Traitement Par Toxine Botulique</t>
   </si>
   <si>
-    <t>Vacuum Device for Hemostasis in Obstetrics and Gynecology. Feasibility Study for Postpartum Hemorrhage</t>
-  </si>
-  <si>
-    <t>Innovative Device for Pain Management by Millimeter Band Radiation : Electronic-Pain Killer. Evaluation in Patients With Peripheral Osteoarthritis: A Single Center, Prospective, Randomized in Cross-over, Comparative and Open-label Study</t>
-  </si>
-  <si>
-    <t>Detection of Early Swallowing Time by Electromyogram and Sound Recording in Healthy Volunteers. Single-center, Prospective, Not-controlled, Not-randomized, Open-label Study.</t>
-  </si>
-  <si>
     <t>Head-up Position, Active Compression-decompression Mechanical Cardiopulmonary Resuscitation and Impedance Threshold Device to Improve Outcomes in Out-of-hospital Cardiac Arrest. A Multicenter Prospective Controlled Quasi-experimental Trial</t>
   </si>
   <si>
-    <t>Multifaceted Intervention for Increasing Performance of Cardiopulmonary Resuscitation by Laypersons in Out-of-hospital Cardiac Arrest. A Stepped Wedge Cluster Randomized Controlled Trial</t>
-  </si>
-  <si>
     <t>Hydrogen Inhalation Therapy in Patients With Moderate Covid-19: Phase-1 Clinical Trial</t>
   </si>
   <si>
     <t>Upper AIRway Implanted Nerve STIMulation Therapy: A Breakthrough in Obstructive Sleep Apnea Therapy</t>
   </si>
   <si>
+    <t>Feasibility and Clinical Impact Study of Non Pharmacological Interventions Targeting the Subject's Empowerment Among Slackline, Mindfulness, Adapted Physical Activity, Self-hypnosis, Qi Gong Versus Usual Care in Management of Chronic Pain</t>
+  </si>
+  <si>
+    <t>Comparison of Pelvimetric Measurements Between MRI and Low-dose Stereoradiography (EOS® Imaging System)</t>
+  </si>
+  <si>
+    <t>Spinal Cord Stimulation for Gait Disorders in Parkinson's Disease: a Pilot Study</t>
+  </si>
+  <si>
     <t>Feasibility Study of an Innovative Medical Device for Sampling the Contents of the Small Intestine. Functional Evaluation on the Transit of Healthy Volunteers. A First in Man, Prospective, Monocentric, Not Randomized Study.</t>
   </si>
   <si>
+    <t>Aged European Population QUality of Life in Infectious Diseases</t>
+  </si>
+  <si>
+    <t>EXADOM: Early Supported Discharge and Enhanced Homecare After Emergency Department Admission for Acute Exacerbation of Chronic Obstructive Pulmonary Disease</t>
+  </si>
+  <si>
     <t>Skin Preparation of Patients Before Orthopedic Surgery : A Randomized Controlled Study on the Efficacy of Chlorhexidine Cloths Versus Chlorhexidine Soaps</t>
   </si>
   <si>
-    <t>Feasibility and Clinical Impact Study of Non Pharmacological Interventions Targeting the Subject's Empowerment Among Slackline, Mindfulness, Adapted Physical Activity, Self-hypnosis, Qi Gong Versus Usual Care in Management of Chronic Pain</t>
-  </si>
-  <si>
-    <t>Spinal Cord Stimulation for Gait Disorders in Parkinson's Disease: a Pilot Study</t>
-  </si>
-  <si>
     <t>French Validation Study of a New Scale for Neuropsychiatric Fluctuations in Parkinson Disease</t>
   </si>
   <si>
-    <t>Aged European Population QUality of Life in Infectious Diseases</t>
-  </si>
-  <si>
-    <t>EXADOM: Early Supported Discharge and Enhanced Homecare After Emergency Department Admission for Acute Exacerbation of Chronic Obstructive Pulmonary Disease</t>
-  </si>
-  <si>
-    <t>Comparison of Pelvimetric Measurements Between MRI and Low-dose Stereoradiography (EOS® Imaging System)</t>
-  </si>
-  <si>
-    <t>Study of Multi-site Neuromuscular Electrical Stimulation to Increase Spontaneous Physical Activity in Obesity Patient Carrying Severe Inactive: Randomized Controlled Trial vs Placebo</t>
+    <t>Study of Neurophysiological Correlates of the Link Between Perception and Action Through Varied Protocols of Sensorimotor Studies</t>
+  </si>
+  <si>
+    <t>Phase II Trial Evaluating Low-dose Deferasirox (DFX) in Patients With Low-risk (MDS) Myelodysplastic Syndrome Resistant or Relapsing After ESA Agents (LODEFI)</t>
   </si>
   <si>
     <t>Randomized Controlled Study Evaluating The Contribution of a Hypnosis Intervention During a Lumbar Puncture in the Neurology Department.</t>
-  </si>
-  <si>
-    <t>Phase II Trial Evaluating Low-dose Deferasirox (DFX) in Patients With Low-risk (MDS) Myelodysplastic Syndrome Resistant or Relapsing After ESA Agents (LODEFI)</t>
-  </si>
-  <si>
-    <t>Impact of Transcutaneous Auricular Vagus Nerve Stimulation on Digestive Symptoms in Systemic Sclerosis</t>
-  </si>
-  <si>
-    <t>Efficacy Study of a Selective Chest Wall Restriction Belt in Postoperative of Lung Resection. A Multicenter, Prospective, Controlled, Randomized Study With Stratification on the Surgical Approach, Open With a Blind Analysis</t>
   </si>
   <si>
     <t>Radiotherapy of multiple brain metastases using AGuIX® gadolinium-chelated polysiloxane based nanoparticles: a prospective randomized phase II clinical trial. 
  Traitement de métastases cérébrales multiples par Radiothérapie et nanoparticule de gadolinium, AGuiX® : étude prospective randomisée de phase II.</t>
   </si>
   <si>
+    <t>Evaluation D'une Application D'éducation Thérapeutique Dans La Prise En Charge De Jeunes Ayant Un Usage Modéré Ou Problématique Des Écrans</t>
+  </si>
+  <si>
+    <t>Study of Multi-site Neuromuscular Electrical Stimulation to Increase Spontaneous Physical Activity in Obesity Patient Carrying Severe Inactive: Randomized Controlled Trial vs Placebo</t>
+  </si>
+  <si>
     <t>Accelerated Nursing Branch for the Diagnosis and Treatment of Ankle and Foot Injuries in Emergency Department: Preliminary Pilot Study</t>
   </si>
   <si>
-    <t>Evaluation D'une Application D'éducation Thérapeutique Dans La Prise En Charge De Jeunes Ayant Un Usage Modéré Ou Problématique Des Écrans</t>
-  </si>
-  <si>
-    <t>Study of Neurophysiological Correlates of the Link Between Perception and Action Through Varied Protocols of Sensorimotor Studies</t>
+    <t>Efficacy Study of a Selective Chest Wall Restriction Belt in Postoperative of Lung Resection. A Multicenter, Prospective, Controlled, Randomized Study With Stratification on the Surgical Approach, Open With a Blind Analysis</t>
+  </si>
+  <si>
+    <t>Impact of Transcutaneous Auricular Vagus Nerve Stimulation on Digestive Symptoms in Systemic Sclerosis</t>
   </si>
   <si>
     <t>Evaluation of the Implementation of a Clinical Pathway for Improving the Performance of Medical and Surgical Management of Hip Prosthesis Infections</t>
   </si>
   <si>
+    <t>DRESSING</t>
+  </si>
+  <si>
     <t>AlimIntest</t>
   </si>
   <si>
     <t>LTP</t>
   </si>
   <si>
-    <t>DRESSING</t>
-  </si>
-  <si>
     <t>DIMUVA</t>
   </si>
   <si>
+    <t>EPOetCEC</t>
+  </si>
+  <si>
+    <t>VALSAS</t>
+  </si>
+  <si>
     <t>CARDEAN-2</t>
   </si>
   <si>
-    <t>VALSAS</t>
-  </si>
-  <si>
-    <t>EPOetCEC</t>
+    <t>TELFIT</t>
+  </si>
+  <si>
+    <t>hydrocortisone après etomidate</t>
   </si>
   <si>
     <t>PRIOD</t>
   </si>
   <si>
-    <t>TELFIT</t>
-  </si>
-  <si>
     <t>ANXIHOMEV</t>
   </si>
   <si>
+    <t>REVNEWANTICO</t>
+  </si>
+  <si>
     <t>INFLUX-IT-VS</t>
   </si>
   <si>
+    <t>INFLUX-VS</t>
+  </si>
+  <si>
+    <t>DRESSING2</t>
+  </si>
+  <si>
     <t>CERVOX</t>
   </si>
   <si>
-    <t>INFLUX-VS</t>
-  </si>
-  <si>
-    <t>REVNEWANTICO</t>
+    <t>PIL</t>
   </si>
   <si>
     <t>VAPRED</t>
   </si>
   <si>
-    <t>DRESSING2</t>
-  </si>
-  <si>
-    <t>PIL</t>
+    <t>HITUPPAC-BIO</t>
+  </si>
+  <si>
+    <t>EETY</t>
+  </si>
+  <si>
+    <t>BOSAS</t>
+  </si>
+  <si>
+    <t>FLOWERS</t>
+  </si>
+  <si>
+    <t>VENTILOBE</t>
+  </si>
+  <si>
+    <t>EXAOS</t>
+  </si>
+  <si>
+    <t>SENSITEST</t>
+  </si>
+  <si>
+    <t>ICUP</t>
   </si>
   <si>
     <t>DOLOREAPEDIA</t>
   </si>
   <si>
-    <t>HITUPPAC-BIO</t>
-  </si>
-  <si>
-    <t>ICUP</t>
-  </si>
-  <si>
-    <t>VENTILOBE</t>
-  </si>
-  <si>
-    <t>FLOWERS</t>
-  </si>
-  <si>
-    <t>EXAOS</t>
-  </si>
-  <si>
-    <t>BOSAS</t>
-  </si>
-  <si>
-    <t>EETY</t>
-  </si>
-  <si>
-    <t>SENSITEST</t>
+    <t>EVA_SOURD</t>
   </si>
   <si>
     <t>BIP-ED</t>
   </si>
   <si>
+    <t>EMOTION</t>
+  </si>
+  <si>
+    <t>DIAB-MMP2</t>
+  </si>
+  <si>
     <t>ADVANCED</t>
   </si>
   <si>
     <t>CaPAS</t>
   </si>
   <si>
-    <t>EMOTION</t>
-  </si>
-  <si>
-    <t>EVA_SOURD</t>
-  </si>
-  <si>
-    <t>DIAB-MMP2</t>
+    <t>ALTIPERF</t>
+  </si>
+  <si>
+    <t>HEMOPTIC</t>
+  </si>
+  <si>
+    <t>LISYCOM</t>
+  </si>
+  <si>
+    <t>ETHAP</t>
+  </si>
+  <si>
+    <t>FIBRECHO</t>
+  </si>
+  <si>
+    <t>CT-TAVI</t>
+  </si>
+  <si>
+    <t>RHOOSAS</t>
+  </si>
+  <si>
+    <t>ARTEX</t>
+  </si>
+  <si>
+    <t>Echomuscle</t>
+  </si>
+  <si>
+    <t>PIO laser SPNP</t>
+  </si>
+  <si>
+    <t>TALOS</t>
   </si>
   <si>
     <t>PConscience</t>
   </si>
   <si>
-    <t>ALTIPERF</t>
-  </si>
-  <si>
-    <t>TALOS</t>
-  </si>
-  <si>
-    <t>PIO laser SPNP</t>
-  </si>
-  <si>
-    <t>FIBRECHO</t>
-  </si>
-  <si>
-    <t>HEMOPTIC</t>
-  </si>
-  <si>
-    <t>RHOOSAS</t>
-  </si>
-  <si>
-    <t>CT-TAVI</t>
-  </si>
-  <si>
-    <t>LISYCOM</t>
-  </si>
-  <si>
-    <t>ETHAP</t>
-  </si>
-  <si>
-    <t>Echomuscle</t>
-  </si>
-  <si>
-    <t>ARTEX</t>
-  </si>
-  <si>
     <t>VVC and GPS</t>
   </si>
   <si>
+    <t>ACR</t>
+  </si>
+  <si>
+    <t>EMPIRICUS</t>
+  </si>
+  <si>
+    <t>LPRobacus</t>
+  </si>
+  <si>
     <t>PEACE</t>
   </si>
   <si>
+    <t>AIRPEDIA</t>
+  </si>
+  <si>
+    <t>PIO-WDT</t>
+  </si>
+  <si>
+    <t>PUPILLO REA</t>
+  </si>
+  <si>
+    <t>PROFIL</t>
+  </si>
+  <si>
+    <t>SPECIES</t>
+  </si>
+  <si>
     <t>Dual-Task</t>
   </si>
   <si>
-    <t>LPRobacus</t>
-  </si>
-  <si>
-    <t>ACR</t>
-  </si>
-  <si>
-    <t>PIO-WDT</t>
-  </si>
-  <si>
-    <t>PUPILLO REA</t>
-  </si>
-  <si>
-    <t>SPECIES</t>
-  </si>
-  <si>
-    <t>AIRPEDIA</t>
+    <t>DIADEME</t>
   </si>
   <si>
     <t>STIMALGI</t>
   </si>
   <si>
+    <t>CameraCZT</t>
+  </si>
+  <si>
     <t>Echo-TC</t>
   </si>
   <si>
-    <t>DIADEME</t>
-  </si>
-  <si>
-    <t>PROFIL</t>
-  </si>
-  <si>
-    <t>CameraCZT</t>
-  </si>
-  <si>
-    <t>EMPIRICUS</t>
+    <t>PLASMODY</t>
+  </si>
+  <si>
+    <t>PATCHSANTESpO2</t>
+  </si>
+  <si>
+    <t>ACROSAS</t>
+  </si>
+  <si>
+    <t>BRONDUSAL</t>
   </si>
   <si>
     <t>AIRLESS</t>
   </si>
   <si>
+    <t>TéAGS</t>
+  </si>
+  <si>
     <t>ALGOFINE-2</t>
   </si>
   <si>
-    <t>ACROSAS</t>
-  </si>
-  <si>
-    <t>BRONDUSAL</t>
-  </si>
-  <si>
-    <t>PLASMODY</t>
+    <t>Sclerocadh1</t>
+  </si>
+  <si>
+    <t>PAC-IC-SAOS</t>
+  </si>
+  <si>
+    <t>BIOLUVE</t>
+  </si>
+  <si>
+    <t>SCENES</t>
   </si>
   <si>
     <t>BIPPED</t>
   </si>
   <si>
+    <t>CBF et PAVMt</t>
+  </si>
+  <si>
     <t>RC-TMS</t>
   </si>
   <si>
-    <t>PAC-IC-SAOS</t>
-  </si>
-  <si>
-    <t>CBF et PAVMt</t>
-  </si>
-  <si>
-    <t>BIOLUVE</t>
-  </si>
-  <si>
-    <t>PATCHSANTESpO2</t>
-  </si>
-  <si>
-    <t>TéAGS</t>
-  </si>
-  <si>
-    <t>Sclerocadh1</t>
-  </si>
-  <si>
-    <t>SCENES</t>
-  </si>
-  <si>
     <t>ALPPHY</t>
   </si>
   <si>
+    <t>RHEOMUCO</t>
+  </si>
+  <si>
+    <t>AUTONOM@DOM</t>
+  </si>
+  <si>
+    <t>Rementips</t>
+  </si>
+  <si>
+    <t>KETADEP</t>
+  </si>
+  <si>
+    <t>GeniusVac-Mel4</t>
+  </si>
+  <si>
+    <t>ISDETSEEG</t>
+  </si>
+  <si>
+    <t>SUCCESS</t>
+  </si>
+  <si>
+    <t>BETACTIV</t>
+  </si>
+  <si>
+    <t>VENDETTA</t>
+  </si>
+  <si>
+    <t>APAUTRES</t>
+  </si>
+  <si>
+    <t>MAPO-RCVQ</t>
+  </si>
+  <si>
+    <t>PHRC-Merkel</t>
+  </si>
+  <si>
+    <t>NEUROPHONE</t>
+  </si>
+  <si>
+    <t>ISIS</t>
+  </si>
+  <si>
     <t>FenTA</t>
   </si>
   <si>
-    <t>SUCCESS</t>
-  </si>
-  <si>
-    <t>AUTONOM@DOM</t>
-  </si>
-  <si>
-    <t>VENDETTA</t>
-  </si>
-  <si>
-    <t>APAUTRES</t>
-  </si>
-  <si>
-    <t>BETACTIV</t>
-  </si>
-  <si>
-    <t>KETADEP</t>
-  </si>
-  <si>
-    <t>RHEOMUCO</t>
+    <t>C2H</t>
   </si>
   <si>
     <t>OCT²EPH</t>
   </si>
   <si>
-    <t>MAPO-RCVQ</t>
-  </si>
-  <si>
-    <t>GeniusVac-Mel4</t>
-  </si>
-  <si>
-    <t>C2H</t>
-  </si>
-  <si>
-    <t>ISDETSEEG</t>
-  </si>
-  <si>
-    <t>NEUROPHONE</t>
-  </si>
-  <si>
-    <t>PHRC-Merkel</t>
-  </si>
-  <si>
-    <t>ISIS</t>
-  </si>
-  <si>
-    <t>Rementips</t>
+    <t>VNI-RYTHMO</t>
+  </si>
+  <si>
+    <t>UT4M2018</t>
+  </si>
+  <si>
+    <t>BABYSTRAIN</t>
+  </si>
+  <si>
+    <t>TRIMECO</t>
+  </si>
+  <si>
+    <t>PRESA</t>
+  </si>
+  <si>
+    <t>NEUROX</t>
+  </si>
+  <si>
+    <t>CIH-Gait</t>
+  </si>
+  <si>
+    <t>LATA</t>
+  </si>
+  <si>
+    <t>Splash</t>
   </si>
   <si>
     <t>S4H</t>
   </si>
   <si>
+    <t>FENTA</t>
+  </si>
+  <si>
     <t>ST2-IPF</t>
   </si>
   <si>
-    <t>PRESA</t>
-  </si>
-  <si>
-    <t>LATA</t>
-  </si>
-  <si>
     <t>HEMOPTICS2</t>
   </si>
   <si>
     <t>EVACORY</t>
   </si>
   <si>
-    <t>UT4M2018</t>
-  </si>
-  <si>
     <t>ComPerf</t>
   </si>
   <si>
-    <t>BABYSTRAIN</t>
-  </si>
-  <si>
-    <t>Splash</t>
-  </si>
-  <si>
-    <t>CIH-Gait</t>
-  </si>
-  <si>
-    <t>NEUROX</t>
-  </si>
-  <si>
-    <t>TRIMECO</t>
-  </si>
-  <si>
-    <t>FENTA</t>
-  </si>
-  <si>
-    <t>VNI-RYTHMO</t>
+    <t>CardIC</t>
+  </si>
+  <si>
+    <t>MUCOMUREE</t>
+  </si>
+  <si>
+    <t>TRP</t>
+  </si>
+  <si>
+    <t>DBS V3</t>
+  </si>
+  <si>
+    <t>PARC</t>
+  </si>
+  <si>
+    <t>TISSUE-PoC</t>
+  </si>
+  <si>
+    <t>Marche_15</t>
+  </si>
+  <si>
+    <t>NANO-RAD</t>
+  </si>
+  <si>
+    <t>CTCO</t>
+  </si>
+  <si>
+    <t>C2H2</t>
   </si>
   <si>
     <t>InterfaceNMD</t>
   </si>
   <si>
-    <t>CTCO</t>
-  </si>
-  <si>
-    <t>C2H2</t>
+    <t>GUARDIANCORY</t>
   </si>
   <si>
     <t>npUBD</t>
@@ -1674,226 +1725,202 @@
     <t>EVARESERVE</t>
   </si>
   <si>
-    <t>CardIC</t>
-  </si>
-  <si>
-    <t>GUARDIANCORY</t>
-  </si>
-  <si>
-    <t>MUCOMUREE</t>
-  </si>
-  <si>
-    <t>PARC</t>
-  </si>
-  <si>
-    <t>NANO-RAD</t>
-  </si>
-  <si>
     <t>INVENT</t>
   </si>
   <si>
-    <t>DBS V3</t>
-  </si>
-  <si>
-    <t>Marche_15</t>
-  </si>
-  <si>
     <t>GADD34-LES</t>
   </si>
   <si>
-    <t>TRP</t>
-  </si>
-  <si>
-    <t>TISSUE-PoC</t>
-  </si>
-  <si>
     <t>PRESHUM</t>
   </si>
   <si>
+    <t>ECTOPIC/MUTAS</t>
+  </si>
+  <si>
+    <t>Episas</t>
+  </si>
+  <si>
+    <t>AGIL11</t>
+  </si>
+  <si>
+    <t>TAPFINGER</t>
+  </si>
+  <si>
+    <t>COGNIT-AIC</t>
+  </si>
+  <si>
     <t>Medis</t>
   </si>
   <si>
     <t>POLLAR</t>
   </si>
   <si>
-    <t>TAPFINGER</t>
-  </si>
-  <si>
-    <t>COGNIT-AIC</t>
-  </si>
-  <si>
-    <t>Episas</t>
-  </si>
-  <si>
-    <t>ECTOPIC/MUTAS</t>
-  </si>
-  <si>
-    <t>AGIL11</t>
-  </si>
-  <si>
     <t>SENSAPNEA</t>
   </si>
   <si>
-    <t>FRANCE</t>
+    <t>GRECCAR10</t>
+  </si>
+  <si>
+    <t>COLL-BSP</t>
+  </si>
+  <si>
+    <t>MAP-EFNI</t>
+  </si>
+  <si>
+    <t>EyeProxy</t>
   </si>
   <si>
     <t>NA 
  PROCOAG</t>
   </si>
   <si>
-    <t>EyeProxy</t>
-  </si>
-  <si>
     <t>HEMOFAST</t>
   </si>
   <si>
+    <t>RESOM</t>
+  </si>
+  <si>
+    <t>ROMANCE</t>
+  </si>
+  <si>
+    <t>FRANCE</t>
+  </si>
+  <si>
+    <t>BRAVA²</t>
+  </si>
+  <si>
+    <t>ACTEMOVI</t>
+  </si>
+  <si>
+    <t>ATEMMA</t>
+  </si>
+  <si>
+    <t>HYPNOTE</t>
+  </si>
+  <si>
+    <t>NO-SUP</t>
+  </si>
+  <si>
+    <t>MEG-AGING</t>
+  </si>
+  <si>
+    <t>MAP-VS</t>
+  </si>
+  <si>
+    <t>MAP-EFNI PV</t>
+  </si>
+  <si>
     <t>MATRAC</t>
   </si>
   <si>
-    <t>MAP-EFNI</t>
-  </si>
-  <si>
-    <t>COLL-BSP</t>
-  </si>
-  <si>
-    <t>NO-SUP</t>
+    <t>No PANIC</t>
+  </si>
+  <si>
+    <t>MAP-PV</t>
   </si>
   <si>
     <t>EPECREM</t>
   </si>
   <si>
-    <t>MAP-EFNI PV</t>
-  </si>
-  <si>
-    <t>ACTEMOVI</t>
-  </si>
-  <si>
-    <t>GRECCAR10</t>
-  </si>
-  <si>
-    <t>ROMANCE</t>
-  </si>
-  <si>
-    <t>BRAVA²</t>
-  </si>
-  <si>
-    <t>No PANIC</t>
-  </si>
-  <si>
-    <t>ATEMMA</t>
-  </si>
-  <si>
-    <t>HYPNOTE</t>
-  </si>
-  <si>
-    <t>MAP-PV</t>
-  </si>
-  <si>
-    <t>MEG-AGING</t>
-  </si>
-  <si>
-    <t>RESOM</t>
-  </si>
-  <si>
-    <t>MAP-VS</t>
+    <t>ALGOSTIM</t>
+  </si>
+  <si>
+    <t>PROCOAG</t>
+  </si>
+  <si>
+    <t>PRO-KIDNEY</t>
+  </si>
+  <si>
+    <t>DEGLUTITION</t>
+  </si>
+  <si>
+    <t>DISPATCH</t>
+  </si>
+  <si>
+    <t>DANIPOP</t>
+  </si>
+  <si>
+    <t>SHIP</t>
+  </si>
+  <si>
+    <t>Epikarthrose</t>
+  </si>
+  <si>
+    <t>HEMOGYN2</t>
+  </si>
+  <si>
+    <t>APAP-CPAP</t>
+  </si>
+  <si>
+    <t>DiVHeB</t>
   </si>
   <si>
     <t>OXY-TC</t>
   </si>
   <si>
-    <t>SHIP</t>
-  </si>
-  <si>
-    <t>APAP-CPAP</t>
-  </si>
-  <si>
-    <t>PROCOAG</t>
-  </si>
-  <si>
-    <t>DANIPOP</t>
-  </si>
-  <si>
-    <t>ALGOSTIM</t>
-  </si>
-  <si>
-    <t>DiVHeB</t>
-  </si>
-  <si>
     <t>GAIT-TOX</t>
   </si>
   <si>
-    <t>HEMOGYN2</t>
-  </si>
-  <si>
-    <t>Epikarthrose</t>
-  </si>
-  <si>
-    <t>DEGLUTITION</t>
-  </si>
-  <si>
     <t>GRAVITY</t>
   </si>
   <si>
-    <t>DISPATCH</t>
-  </si>
-  <si>
     <t>H2Covid</t>
   </si>
   <si>
     <t>AIRSTIM</t>
   </si>
   <si>
+    <t>ELISAD</t>
+  </si>
+  <si>
+    <t>CAPEOS®</t>
+  </si>
+  <si>
+    <t>SCM-PARK</t>
+  </si>
+  <si>
     <t>DIGEST</t>
   </si>
   <si>
+    <t>AEQUI</t>
+  </si>
+  <si>
+    <t>EXADOM</t>
+  </si>
+  <si>
     <t>POL</t>
   </si>
   <si>
-    <t>ELISAD</t>
-  </si>
-  <si>
-    <t>SCM-PARK</t>
-  </si>
-  <si>
     <t>EFN-VALID</t>
   </si>
   <si>
-    <t>AEQUI</t>
-  </si>
-  <si>
-    <t>EXADOM</t>
-  </si>
-  <si>
-    <t>CAPEOS®</t>
+    <t>PSM_EEG</t>
+  </si>
+  <si>
+    <t>LODEFI</t>
+  </si>
+  <si>
+    <t>HYPNOPLUS</t>
+  </si>
+  <si>
+    <t>NANORAD2</t>
+  </si>
+  <si>
+    <t>PHONIX CARE</t>
   </si>
   <si>
     <t>STIMOBIII</t>
   </si>
   <si>
-    <t>HYPNOPLUS</t>
-  </si>
-  <si>
-    <t>LODEFI</t>
+    <t>ATENA</t>
+  </si>
+  <si>
+    <t>CTS-POP</t>
   </si>
   <si>
     <t>AVADIS</t>
   </si>
   <si>
-    <t>CTS-POP</t>
-  </si>
-  <si>
-    <t>NANORAD2</t>
-  </si>
-  <si>
-    <t>ATENA</t>
-  </si>
-  <si>
-    <t>PHONIX CARE</t>
-  </si>
-  <si>
-    <t>PSM_EEG</t>
-  </si>
-  <si>
     <t>OSCAR-PH</t>
   </si>
   <si>
@@ -1906,19 +1933,22 @@
     <t>PROCEDURE</t>
   </si>
   <si>
+    <t>DIETARY_SUPPLEMENT</t>
+  </si>
+  <si>
+    <t>RADIATION</t>
+  </si>
+  <si>
+    <t>OTHER</t>
+  </si>
+  <si>
     <t>BEHAVIORAL</t>
   </si>
   <si>
-    <t>DIETARY_SUPPLEMENT</t>
-  </si>
-  <si>
-    <t>RADIATION</t>
-  </si>
-  <si>
-    <t>OTHER</t>
-  </si>
-  <si>
     <t>BIOLOGICAL</t>
+  </si>
+  <si>
+    <t>DRUG (presumed)</t>
   </si>
   <si>
     <t>GENETIC</t>
@@ -2282,7 +2312,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I203"/>
+  <dimension ref="A1:I204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2328,13 +2358,13 @@
         <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="G2" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="I2" t="s">
-        <v>626</v>
+        <v>635</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2348,13 +2378,13 @@
         <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="G3" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="I3" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2368,13 +2398,13 @@
         <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="G4" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="I4" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2388,13 +2418,13 @@
         <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="G5" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="I5" t="s">
-        <v>628</v>
+        <v>637</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -2408,13 +2438,13 @@
         <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="G6" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="I6" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -2428,13 +2458,16 @@
         <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="G7" t="s">
-        <v>248</v>
+        <v>254</v>
+      </c>
+      <c r="H7" t="s">
+        <v>448</v>
       </c>
       <c r="I7" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -2448,16 +2481,16 @@
         <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="G8" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="H8" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="I8" t="s">
-        <v>630</v>
+        <v>638</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2471,16 +2504,16 @@
         <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="G9" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="H9" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="I9" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -2494,13 +2527,13 @@
         <v>25</v>
       </c>
       <c r="F10" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="G10" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="I10" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -2514,16 +2547,13 @@
         <v>26</v>
       </c>
       <c r="F11" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="G11" t="s">
-        <v>252</v>
-      </c>
-      <c r="H11" t="s">
-        <v>443</v>
+        <v>258</v>
       </c>
       <c r="I11" t="s">
-        <v>629</v>
+        <v>636</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -2537,16 +2567,16 @@
         <v>27</v>
       </c>
       <c r="F12" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="G12" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="H12" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="I12" t="s">
-        <v>631</v>
+        <v>639</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -2560,16 +2590,16 @@
         <v>28</v>
       </c>
       <c r="F13" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="G13" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="H13" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="I13" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -2583,16 +2613,16 @@
         <v>29</v>
       </c>
       <c r="F14" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="G14" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="H14" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="I14" t="s">
-        <v>626</v>
+        <v>635</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -2606,59 +2636,65 @@
         <v>30</v>
       </c>
       <c r="F15" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="G15" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="H15" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="I15" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16" t="s">
         <v>31</v>
       </c>
       <c r="F16" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="G16" t="s">
-        <v>257</v>
+        <v>263</v>
+      </c>
+      <c r="H16" t="s">
+        <v>455</v>
       </c>
       <c r="I16" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C17" t="s">
         <v>32</v>
       </c>
+      <c r="D17" t="s">
+        <v>216</v>
+      </c>
       <c r="F17" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="G17" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="H17" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="I17" t="s">
-        <v>626</v>
+        <v>636</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -2672,16 +2708,16 @@
         <v>33</v>
       </c>
       <c r="F18" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="G18" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="H18" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="I18" t="s">
-        <v>626</v>
+        <v>635</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -2695,36 +2731,39 @@
         <v>34</v>
       </c>
       <c r="F19" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="G19" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="H19" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="I19" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C20" t="s">
         <v>35</v>
       </c>
       <c r="F20" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="G20" t="s">
-        <v>261</v>
+        <v>267</v>
+      </c>
+      <c r="H20" t="s">
+        <v>459</v>
       </c>
       <c r="I20" t="s">
-        <v>628</v>
+        <v>636</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -2738,16 +2777,16 @@
         <v>36</v>
       </c>
       <c r="F21" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="G21" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="H21" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="I21" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -2761,39 +2800,39 @@
         <v>37</v>
       </c>
       <c r="F22" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="G22" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="H22" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="I22" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C23" t="s">
         <v>38</v>
       </c>
       <c r="F23" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="G23" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="H23" t="s">
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="I23" t="s">
-        <v>627</v>
+        <v>637</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -2807,39 +2846,39 @@
         <v>39</v>
       </c>
       <c r="F24" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="G24" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="H24" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="I24" t="s">
-        <v>627</v>
+        <v>640</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C25" t="s">
         <v>40</v>
       </c>
       <c r="F25" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="G25" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="H25" t="s">
-        <v>455</v>
+        <v>464</v>
       </c>
       <c r="I25" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -2853,85 +2892,82 @@
         <v>41</v>
       </c>
       <c r="F26" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="G26" t="s">
-        <v>267</v>
-      </c>
-      <c r="H26" t="s">
-        <v>456</v>
+        <v>273</v>
       </c>
       <c r="I26" t="s">
-        <v>628</v>
+        <v>637</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C27" t="s">
         <v>42</v>
       </c>
       <c r="F27" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="G27" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="H27" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="I27" t="s">
-        <v>628</v>
+        <v>640</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C28" t="s">
         <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="G28" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="H28" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="I28" t="s">
-        <v>627</v>
+        <v>637</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C29" t="s">
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="G29" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="H29" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="I29" t="s">
-        <v>628</v>
+        <v>636</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -2945,16 +2981,13 @@
         <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="G30" t="s">
-        <v>271</v>
-      </c>
-      <c r="H30" t="s">
-        <v>460</v>
+        <v>277</v>
       </c>
       <c r="I30" t="s">
-        <v>626</v>
+        <v>636</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -2967,17 +3000,20 @@
       <c r="C31" t="s">
         <v>46</v>
       </c>
+      <c r="D31" t="s">
+        <v>217</v>
+      </c>
       <c r="F31" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="G31" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="H31" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="I31" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -2991,16 +3027,16 @@
         <v>47</v>
       </c>
       <c r="F32" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="G32" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="H32" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="I32" t="s">
-        <v>626</v>
+        <v>635</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -3014,36 +3050,39 @@
         <v>48</v>
       </c>
       <c r="F33" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="G33" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="H33" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="I33" t="s">
-        <v>632</v>
+        <v>641</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C34" t="s">
         <v>49</v>
       </c>
       <c r="F34" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="G34" t="s">
-        <v>275</v>
+        <v>281</v>
+      </c>
+      <c r="H34" t="s">
+        <v>471</v>
       </c>
       <c r="I34" t="s">
-        <v>627</v>
+        <v>640</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -3057,39 +3096,39 @@
         <v>50</v>
       </c>
       <c r="F35" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="G35" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="H35" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="I35" t="s">
-        <v>626</v>
+        <v>635</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C36" t="s">
         <v>51</v>
       </c>
       <c r="F36" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="G36" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="H36" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="I36" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -3103,62 +3142,62 @@
         <v>52</v>
       </c>
       <c r="F37" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="G37" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="H37" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="I37" t="s">
-        <v>626</v>
+        <v>636</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B38" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C38" t="s">
         <v>53</v>
       </c>
       <c r="F38" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="G38" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="H38" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="I38" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C39" t="s">
         <v>54</v>
       </c>
       <c r="F39" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="G39" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="H39" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="I39" t="s">
-        <v>626</v>
+        <v>641</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -3172,59 +3211,59 @@
         <v>55</v>
       </c>
       <c r="F40" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="G40" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="H40" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="I40" t="s">
-        <v>626</v>
+        <v>641</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C41" t="s">
         <v>56</v>
       </c>
       <c r="F41" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="G41" t="s">
-        <v>282</v>
-      </c>
-      <c r="H41" t="s">
-        <v>470</v>
+        <v>288</v>
       </c>
       <c r="I41" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B42" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C42" t="s">
         <v>57</v>
       </c>
       <c r="F42" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="G42" t="s">
-        <v>283</v>
+        <v>289</v>
+      </c>
+      <c r="H42" t="s">
+        <v>478</v>
       </c>
       <c r="I42" t="s">
-        <v>626</v>
+        <v>640</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -3238,16 +3277,16 @@
         <v>58</v>
       </c>
       <c r="F43" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="G43" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="H43" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="I43" t="s">
-        <v>626</v>
+        <v>635</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -3261,16 +3300,16 @@
         <v>59</v>
       </c>
       <c r="F44" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="G44" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="H44" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="I44" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -3284,16 +3323,16 @@
         <v>60</v>
       </c>
       <c r="F45" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="G45" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="H45" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="I45" t="s">
-        <v>628</v>
+        <v>640</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -3307,16 +3346,16 @@
         <v>61</v>
       </c>
       <c r="F46" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="G46" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="H46" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="I46" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -3330,39 +3369,39 @@
         <v>62</v>
       </c>
       <c r="F47" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="G47" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="H47" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="I47" t="s">
-        <v>632</v>
+        <v>640</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B48" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C48" t="s">
         <v>63</v>
       </c>
       <c r="F48" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="G48" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="H48" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="I48" t="s">
-        <v>628</v>
+        <v>640</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -3376,13 +3415,13 @@
         <v>64</v>
       </c>
       <c r="F49" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="H49" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="I49" t="s">
-        <v>626</v>
+        <v>635</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -3396,16 +3435,16 @@
         <v>65</v>
       </c>
       <c r="F50" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="G50" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="H50" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="I50" t="s">
-        <v>626</v>
+        <v>640</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -3419,39 +3458,39 @@
         <v>66</v>
       </c>
       <c r="F51" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="G51" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="H51" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="I51" t="s">
-        <v>626</v>
+        <v>635</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B52" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C52" t="s">
         <v>67</v>
       </c>
       <c r="F52" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="G52" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="H52" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="I52" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -3465,39 +3504,39 @@
         <v>68</v>
       </c>
       <c r="F53" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="G53" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="H53" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="I53" t="s">
-        <v>632</v>
+        <v>640</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C54" t="s">
         <v>69</v>
       </c>
       <c r="F54" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="G54" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="H54" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="I54" t="s">
-        <v>629</v>
+        <v>637</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -3511,39 +3550,39 @@
         <v>70</v>
       </c>
       <c r="F55" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="G55" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="H55" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="I55" t="s">
-        <v>632</v>
+        <v>640</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B56" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C56" t="s">
         <v>71</v>
       </c>
       <c r="F56" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="G56" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="H56" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="I56" t="s">
-        <v>628</v>
+        <v>637</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -3557,16 +3596,16 @@
         <v>72</v>
       </c>
       <c r="F57" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="G57" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="H57" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="I57" t="s">
-        <v>626</v>
+        <v>635</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -3580,39 +3619,42 @@
         <v>73</v>
       </c>
       <c r="F58" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="G58" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="H58" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="I58" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B59" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C59" t="s">
         <v>74</v>
       </c>
+      <c r="D59" t="s">
+        <v>218</v>
+      </c>
       <c r="F59" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="G59" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="H59" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="I59" t="s">
-        <v>628</v>
+        <v>636</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -3626,16 +3668,16 @@
         <v>75</v>
       </c>
       <c r="F60" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="G60" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="H60" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="I60" t="s">
-        <v>626</v>
+        <v>635</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -3649,36 +3691,36 @@
         <v>76</v>
       </c>
       <c r="F61" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="G61" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="H61" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="I61" t="s">
-        <v>626</v>
+        <v>640</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B62" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C62" t="s">
         <v>77</v>
       </c>
       <c r="F62" t="s">
-        <v>233</v>
-      </c>
-      <c r="G62" t="s">
-        <v>302</v>
+        <v>239</v>
+      </c>
+      <c r="H62" t="s">
+        <v>498</v>
       </c>
       <c r="I62" t="s">
-        <v>626</v>
+        <v>640</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -3692,16 +3734,13 @@
         <v>78</v>
       </c>
       <c r="F63" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="G63" t="s">
-        <v>303</v>
-      </c>
-      <c r="H63" t="s">
-        <v>490</v>
+        <v>308</v>
       </c>
       <c r="I63" t="s">
-        <v>626</v>
+        <v>635</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -3715,59 +3754,65 @@
         <v>79</v>
       </c>
       <c r="F64" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="G64" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="H64" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="I64" t="s">
-        <v>626</v>
+        <v>635</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B65" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C65" t="s">
         <v>80</v>
       </c>
       <c r="F65" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="G65" t="s">
-        <v>305</v>
+        <v>310</v>
+      </c>
+      <c r="H65" t="s">
+        <v>500</v>
       </c>
       <c r="I65" t="s">
-        <v>628</v>
+        <v>635</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B66" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C66" t="s">
         <v>81</v>
       </c>
+      <c r="D66" t="s">
+        <v>219</v>
+      </c>
       <c r="F66" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="G66" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="H66" t="s">
-        <v>492</v>
+        <v>501</v>
       </c>
       <c r="I66" t="s">
-        <v>628</v>
+        <v>636</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -3781,154 +3826,151 @@
         <v>82</v>
       </c>
       <c r="F67" t="s">
-        <v>233</v>
+        <v>239</v>
+      </c>
+      <c r="G67" t="s">
+        <v>312</v>
       </c>
       <c r="H67" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
       <c r="I67" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B68" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C68" t="s">
         <v>83</v>
       </c>
       <c r="F68" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="G68" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="H68" t="s">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="I68" t="s">
-        <v>626</v>
+        <v>637</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B69" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C69" t="s">
         <v>84</v>
       </c>
       <c r="F69" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="G69" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="H69" t="s">
-        <v>495</v>
+        <v>504</v>
       </c>
       <c r="I69" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B70" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C70" t="s">
         <v>85</v>
       </c>
       <c r="F70" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="G70" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="H70" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
       <c r="I70" t="s">
-        <v>626</v>
+        <v>635</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B71" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C71" t="s">
         <v>86</v>
       </c>
-      <c r="D71" t="s">
-        <v>215</v>
-      </c>
       <c r="F71" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="G71" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="H71" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="I71" t="s">
-        <v>627</v>
+        <v>637</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B72" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C72" t="s">
         <v>87</v>
       </c>
       <c r="F72" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="G72" t="s">
-        <v>311</v>
-      </c>
-      <c r="H72" t="s">
-        <v>498</v>
+        <v>317</v>
       </c>
       <c r="I72" t="s">
-        <v>628</v>
+        <v>637</v>
       </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B73" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C73" t="s">
         <v>88</v>
       </c>
       <c r="F73" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="G73" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="H73" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="I73" t="s">
-        <v>627</v>
+        <v>640</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -3942,42 +3984,39 @@
         <v>89</v>
       </c>
       <c r="F74" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="G74" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="H74" t="s">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="I74" t="s">
-        <v>626</v>
+        <v>640</v>
       </c>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C75" t="s">
         <v>90</v>
       </c>
-      <c r="D75" t="s">
-        <v>216</v>
-      </c>
       <c r="F75" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="G75" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="H75" t="s">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="I75" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -3991,16 +4030,16 @@
         <v>91</v>
       </c>
       <c r="F76" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="G76" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="H76" t="s">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="I76" t="s">
-        <v>632</v>
+        <v>640</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -4014,16 +4053,16 @@
         <v>92</v>
       </c>
       <c r="F77" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="G77" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="H77" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="I77" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -4037,16 +4076,16 @@
         <v>93</v>
       </c>
       <c r="F78" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="G78" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="H78" t="s">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="I78" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -4060,59 +4099,65 @@
         <v>94</v>
       </c>
       <c r="F79" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="G79" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="H79" t="s">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="I79" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B80" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C80" t="s">
         <v>95</v>
       </c>
+      <c r="D80" t="s">
+        <v>220</v>
+      </c>
       <c r="F80" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="G80" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="H80" t="s">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="I80" t="s">
-        <v>626</v>
+        <v>636</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B81" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C81" t="s">
         <v>96</v>
       </c>
       <c r="F81" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="G81" t="s">
-        <v>320</v>
+        <v>326</v>
+      </c>
+      <c r="H81" t="s">
+        <v>515</v>
       </c>
       <c r="I81" t="s">
-        <v>626</v>
+        <v>642</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -4126,39 +4171,39 @@
         <v>97</v>
       </c>
       <c r="F82" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="G82" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="H82" t="s">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="I82" t="s">
-        <v>628</v>
+        <v>637</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B83" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C83" t="s">
         <v>98</v>
       </c>
       <c r="F83" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="G83" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="H83" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
       <c r="I83" t="s">
-        <v>628</v>
+        <v>640</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -4172,16 +4217,16 @@
         <v>99</v>
       </c>
       <c r="F84" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="G84" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="H84" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="I84" t="s">
-        <v>633</v>
+        <v>640</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -4195,62 +4240,59 @@
         <v>100</v>
       </c>
       <c r="F85" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="G85" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="H85" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="I85" t="s">
-        <v>626</v>
+        <v>640</v>
       </c>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B86" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C86" t="s">
         <v>101</v>
       </c>
       <c r="F86" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="G86" t="s">
-        <v>325</v>
-      </c>
-      <c r="H86" t="s">
-        <v>511</v>
+        <v>331</v>
       </c>
       <c r="I86" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B87" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C87" t="s">
         <v>102</v>
       </c>
       <c r="F87" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="G87" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="H87" t="s">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="I87" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -4264,16 +4306,16 @@
         <v>103</v>
       </c>
       <c r="F88" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="G88" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="H88" t="s">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="I88" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -4287,56 +4329,62 @@
         <v>104</v>
       </c>
       <c r="F89" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="G89" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="H89" t="s">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="I89" t="s">
-        <v>626</v>
+        <v>635</v>
       </c>
     </row>
     <row r="90" spans="1:9">
       <c r="A90" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B90" t="s">
-        <v>14</v>
-      </c>
-      <c r="D90" t="s">
-        <v>217</v>
+        <v>13</v>
+      </c>
+      <c r="C90" t="s">
+        <v>105</v>
       </c>
       <c r="F90" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="G90" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="H90" t="s">
-        <v>515</v>
+        <v>523</v>
+      </c>
+      <c r="I90" t="s">
+        <v>640</v>
       </c>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B91" t="s">
-        <v>14</v>
-      </c>
-      <c r="D91" t="s">
-        <v>218</v>
+        <v>13</v>
+      </c>
+      <c r="C91" t="s">
+        <v>106</v>
       </c>
       <c r="F91" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="G91" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="H91" t="s">
-        <v>516</v>
+        <v>524</v>
+      </c>
+      <c r="I91" t="s">
+        <v>640</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -4347,19 +4395,19 @@
         <v>13</v>
       </c>
       <c r="C92" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F92" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="G92" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="H92" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="I92" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -4370,19 +4418,19 @@
         <v>13</v>
       </c>
       <c r="C93" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F93" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="G93" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="H93" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="I93" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -4393,19 +4441,22 @@
         <v>13</v>
       </c>
       <c r="C94" t="s">
-        <v>107</v>
+        <v>109</v>
+      </c>
+      <c r="D94" t="s">
+        <v>221</v>
       </c>
       <c r="F94" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="G94" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="H94" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="I94" t="s">
-        <v>632</v>
+        <v>642</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -4416,42 +4467,42 @@
         <v>13</v>
       </c>
       <c r="C95" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F95" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="G95" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="H95" t="s">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="I95" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B96" t="s">
-        <v>13</v>
-      </c>
-      <c r="C96" t="s">
-        <v>109</v>
+        <v>14</v>
+      </c>
+      <c r="D96" t="s">
+        <v>222</v>
       </c>
       <c r="F96" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="G96" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="H96" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="I96" t="s">
-        <v>627</v>
+        <v>643</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -4462,19 +4513,19 @@
         <v>13</v>
       </c>
       <c r="C97" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F97" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="G97" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="H97" t="s">
-        <v>516</v>
+        <v>530</v>
       </c>
       <c r="I97" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -4485,19 +4536,19 @@
         <v>13</v>
       </c>
       <c r="C98" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F98" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="G98" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="H98" t="s">
-        <v>522</v>
+        <v>531</v>
       </c>
       <c r="I98" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -4508,19 +4559,19 @@
         <v>13</v>
       </c>
       <c r="C99" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F99" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="G99" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="H99" t="s">
-        <v>523</v>
+        <v>532</v>
       </c>
       <c r="I99" t="s">
-        <v>628</v>
+        <v>640</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -4531,19 +4582,19 @@
         <v>13</v>
       </c>
       <c r="C100" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F100" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="G100" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="H100" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="I100" t="s">
-        <v>626</v>
+        <v>636</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -4554,42 +4605,45 @@
         <v>13</v>
       </c>
       <c r="C101" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F101" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="G101" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="H101" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="I101" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
     </row>
     <row r="102" spans="1:9">
       <c r="A102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B102" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C102" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="D102" t="s">
+        <v>223</v>
       </c>
       <c r="F102" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="G102" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="H102" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="I102" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -4600,42 +4654,42 @@
         <v>13</v>
       </c>
       <c r="C103" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F103" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="G103" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="H103" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="I103" t="s">
-        <v>628</v>
+        <v>640</v>
       </c>
     </row>
     <row r="104" spans="1:9">
       <c r="A104" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B104" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C104" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F104" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="G104" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="H104" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="I104" t="s">
-        <v>632</v>
+        <v>644</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -4645,46 +4699,43 @@
       <c r="B105" t="s">
         <v>14</v>
       </c>
-      <c r="C105" t="s">
-        <v>118</v>
-      </c>
       <c r="D105" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="F105" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="G105" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="H105" t="s">
-        <v>529</v>
+        <v>537</v>
       </c>
       <c r="I105" t="s">
-        <v>627</v>
+        <v>643</v>
       </c>
     </row>
     <row r="106" spans="1:9">
       <c r="A106" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B106" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C106" t="s">
         <v>119</v>
       </c>
       <c r="F106" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="G106" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="H106" t="s">
-        <v>530</v>
+        <v>538</v>
       </c>
       <c r="I106" t="s">
-        <v>634</v>
+        <v>640</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -4698,62 +4749,62 @@
         <v>120</v>
       </c>
       <c r="F107" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="G107" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="H107" t="s">
-        <v>531</v>
+        <v>539</v>
       </c>
       <c r="I107" t="s">
-        <v>628</v>
+        <v>637</v>
       </c>
     </row>
     <row r="108" spans="1:9">
       <c r="A108" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B108" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C108" t="s">
         <v>121</v>
       </c>
       <c r="F108" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="G108" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="H108" t="s">
-        <v>532</v>
+        <v>540</v>
       </c>
       <c r="I108" t="s">
-        <v>629</v>
+        <v>640</v>
       </c>
     </row>
     <row r="109" spans="1:9">
       <c r="A109" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B109" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C109" t="s">
         <v>122</v>
       </c>
       <c r="F109" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="G109" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="H109" t="s">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="I109" t="s">
-        <v>635</v>
+        <v>640</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -4767,39 +4818,39 @@
         <v>123</v>
       </c>
       <c r="F110" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="G110" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="H110" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="I110" t="s">
-        <v>627</v>
+        <v>640</v>
       </c>
     </row>
     <row r="111" spans="1:9">
       <c r="A111" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B111" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C111" t="s">
         <v>124</v>
       </c>
       <c r="F111" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="G111" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="H111" t="s">
-        <v>535</v>
+        <v>543</v>
       </c>
       <c r="I111" t="s">
-        <v>632</v>
+        <v>642</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -4813,154 +4864,154 @@
         <v>125</v>
       </c>
       <c r="F112" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="G112" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="H112" t="s">
-        <v>536</v>
+        <v>544</v>
       </c>
       <c r="I112" t="s">
-        <v>626</v>
+        <v>636</v>
       </c>
     </row>
     <row r="113" spans="1:9">
       <c r="A113" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B113" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C113" t="s">
         <v>126</v>
       </c>
       <c r="F113" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="G113" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="H113" t="s">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="I113" t="s">
-        <v>628</v>
+        <v>642</v>
       </c>
     </row>
     <row r="114" spans="1:9">
       <c r="A114" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B114" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C114" t="s">
         <v>127</v>
       </c>
       <c r="F114" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="G114" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="H114" t="s">
-        <v>538</v>
+        <v>546</v>
       </c>
       <c r="I114" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
     </row>
     <row r="115" spans="1:9">
       <c r="A115" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B115" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C115" t="s">
         <v>128</v>
       </c>
       <c r="F115" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="G115" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="H115" t="s">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="I115" t="s">
-        <v>632</v>
+        <v>640</v>
       </c>
     </row>
     <row r="116" spans="1:9">
       <c r="A116" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B116" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C116" t="s">
         <v>129</v>
       </c>
       <c r="F116" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="G116" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="H116" t="s">
-        <v>540</v>
+        <v>548</v>
       </c>
       <c r="I116" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
     </row>
     <row r="117" spans="1:9">
       <c r="A117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B117" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C117" t="s">
         <v>130</v>
       </c>
       <c r="F117" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="G117" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="H117" t="s">
-        <v>541</v>
+        <v>549</v>
       </c>
       <c r="I117" t="s">
-        <v>628</v>
+        <v>641</v>
       </c>
     </row>
     <row r="118" spans="1:9">
       <c r="A118" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B118" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C118" t="s">
         <v>131</v>
       </c>
       <c r="F118" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="G118" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="H118" t="s">
-        <v>542</v>
+        <v>550</v>
       </c>
       <c r="I118" t="s">
-        <v>626</v>
+        <v>636</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -4974,39 +5025,39 @@
         <v>132</v>
       </c>
       <c r="F119" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="G119" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="H119" t="s">
-        <v>543</v>
+        <v>551</v>
       </c>
       <c r="I119" t="s">
-        <v>633</v>
+        <v>645</v>
       </c>
     </row>
     <row r="120" spans="1:9">
       <c r="A120" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B120" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C120" t="s">
         <v>133</v>
       </c>
       <c r="F120" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="G120" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="H120" t="s">
-        <v>544</v>
+        <v>552</v>
       </c>
       <c r="I120" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -5020,131 +5071,128 @@
         <v>134</v>
       </c>
       <c r="F121" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="G121" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="H121" t="s">
-        <v>545</v>
+        <v>553</v>
       </c>
       <c r="I121" t="s">
-        <v>627</v>
+        <v>637</v>
       </c>
     </row>
     <row r="122" spans="1:9">
       <c r="A122" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B122" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C122" t="s">
         <v>135</v>
       </c>
       <c r="F122" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="G122" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="H122" t="s">
-        <v>546</v>
+        <v>554</v>
       </c>
       <c r="I122" t="s">
-        <v>632</v>
+        <v>640</v>
       </c>
     </row>
     <row r="123" spans="1:9">
       <c r="A123" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B123" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C123" t="s">
         <v>136</v>
       </c>
       <c r="F123" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="G123" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="H123" t="s">
-        <v>547</v>
+        <v>555</v>
       </c>
       <c r="I123" t="s">
-        <v>626</v>
+        <v>640</v>
       </c>
     </row>
     <row r="124" spans="1:9">
       <c r="A124" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B124" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C124" t="s">
         <v>137</v>
       </c>
       <c r="F124" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="G124" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="H124" t="s">
-        <v>548</v>
+        <v>556</v>
       </c>
       <c r="I124" t="s">
-        <v>626</v>
+        <v>640</v>
       </c>
     </row>
     <row r="125" spans="1:9">
       <c r="A125" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B125" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C125" t="s">
         <v>138</v>
       </c>
       <c r="F125" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="G125" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="H125" t="s">
-        <v>549</v>
+        <v>557</v>
       </c>
       <c r="I125" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
     </row>
     <row r="126" spans="1:9">
       <c r="A126" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B126" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C126" t="s">
         <v>139</v>
       </c>
       <c r="F126" t="s">
-        <v>237</v>
-      </c>
-      <c r="G126" t="s">
-        <v>365</v>
+        <v>243</v>
       </c>
       <c r="H126" t="s">
-        <v>550</v>
+        <v>558</v>
       </c>
       <c r="I126" t="s">
-        <v>626</v>
+        <v>635</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -5158,13 +5206,16 @@
         <v>140</v>
       </c>
       <c r="F127" t="s">
-        <v>237</v>
+        <v>243</v>
+      </c>
+      <c r="G127" t="s">
+        <v>371</v>
       </c>
       <c r="H127" t="s">
-        <v>551</v>
+        <v>559</v>
       </c>
       <c r="I127" t="s">
-        <v>626</v>
+        <v>640</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -5178,16 +5229,16 @@
         <v>141</v>
       </c>
       <c r="F128" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="G128" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="H128" t="s">
-        <v>552</v>
+        <v>560</v>
       </c>
       <c r="I128" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -5201,16 +5252,16 @@
         <v>142</v>
       </c>
       <c r="F129" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="G129" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="H129" t="s">
-        <v>553</v>
+        <v>561</v>
       </c>
       <c r="I129" t="s">
-        <v>626</v>
+        <v>640</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -5223,17 +5274,20 @@
       <c r="C130" t="s">
         <v>143</v>
       </c>
+      <c r="D130" t="s">
+        <v>225</v>
+      </c>
       <c r="F130" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="G130" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="H130" t="s">
-        <v>554</v>
+        <v>562</v>
       </c>
       <c r="I130" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -5247,39 +5301,39 @@
         <v>144</v>
       </c>
       <c r="F131" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="G131" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="H131" t="s">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="I131" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
     </row>
     <row r="132" spans="1:9">
       <c r="A132" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B132" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C132" t="s">
         <v>145</v>
       </c>
       <c r="F132" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="G132" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="H132" t="s">
-        <v>556</v>
+        <v>564</v>
       </c>
       <c r="I132" t="s">
-        <v>631</v>
+        <v>640</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -5293,16 +5347,16 @@
         <v>146</v>
       </c>
       <c r="F133" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="G133" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="H133" t="s">
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="I133" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
     </row>
     <row r="134" spans="1:9">
@@ -5316,105 +5370,105 @@
         <v>147</v>
       </c>
       <c r="F134" t="s">
-        <v>237</v>
+        <v>243</v>
+      </c>
+      <c r="G134" t="s">
+        <v>378</v>
       </c>
       <c r="H134" t="s">
-        <v>558</v>
+        <v>566</v>
       </c>
       <c r="I134" t="s">
-        <v>626</v>
+        <v>635</v>
       </c>
     </row>
     <row r="135" spans="1:9">
       <c r="A135" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B135" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C135" t="s">
         <v>148</v>
       </c>
       <c r="F135" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="G135" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="H135" t="s">
-        <v>559</v>
+        <v>567</v>
       </c>
       <c r="I135" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
     </row>
     <row r="136" spans="1:9">
       <c r="A136" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B136" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C136" t="s">
         <v>149</v>
       </c>
       <c r="F136" t="s">
-        <v>237</v>
-      </c>
-      <c r="G136" t="s">
-        <v>373</v>
+        <v>243</v>
       </c>
       <c r="H136" t="s">
-        <v>560</v>
+        <v>568</v>
       </c>
       <c r="I136" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
     </row>
     <row r="137" spans="1:9">
       <c r="A137" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B137" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C137" t="s">
         <v>150</v>
       </c>
       <c r="F137" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="G137" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="H137" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
       <c r="I137" t="s">
-        <v>628</v>
+        <v>639</v>
       </c>
     </row>
     <row r="138" spans="1:9">
       <c r="A138" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B138" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C138" t="s">
         <v>151</v>
       </c>
       <c r="F138" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="G138" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="H138" t="s">
-        <v>562</v>
+        <v>570</v>
       </c>
       <c r="I138" t="s">
-        <v>627</v>
+        <v>640</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -5428,16 +5482,16 @@
         <v>152</v>
       </c>
       <c r="F139" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="G139" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="H139" t="s">
-        <v>563</v>
+        <v>571</v>
       </c>
       <c r="I139" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -5451,39 +5505,39 @@
         <v>153</v>
       </c>
       <c r="F140" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="G140" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="H140" t="s">
-        <v>564</v>
+        <v>572</v>
       </c>
       <c r="I140" t="s">
-        <v>626</v>
+        <v>637</v>
       </c>
     </row>
     <row r="141" spans="1:9">
       <c r="A141" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C141" t="s">
         <v>154</v>
       </c>
       <c r="F141" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="G141" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="H141" t="s">
-        <v>565</v>
+        <v>573</v>
       </c>
       <c r="I141" t="s">
-        <v>632</v>
+        <v>645</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -5497,16 +5551,16 @@
         <v>155</v>
       </c>
       <c r="F142" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="G142" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="H142" t="s">
-        <v>566</v>
+        <v>574</v>
       </c>
       <c r="I142" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -5520,39 +5574,39 @@
         <v>156</v>
       </c>
       <c r="F143" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="G143" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="H143" t="s">
-        <v>567</v>
+        <v>575</v>
       </c>
       <c r="I143" t="s">
-        <v>632</v>
+        <v>641</v>
       </c>
     </row>
     <row r="144" spans="1:9">
       <c r="A144" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B144" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C144" t="s">
         <v>157</v>
       </c>
       <c r="F144" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="G144" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="H144" t="s">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="I144" t="s">
-        <v>635</v>
+        <v>640</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -5566,16 +5620,16 @@
         <v>158</v>
       </c>
       <c r="F145" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="G145" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="H145" t="s">
-        <v>569</v>
+        <v>577</v>
       </c>
       <c r="I145" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -5589,16 +5643,16 @@
         <v>159</v>
       </c>
       <c r="F146" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="G146" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="H146" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="I146" t="s">
-        <v>626</v>
+        <v>640</v>
       </c>
     </row>
     <row r="147" spans="1:9">
@@ -5612,16 +5666,16 @@
         <v>160</v>
       </c>
       <c r="F147" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="G147" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="H147" t="s">
-        <v>571</v>
+        <v>579</v>
       </c>
       <c r="I147" t="s">
-        <v>635</v>
+        <v>645</v>
       </c>
     </row>
     <row r="148" spans="1:9">
@@ -5635,16 +5689,16 @@
         <v>161</v>
       </c>
       <c r="F148" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="G148" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="H148" t="s">
-        <v>572</v>
+        <v>580</v>
       </c>
       <c r="I148" t="s">
-        <v>628</v>
+        <v>635</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -5658,13 +5712,16 @@
         <v>162</v>
       </c>
       <c r="F149" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="G149" t="s">
-        <v>386</v>
+        <v>392</v>
+      </c>
+      <c r="H149" t="s">
+        <v>581</v>
       </c>
       <c r="I149" t="s">
-        <v>632</v>
+        <v>640</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -5674,17 +5731,17 @@
       <c r="B150" t="s">
         <v>13</v>
       </c>
-      <c r="D150" t="s">
-        <v>220</v>
+      <c r="C150" t="s">
+        <v>163</v>
       </c>
       <c r="F150" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="G150" t="s">
-        <v>387</v>
-      </c>
-      <c r="H150" t="s">
-        <v>573</v>
+        <v>393</v>
+      </c>
+      <c r="I150" t="s">
+        <v>640</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -5695,19 +5752,19 @@
         <v>13</v>
       </c>
       <c r="C151" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F151" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="G151" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="H151" t="s">
-        <v>574</v>
+        <v>582</v>
       </c>
       <c r="I151" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -5718,19 +5775,19 @@
         <v>13</v>
       </c>
       <c r="C152" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F152" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="G152" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="H152" t="s">
-        <v>575</v>
+        <v>583</v>
       </c>
       <c r="I152" t="s">
-        <v>635</v>
+        <v>640</v>
       </c>
     </row>
     <row r="153" spans="1:9">
@@ -5740,20 +5797,20 @@
       <c r="B153" t="s">
         <v>13</v>
       </c>
-      <c r="C153" t="s">
-        <v>165</v>
+      <c r="D153" t="s">
+        <v>226</v>
       </c>
       <c r="F153" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="G153" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="H153" t="s">
-        <v>576</v>
+        <v>584</v>
       </c>
       <c r="I153" t="s">
-        <v>628</v>
+        <v>643</v>
       </c>
     </row>
     <row r="154" spans="1:9">
@@ -5767,16 +5824,16 @@
         <v>166</v>
       </c>
       <c r="F154" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="G154" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="H154" t="s">
-        <v>577</v>
+        <v>585</v>
       </c>
       <c r="I154" t="s">
-        <v>626</v>
+        <v>645</v>
       </c>
     </row>
     <row r="155" spans="1:9">
@@ -5790,16 +5847,16 @@
         <v>167</v>
       </c>
       <c r="F155" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="G155" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="H155" t="s">
-        <v>578</v>
+        <v>586</v>
       </c>
       <c r="I155" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -5813,39 +5870,39 @@
         <v>168</v>
       </c>
       <c r="F156" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="G156" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="H156" t="s">
-        <v>579</v>
+        <v>587</v>
       </c>
       <c r="I156" t="s">
-        <v>630</v>
+        <v>636</v>
       </c>
     </row>
     <row r="157" spans="1:9">
       <c r="A157" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B157" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C157" t="s">
         <v>169</v>
       </c>
       <c r="F157" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="G157" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="H157" t="s">
-        <v>580</v>
+        <v>588</v>
       </c>
       <c r="I157" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
     </row>
     <row r="158" spans="1:9">
@@ -5859,16 +5916,16 @@
         <v>170</v>
       </c>
       <c r="F158" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="G158" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="H158" t="s">
-        <v>581</v>
+        <v>589</v>
       </c>
       <c r="I158" t="s">
-        <v>626</v>
+        <v>640</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -5882,16 +5939,16 @@
         <v>171</v>
       </c>
       <c r="F159" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="G159" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="H159" t="s">
-        <v>582</v>
+        <v>590</v>
       </c>
       <c r="I159" t="s">
-        <v>632</v>
+        <v>640</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -5905,16 +5962,16 @@
         <v>172</v>
       </c>
       <c r="F160" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="G160" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="H160" t="s">
-        <v>583</v>
+        <v>591</v>
       </c>
       <c r="I160" t="s">
-        <v>626</v>
+        <v>641</v>
       </c>
     </row>
     <row r="161" spans="1:9">
@@ -5928,16 +5985,16 @@
         <v>173</v>
       </c>
       <c r="F161" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="G161" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="H161" t="s">
-        <v>584</v>
+        <v>592</v>
       </c>
       <c r="I161" t="s">
-        <v>627</v>
+        <v>641</v>
       </c>
     </row>
     <row r="162" spans="1:9">
@@ -5951,16 +6008,16 @@
         <v>174</v>
       </c>
       <c r="F162" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="G162" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="H162" t="s">
-        <v>585</v>
+        <v>593</v>
       </c>
       <c r="I162" t="s">
-        <v>629</v>
+        <v>638</v>
       </c>
     </row>
     <row r="163" spans="1:9">
@@ -5974,16 +6031,16 @@
         <v>175</v>
       </c>
       <c r="F163" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="G163" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="H163" t="s">
-        <v>586</v>
+        <v>594</v>
       </c>
       <c r="I163" t="s">
-        <v>632</v>
+        <v>641</v>
       </c>
     </row>
     <row r="164" spans="1:9">
@@ -5997,16 +6054,16 @@
         <v>176</v>
       </c>
       <c r="F164" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="G164" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="H164" t="s">
-        <v>587</v>
+        <v>595</v>
       </c>
       <c r="I164" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
     </row>
     <row r="165" spans="1:9">
@@ -6020,16 +6077,16 @@
         <v>177</v>
       </c>
       <c r="F165" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="G165" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="H165" t="s">
-        <v>588</v>
+        <v>596</v>
       </c>
       <c r="I165" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
     </row>
     <row r="166" spans="1:9">
@@ -6043,16 +6100,16 @@
         <v>178</v>
       </c>
       <c r="F166" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="G166" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="H166" t="s">
-        <v>589</v>
+        <v>597</v>
       </c>
       <c r="I166" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
     </row>
     <row r="167" spans="1:9">
@@ -6066,16 +6123,16 @@
         <v>179</v>
       </c>
       <c r="F167" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="G167" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="H167" t="s">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="I167" t="s">
-        <v>629</v>
+        <v>640</v>
       </c>
     </row>
     <row r="168" spans="1:9">
@@ -6089,62 +6146,59 @@
         <v>180</v>
       </c>
       <c r="F168" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="G168" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="H168" t="s">
-        <v>591</v>
+        <v>599</v>
       </c>
       <c r="I168" t="s">
-        <v>626</v>
+        <v>635</v>
       </c>
     </row>
     <row r="169" spans="1:9">
       <c r="A169" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B169" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C169" t="s">
         <v>181</v>
       </c>
       <c r="F169" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="G169" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="H169" t="s">
-        <v>592</v>
+        <v>600</v>
       </c>
       <c r="I169" t="s">
-        <v>631</v>
+        <v>640</v>
       </c>
     </row>
     <row r="170" spans="1:9">
       <c r="A170" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B170" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C170" t="s">
         <v>182</v>
       </c>
       <c r="F170" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="G170" t="s">
-        <v>407</v>
-      </c>
-      <c r="H170" t="s">
-        <v>593</v>
+        <v>413</v>
       </c>
       <c r="I170" t="s">
-        <v>626</v>
+        <v>640</v>
       </c>
     </row>
     <row r="171" spans="1:9">
@@ -6158,16 +6212,16 @@
         <v>183</v>
       </c>
       <c r="F171" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="G171" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="H171" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="I171" t="s">
-        <v>626</v>
+        <v>635</v>
       </c>
     </row>
     <row r="172" spans="1:9">
@@ -6181,39 +6235,39 @@
         <v>184</v>
       </c>
       <c r="F172" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="G172" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="H172" t="s">
-        <v>595</v>
+        <v>602</v>
       </c>
       <c r="I172" t="s">
-        <v>626</v>
+        <v>636</v>
       </c>
     </row>
     <row r="173" spans="1:9">
       <c r="A173" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B173" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C173" t="s">
         <v>185</v>
       </c>
       <c r="F173" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="G173" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="H173" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="I173" t="s">
-        <v>627</v>
+        <v>640</v>
       </c>
     </row>
     <row r="174" spans="1:9">
@@ -6227,13 +6281,16 @@
         <v>186</v>
       </c>
       <c r="F174" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="G174" t="s">
-        <v>411</v>
+        <v>417</v>
+      </c>
+      <c r="H174" t="s">
+        <v>604</v>
       </c>
       <c r="I174" t="s">
-        <v>632</v>
+        <v>640</v>
       </c>
     </row>
     <row r="175" spans="1:9">
@@ -6247,16 +6304,16 @@
         <v>187</v>
       </c>
       <c r="F175" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="G175" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="H175" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
       <c r="I175" t="s">
-        <v>635</v>
+        <v>640</v>
       </c>
     </row>
     <row r="176" spans="1:9">
@@ -6270,16 +6327,16 @@
         <v>188</v>
       </c>
       <c r="F176" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="G176" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="H176" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
       <c r="I176" t="s">
-        <v>626</v>
+        <v>645</v>
       </c>
     </row>
     <row r="177" spans="1:9">
@@ -6293,13 +6350,13 @@
         <v>189</v>
       </c>
       <c r="F177" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="G177" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="H177" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
       <c r="I177" t="s">
         <v>635</v>
@@ -6307,22 +6364,22 @@
     </row>
     <row r="178" spans="1:9">
       <c r="A178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B178" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C178" t="s">
         <v>190</v>
       </c>
       <c r="F178" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="G178" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="H178" t="s">
-        <v>600</v>
+        <v>608</v>
       </c>
       <c r="I178" t="s">
         <v>635</v>
@@ -6339,39 +6396,39 @@
         <v>191</v>
       </c>
       <c r="F179" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="G179" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="H179" t="s">
-        <v>601</v>
+        <v>609</v>
       </c>
       <c r="I179" t="s">
-        <v>626</v>
+        <v>635</v>
       </c>
     </row>
     <row r="180" spans="1:9">
       <c r="A180" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B180" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C180" t="s">
         <v>192</v>
       </c>
       <c r="F180" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="G180" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="H180" t="s">
-        <v>602</v>
+        <v>610</v>
       </c>
       <c r="I180" t="s">
-        <v>626</v>
+        <v>635</v>
       </c>
     </row>
     <row r="181" spans="1:9">
@@ -6385,39 +6442,39 @@
         <v>193</v>
       </c>
       <c r="F181" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="G181" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="H181" t="s">
-        <v>603</v>
+        <v>611</v>
       </c>
       <c r="I181" t="s">
-        <v>632</v>
+        <v>645</v>
       </c>
     </row>
     <row r="182" spans="1:9">
       <c r="A182" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B182" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C182" t="s">
         <v>194</v>
       </c>
       <c r="F182" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="G182" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="H182" t="s">
-        <v>604</v>
+        <v>612</v>
       </c>
       <c r="I182" t="s">
-        <v>626</v>
+        <v>635</v>
       </c>
     </row>
     <row r="183" spans="1:9">
@@ -6431,16 +6488,16 @@
         <v>195</v>
       </c>
       <c r="F183" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="G183" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="H183" t="s">
-        <v>605</v>
+        <v>613</v>
       </c>
       <c r="I183" t="s">
-        <v>632</v>
+        <v>640</v>
       </c>
     </row>
     <row r="184" spans="1:9">
@@ -6454,16 +6511,16 @@
         <v>196</v>
       </c>
       <c r="F184" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="G184" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="H184" t="s">
-        <v>606</v>
+        <v>614</v>
       </c>
       <c r="I184" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
     </row>
     <row r="185" spans="1:9">
@@ -6477,16 +6534,16 @@
         <v>197</v>
       </c>
       <c r="F185" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="G185" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="H185" t="s">
-        <v>607</v>
+        <v>615</v>
       </c>
       <c r="I185" t="s">
-        <v>626</v>
+        <v>636</v>
       </c>
     </row>
     <row r="186" spans="1:9">
@@ -6500,16 +6557,16 @@
         <v>198</v>
       </c>
       <c r="F186" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="G186" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="H186" t="s">
-        <v>608</v>
+        <v>616</v>
       </c>
       <c r="I186" t="s">
-        <v>626</v>
+        <v>635</v>
       </c>
     </row>
     <row r="187" spans="1:9">
@@ -6523,16 +6580,16 @@
         <v>199</v>
       </c>
       <c r="F187" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="G187" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="H187" t="s">
-        <v>609</v>
+        <v>617</v>
       </c>
       <c r="I187" t="s">
-        <v>627</v>
+        <v>640</v>
       </c>
     </row>
     <row r="188" spans="1:9">
@@ -6546,16 +6603,16 @@
         <v>200</v>
       </c>
       <c r="F188" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="G188" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="H188" t="s">
-        <v>610</v>
+        <v>618</v>
       </c>
       <c r="I188" t="s">
-        <v>632</v>
+        <v>640</v>
       </c>
     </row>
     <row r="189" spans="1:9">
@@ -6569,16 +6626,16 @@
         <v>201</v>
       </c>
       <c r="F189" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="G189" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="H189" t="s">
-        <v>611</v>
+        <v>619</v>
       </c>
       <c r="I189" t="s">
-        <v>628</v>
+        <v>637</v>
       </c>
     </row>
     <row r="190" spans="1:9">
@@ -6592,16 +6649,16 @@
         <v>202</v>
       </c>
       <c r="F190" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="G190" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="H190" t="s">
-        <v>612</v>
+        <v>620</v>
       </c>
       <c r="I190" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
     </row>
     <row r="191" spans="1:9">
@@ -6615,16 +6672,16 @@
         <v>203</v>
       </c>
       <c r="F191" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="G191" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="H191" t="s">
-        <v>613</v>
+        <v>621</v>
       </c>
       <c r="I191" t="s">
-        <v>632</v>
+        <v>640</v>
       </c>
     </row>
     <row r="192" spans="1:9">
@@ -6638,16 +6695,16 @@
         <v>204</v>
       </c>
       <c r="F192" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="G192" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="H192" t="s">
-        <v>614</v>
+        <v>622</v>
       </c>
       <c r="I192" t="s">
-        <v>632</v>
+        <v>640</v>
       </c>
     </row>
     <row r="193" spans="1:9">
@@ -6661,16 +6718,16 @@
         <v>205</v>
       </c>
       <c r="F193" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="G193" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="H193" t="s">
-        <v>615</v>
+        <v>623</v>
       </c>
       <c r="I193" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
     </row>
     <row r="194" spans="1:9">
@@ -6684,16 +6741,16 @@
         <v>206</v>
       </c>
       <c r="F194" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="G194" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="H194" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
       <c r="I194" t="s">
-        <v>632</v>
+        <v>640</v>
       </c>
     </row>
     <row r="195" spans="1:9">
@@ -6707,16 +6764,16 @@
         <v>207</v>
       </c>
       <c r="F195" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="G195" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="H195" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
       <c r="I195" t="s">
-        <v>632</v>
+        <v>640</v>
       </c>
     </row>
     <row r="196" spans="1:9">
@@ -6730,16 +6787,16 @@
         <v>208</v>
       </c>
       <c r="F196" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="G196" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="H196" t="s">
-        <v>618</v>
+        <v>626</v>
       </c>
       <c r="I196" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="197" spans="1:9">
@@ -6753,16 +6810,16 @@
         <v>209</v>
       </c>
       <c r="F197" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="G197" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="H197" t="s">
-        <v>619</v>
+        <v>627</v>
       </c>
       <c r="I197" t="s">
-        <v>626</v>
+        <v>640</v>
       </c>
     </row>
     <row r="198" spans="1:9">
@@ -6772,20 +6829,20 @@
       <c r="B198" t="s">
         <v>13</v>
       </c>
-      <c r="C198" t="s">
-        <v>210</v>
+      <c r="D198" t="s">
+        <v>227</v>
       </c>
       <c r="F198" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="G198" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="H198" t="s">
-        <v>620</v>
+        <v>628</v>
       </c>
       <c r="I198" t="s">
-        <v>628</v>
+        <v>643</v>
       </c>
     </row>
     <row r="199" spans="1:9">
@@ -6795,17 +6852,20 @@
       <c r="B199" t="s">
         <v>13</v>
       </c>
-      <c r="D199" t="s">
-        <v>221</v>
+      <c r="C199" t="s">
+        <v>210</v>
       </c>
       <c r="F199" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="G199" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="H199" t="s">
-        <v>621</v>
+        <v>629</v>
+      </c>
+      <c r="I199" t="s">
+        <v>635</v>
       </c>
     </row>
     <row r="200" spans="1:9">
@@ -6819,16 +6879,16 @@
         <v>211</v>
       </c>
       <c r="F200" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="G200" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="H200" t="s">
-        <v>622</v>
+        <v>630</v>
       </c>
       <c r="I200" t="s">
-        <v>632</v>
+        <v>640</v>
       </c>
     </row>
     <row r="201" spans="1:9">
@@ -6842,16 +6902,16 @@
         <v>212</v>
       </c>
       <c r="F201" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="G201" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="H201" t="s">
-        <v>623</v>
+        <v>631</v>
       </c>
       <c r="I201" t="s">
-        <v>626</v>
+        <v>640</v>
       </c>
     </row>
     <row r="202" spans="1:9">
@@ -6865,16 +6925,16 @@
         <v>213</v>
       </c>
       <c r="F202" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="G202" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="H202" t="s">
-        <v>624</v>
+        <v>632</v>
       </c>
       <c r="I202" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
     </row>
     <row r="203" spans="1:9">
@@ -6888,16 +6948,39 @@
         <v>214</v>
       </c>
       <c r="F203" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="G203" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="H203" t="s">
-        <v>625</v>
+        <v>633</v>
       </c>
       <c r="I203" t="s">
-        <v>632</v>
+        <v>635</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9">
+      <c r="A204" t="s">
+        <v>9</v>
+      </c>
+      <c r="B204" t="s">
+        <v>13</v>
+      </c>
+      <c r="C204" t="s">
+        <v>215</v>
+      </c>
+      <c r="F204" t="s">
+        <v>248</v>
+      </c>
+      <c r="G204" t="s">
+        <v>447</v>
+      </c>
+      <c r="H204" t="s">
+        <v>634</v>
+      </c>
+      <c r="I204" t="s">
+        <v>640</v>
       </c>
     </row>
   </sheetData>
